--- a/Excel/Pitcher_Model.xlsx
+++ b/Excel/Pitcher_Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="Cash" sheetId="1" r:id="rId1"/>
@@ -659,10 +659,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -748,7 +752,7 @@
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -758,6 +762,8 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -767,6 +773,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="2"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -1073,17 +1081,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="29" bestFit="1" customWidth="1"/>
     <col min="26" max="35" width="0" hidden="1" customWidth="1"/>
     <col min="36" max="37" width="1.6640625" customWidth="1"/>
     <col min="48" max="48" width="2.33203125" customWidth="1"/>
@@ -1091,7 +1099,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
-      <c r="G1"/>
+      <c r="H1"/>
       <c r="AN1" s="8">
         <v>0.4</v>
       </c>
@@ -1118,7 +1126,7 @@
       </c>
     </row>
     <row r="2" spans="1:53">
-      <c r="G2"/>
+      <c r="H2"/>
       <c r="AN2" s="10">
         <f t="shared" ref="AN2:AU2" si="0">AN1/SUM($AN$1:$AU$1)</f>
         <v>4.651162790697675E-2</v>
@@ -1163,43 +1171,43 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>55</v>
@@ -1308,44 +1316,44 @@
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>10000</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="28">
+      <c r="H4" s="28">
         <v>42475.444444444445</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>435</v>
       </c>
-      <c r="I4" s="25">
+      <c r="J4" s="25">
         <v>10</v>
       </c>
-      <c r="J4" s="25">
+      <c r="K4" s="25">
         <v>3.11</v>
       </c>
-      <c r="K4" s="25">
+      <c r="L4" s="25">
         <v>4.21</v>
       </c>
-      <c r="L4" s="25">
+      <c r="M4" s="25">
         <v>2.94</v>
       </c>
-      <c r="M4" s="25">
+      <c r="N4" s="25">
         <v>6.31</v>
       </c>
-      <c r="N4" s="25">
+      <c r="O4" s="25">
         <v>8.6300000000000008</v>
       </c>
-      <c r="O4" s="25">
+      <c r="P4" s="25">
         <v>9</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="Q4" s="26">
         <v>0.24299999999999999</v>
@@ -1413,19 +1421,19 @@
         <v>76.370431893687723</v>
       </c>
       <c r="AN4">
-        <f>RANK(E4,E$4:E$33,0)</f>
+        <f>RANK(F4,F$4:F$33,0)</f>
         <v>4</v>
       </c>
       <c r="AO4">
-        <f>RANK(J4,J$4:J$33,0)</f>
+        <f>RANK(K4,K$4:K$33,0)</f>
         <v>22</v>
       </c>
       <c r="AP4">
-        <f>RANK(K4,K$4:K$33,0)</f>
+        <f>RANK(L4,L$4:L$33,0)</f>
         <v>10</v>
       </c>
       <c r="AQ4">
-        <f>RANK(N4,N$4:N$33,1)</f>
+        <f>RANK(O4,O$4:O$33,1)</f>
         <v>21</v>
       </c>
       <c r="AR4">
@@ -1472,44 +1480,44 @@
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>12200</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="28">
+      <c r="H5" s="28">
         <v>42475.298611111109</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>396.2</v>
       </c>
-      <c r="I5" s="25">
+      <c r="J5" s="25">
         <v>14</v>
       </c>
-      <c r="J5" s="25">
+      <c r="K5" s="25">
         <v>2.56</v>
       </c>
-      <c r="K5" s="25">
+      <c r="L5" s="25">
         <v>3.04</v>
       </c>
-      <c r="L5" s="25">
+      <c r="M5" s="25">
         <v>2.7</v>
       </c>
-      <c r="M5" s="25">
+      <c r="N5" s="25">
         <v>3.71</v>
       </c>
-      <c r="N5" s="25">
+      <c r="O5" s="25">
         <v>11.25</v>
       </c>
-      <c r="O5" s="25">
+      <c r="P5" s="25">
         <v>9</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="Q5" s="26">
         <v>0.27400000000000002</v>
@@ -1577,19 +1585,19 @@
         <v>73.67109634551494</v>
       </c>
       <c r="AN5">
-        <f>RANK(E5,E$4:E$33,0)</f>
+        <f>RANK(F5,F$4:F$33,0)</f>
         <v>2</v>
       </c>
       <c r="AO5">
-        <f>RANK(J5,J$4:J$33,0)</f>
+        <f>RANK(K5,K$4:K$33,0)</f>
         <v>25</v>
       </c>
       <c r="AP5">
-        <f>RANK(K5,K$4:K$33,0)</f>
+        <f>RANK(L5,L$4:L$33,0)</f>
         <v>20</v>
       </c>
       <c r="AQ5">
-        <f>RANK(N5,N$4:N$33,1)</f>
+        <f>RANK(O5,O$4:O$33,1)</f>
         <v>27</v>
       </c>
       <c r="AR5">
@@ -1636,44 +1644,44 @@
       <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>13700</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="28">
+      <c r="H6" s="28">
         <v>42475.423611111109</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>446</v>
       </c>
-      <c r="I6" s="25">
+      <c r="J6" s="25">
         <v>15</v>
       </c>
-      <c r="J6" s="25">
+      <c r="K6" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K6" s="25">
+      <c r="L6" s="25">
         <v>3.13</v>
       </c>
-      <c r="L6" s="25">
+      <c r="M6" s="25">
         <v>1.96</v>
       </c>
-      <c r="M6" s="25">
+      <c r="N6" s="25">
         <v>3.48</v>
       </c>
-      <c r="N6" s="25">
+      <c r="O6" s="25">
         <v>11.18</v>
       </c>
-      <c r="O6" s="25">
+      <c r="P6" s="25">
         <v>8.4</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="Q6" s="26">
         <v>0.32200000000000001</v>
@@ -1741,19 +1749,19 @@
         <v>72.674418604651166</v>
       </c>
       <c r="AN6">
-        <f>RANK(E6,E$4:E$33,0)</f>
+        <f>RANK(F6,F$4:F$33,0)</f>
         <v>1</v>
       </c>
       <c r="AO6">
-        <f>RANK(J6,J$4:J$33,0)</f>
+        <f>RANK(K6,K$4:K$33,0)</f>
         <v>27</v>
       </c>
       <c r="AP6">
-        <f>RANK(K6,K$4:K$33,0)</f>
+        <f>RANK(L6,L$4:L$33,0)</f>
         <v>17</v>
       </c>
       <c r="AQ6">
-        <f>RANK(N6,N$4:N$33,1)</f>
+        <f>RANK(O6,O$4:O$33,1)</f>
         <v>26</v>
       </c>
       <c r="AR6">
@@ -1800,44 +1808,44 @@
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>9300</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="28">
+      <c r="H7" s="28">
         <v>42475.340277777781</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>387.2</v>
       </c>
-      <c r="I7" s="25">
+      <c r="J7" s="25">
         <v>11.2</v>
       </c>
-      <c r="J7" s="25">
+      <c r="K7" s="25">
         <v>3.6</v>
       </c>
-      <c r="K7" s="25">
+      <c r="L7" s="25">
         <v>3.28</v>
       </c>
-      <c r="L7" s="25">
+      <c r="M7" s="25">
         <v>3.29</v>
       </c>
-      <c r="M7" s="25">
+      <c r="N7" s="25">
         <v>3.13</v>
       </c>
-      <c r="N7" s="25">
+      <c r="O7" s="25">
         <v>8.1999999999999993</v>
       </c>
-      <c r="O7" s="25">
+      <c r="P7" s="25">
         <v>10.029999999999999</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="Q7" s="26">
         <v>0.26300000000000001</v>
@@ -1905,19 +1913,19 @@
         <v>69.102990033222596</v>
       </c>
       <c r="AN7">
-        <f>RANK(E7,E$4:E$33,0)</f>
+        <f>RANK(F7,F$4:F$33,0)</f>
         <v>6</v>
       </c>
       <c r="AO7">
-        <f>RANK(J7,J$4:J$33,0)</f>
+        <f>RANK(K7,K$4:K$33,0)</f>
         <v>20</v>
       </c>
       <c r="AP7">
-        <f>RANK(K7,K$4:K$33,0)</f>
+        <f>RANK(L7,L$4:L$33,0)</f>
         <v>16</v>
       </c>
       <c r="AQ7">
-        <f>RANK(N7,N$4:N$33,1)</f>
+        <f>RANK(O7,O$4:O$33,1)</f>
         <v>19</v>
       </c>
       <c r="AR7">
@@ -1964,44 +1972,44 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>7300</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="28">
+      <c r="H8" s="28">
         <v>42475.420138888891</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>43</v>
       </c>
-      <c r="I8" s="25">
+      <c r="J8" s="25">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J8" s="25">
+      <c r="K8" s="25">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K8" s="25">
+      <c r="L8" s="25">
         <v>2.31</v>
       </c>
-      <c r="L8" s="25">
+      <c r="M8" s="25">
         <v>2.75</v>
       </c>
-      <c r="M8" s="25">
+      <c r="N8" s="25">
         <v>3.79</v>
       </c>
-      <c r="N8" s="25">
+      <c r="O8" s="25">
         <v>12.14</v>
       </c>
-      <c r="O8" s="25">
+      <c r="P8" s="25">
         <v>13.5</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="Q8" s="26">
         <v>0.373</v>
@@ -2063,19 +2071,19 @@
         <v>67.774086378737536</v>
       </c>
       <c r="AN8">
-        <f>RANK(E8,E$4:E$33,0)</f>
+        <f>RANK(F8,F$4:F$33,0)</f>
         <v>16</v>
       </c>
       <c r="AO8">
-        <f>RANK(J8,J$4:J$33,0)</f>
+        <f>RANK(K8,K$4:K$33,0)</f>
         <v>26</v>
       </c>
       <c r="AP8">
-        <f>RANK(K8,K$4:K$33,0)</f>
+        <f>RANK(L8,L$4:L$33,0)</f>
         <v>25</v>
       </c>
       <c r="AQ8">
-        <f>RANK(N8,N$4:N$33,1)</f>
+        <f>RANK(O8,O$4:O$33,1)</f>
         <v>28</v>
       </c>
       <c r="AR8">
@@ -2122,44 +2130,44 @@
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>9000</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="28">
+      <c r="H9" s="28">
         <v>42475.34375</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>275</v>
       </c>
-      <c r="I9" s="25">
+      <c r="J9" s="25">
         <v>6</v>
       </c>
-      <c r="J9" s="25">
+      <c r="K9" s="25">
         <v>3.47</v>
       </c>
-      <c r="K9" s="25">
+      <c r="L9" s="25">
         <v>4.8099999999999996</v>
       </c>
-      <c r="L9" s="25">
+      <c r="M9" s="25">
         <v>3.2</v>
       </c>
-      <c r="M9" s="25">
+      <c r="N9" s="25">
         <v>3.05</v>
       </c>
-      <c r="N9" s="25">
+      <c r="O9" s="25">
         <v>8.93</v>
       </c>
-      <c r="O9" s="25">
+      <c r="P9" s="25">
         <v>7.5</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="Q9" s="26">
         <v>0.28299999999999997</v>
@@ -2227,19 +2235,19 @@
         <v>67.649501661129577</v>
       </c>
       <c r="AN9">
-        <f>RANK(E9,E$4:E$33,0)</f>
+        <f>RANK(F9,F$4:F$33,0)</f>
         <v>8</v>
       </c>
       <c r="AO9">
-        <f>RANK(J9,J$4:J$33,0)</f>
+        <f>RANK(K9,K$4:K$33,0)</f>
         <v>21</v>
       </c>
       <c r="AP9">
-        <f>RANK(K9,K$4:K$33,0)</f>
+        <f>RANK(L9,L$4:L$33,0)</f>
         <v>6</v>
       </c>
       <c r="AQ9">
-        <f>RANK(N9,N$4:N$33,1)</f>
+        <f>RANK(O9,O$4:O$33,1)</f>
         <v>23</v>
       </c>
       <c r="AR9">
@@ -2286,44 +2294,44 @@
       <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>7900</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="28">
+      <c r="H10" s="28">
         <v>42475.295138888891</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>67.099999999999994</v>
       </c>
-      <c r="I10" s="25">
+      <c r="J10" s="25">
         <v>5</v>
       </c>
-      <c r="J10" s="25">
+      <c r="K10" s="25">
         <v>3.72</v>
       </c>
-      <c r="K10" s="25">
+      <c r="L10" s="25">
         <v>2.2200000000000002</v>
       </c>
-      <c r="L10" s="25">
+      <c r="M10" s="25">
         <v>4.1399999999999997</v>
       </c>
-      <c r="M10" s="25">
+      <c r="N10" s="25">
         <v>1.21</v>
       </c>
-      <c r="N10" s="25">
+      <c r="O10" s="25">
         <v>8.15</v>
       </c>
-      <c r="O10" s="25">
+      <c r="P10" s="25">
         <v>9</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="Q10" s="26">
         <v>0.32300000000000001</v>
@@ -2379,19 +2387,19 @@
         <v>63.538205980066451</v>
       </c>
       <c r="AN10">
-        <f>RANK(E10,E$4:E$33,0)</f>
+        <f>RANK(F10,F$4:F$33,0)</f>
         <v>12</v>
       </c>
       <c r="AO10">
-        <f>RANK(J10,J$4:J$33,0)</f>
+        <f>RANK(K10,K$4:K$33,0)</f>
         <v>17</v>
       </c>
       <c r="AP10">
-        <f>RANK(K10,K$4:K$33,0)</f>
+        <f>RANK(L10,L$4:L$33,0)</f>
         <v>26</v>
       </c>
       <c r="AQ10">
-        <f>RANK(N10,N$4:N$33,1)</f>
+        <f>RANK(O10,O$4:O$33,1)</f>
         <v>18</v>
       </c>
       <c r="AR10">
@@ -2438,44 +2446,44 @@
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>8300</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="28">
+      <c r="H11" s="28">
         <v>42475.298611111109</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>349</v>
       </c>
-      <c r="I11" s="25">
+      <c r="J11" s="25">
         <v>11.2</v>
       </c>
-      <c r="J11" s="25">
+      <c r="K11" s="25">
         <v>3.74</v>
       </c>
-      <c r="K11" s="25">
+      <c r="L11" s="25">
         <v>2.89</v>
       </c>
-      <c r="L11" s="25">
+      <c r="M11" s="25">
         <v>3.64</v>
       </c>
-      <c r="M11" s="25">
+      <c r="N11" s="25">
         <v>2.44</v>
       </c>
-      <c r="N11" s="25">
+      <c r="O11" s="25">
         <v>8.7200000000000006</v>
       </c>
-      <c r="O11" s="25">
+      <c r="P11" s="25">
         <v>10.8</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="Q11" s="26">
         <v>0.27600000000000002</v>
@@ -2543,19 +2551,19 @@
         <v>63.413621262458484</v>
       </c>
       <c r="AN11">
-        <f>RANK(E11,E$4:E$33,0)</f>
+        <f>RANK(F11,F$4:F$33,0)</f>
         <v>9</v>
       </c>
       <c r="AO11">
-        <f>RANK(J11,J$4:J$33,0)</f>
+        <f>RANK(K11,K$4:K$33,0)</f>
         <v>16</v>
       </c>
       <c r="AP11">
-        <f>RANK(K11,K$4:K$33,0)</f>
+        <f>RANK(L11,L$4:L$33,0)</f>
         <v>23</v>
       </c>
       <c r="AQ11">
-        <f>RANK(N11,N$4:N$33,1)</f>
+        <f>RANK(O11,O$4:O$33,1)</f>
         <v>22</v>
       </c>
       <c r="AR11">
@@ -2602,44 +2610,44 @@
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>8200</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="28">
+      <c r="H12" s="28">
         <v>42475.298611111109</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>382</v>
       </c>
-      <c r="I12" s="25">
+      <c r="J12" s="25">
         <v>5</v>
       </c>
-      <c r="J12" s="25">
+      <c r="K12" s="25">
         <v>3.92</v>
       </c>
-      <c r="K12" s="25">
+      <c r="L12" s="25">
         <v>4.58</v>
       </c>
-      <c r="L12" s="25">
+      <c r="M12" s="25">
         <v>4.03</v>
       </c>
-      <c r="M12" s="25">
+      <c r="N12" s="25">
         <v>4.6100000000000003</v>
       </c>
-      <c r="N12" s="25">
+      <c r="O12" s="25">
         <v>6.88</v>
       </c>
-      <c r="O12" s="25">
+      <c r="P12" s="25">
         <v>5.4</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="Q12" s="26">
         <v>0.19500000000000001</v>
@@ -2707,19 +2715,19 @@
         <v>61.088039867109636</v>
       </c>
       <c r="AN12">
-        <f>RANK(E12,E$4:E$33,0)</f>
+        <f>RANK(F12,F$4:F$33,0)</f>
         <v>10</v>
       </c>
       <c r="AO12">
-        <f>RANK(J12,J$4:J$33,0)</f>
+        <f>RANK(K12,K$4:K$33,0)</f>
         <v>11</v>
       </c>
       <c r="AP12">
-        <f>RANK(K12,K$4:K$33,0)</f>
+        <f>RANK(L12,L$4:L$33,0)</f>
         <v>7</v>
       </c>
       <c r="AQ12">
-        <f>RANK(N12,N$4:N$33,1)</f>
+        <f>RANK(O12,O$4:O$33,1)</f>
         <v>12</v>
       </c>
       <c r="AR12">
@@ -2766,44 +2774,44 @@
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>7700</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="28">
+      <c r="H13" s="28">
         <v>42475.295138888891</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>83.2</v>
       </c>
-      <c r="I13" s="25">
+      <c r="J13" s="25">
         <v>7</v>
       </c>
-      <c r="J13" s="25">
+      <c r="K13" s="25">
         <v>3.68</v>
       </c>
-      <c r="K13" s="25">
+      <c r="L13" s="25">
         <v>3.99</v>
       </c>
-      <c r="L13" s="25">
+      <c r="M13" s="25">
         <v>3.36</v>
       </c>
-      <c r="M13" s="25">
+      <c r="N13" s="25">
         <v>2.64</v>
       </c>
-      <c r="N13" s="25">
+      <c r="O13" s="25">
         <v>7.96</v>
       </c>
-      <c r="O13" s="25">
+      <c r="P13" s="25">
         <v>6.43</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="Q13" s="26">
         <v>0.30099999999999999</v>
@@ -2865,19 +2873,19 @@
         <v>59.676079734219265</v>
       </c>
       <c r="AN13">
-        <f>RANK(E13,E$4:E$33,0)</f>
+        <f>RANK(F13,F$4:F$33,0)</f>
         <v>13</v>
       </c>
       <c r="AO13">
-        <f>RANK(J13,J$4:J$33,0)</f>
+        <f>RANK(K13,K$4:K$33,0)</f>
         <v>18</v>
       </c>
       <c r="AP13">
-        <f>RANK(K13,K$4:K$33,0)</f>
+        <f>RANK(L13,L$4:L$33,0)</f>
         <v>11</v>
       </c>
       <c r="AQ13">
-        <f>RANK(N13,N$4:N$33,1)</f>
+        <f>RANK(O13,O$4:O$33,1)</f>
         <v>17</v>
       </c>
       <c r="AR13">
@@ -2924,44 +2932,44 @@
       <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>7600</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="28">
+      <c r="H14" s="28">
         <v>42475.420138888891</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>404.2</v>
       </c>
-      <c r="I14" s="25">
+      <c r="J14" s="25">
         <v>11.2</v>
       </c>
-      <c r="J14" s="25">
+      <c r="K14" s="25">
         <v>4.2300000000000004</v>
       </c>
-      <c r="K14" s="25">
+      <c r="L14" s="25">
         <v>2.4900000000000002</v>
       </c>
-      <c r="L14" s="25">
+      <c r="M14" s="25">
         <v>3.91</v>
       </c>
-      <c r="M14" s="25">
+      <c r="N14" s="25">
         <v>1.41</v>
       </c>
-      <c r="N14" s="25">
+      <c r="O14" s="25">
         <v>6.89</v>
       </c>
-      <c r="O14" s="25">
+      <c r="P14" s="25">
         <v>11.57</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="Q14" s="26">
         <v>0.253</v>
@@ -3029,19 +3037,19 @@
         <v>58.679401993355498</v>
       </c>
       <c r="AN14">
-        <f>RANK(E14,E$4:E$33,0)</f>
+        <f>RANK(F14,F$4:F$33,0)</f>
         <v>14</v>
       </c>
       <c r="AO14">
-        <f>RANK(J14,J$4:J$33,0)</f>
+        <f>RANK(K14,K$4:K$33,0)</f>
         <v>7</v>
       </c>
       <c r="AP14">
-        <f>RANK(K14,K$4:K$33,0)</f>
+        <f>RANK(L14,L$4:L$33,0)</f>
         <v>24</v>
       </c>
       <c r="AQ14">
-        <f>RANK(N14,N$4:N$33,1)</f>
+        <f>RANK(O14,O$4:O$33,1)</f>
         <v>13</v>
       </c>
       <c r="AR14">
@@ -3088,44 +3096,44 @@
       <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>7100</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="28">
+      <c r="H15" s="28">
         <v>42475.295138888891</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>305.2</v>
       </c>
-      <c r="I15" s="25">
+      <c r="J15" s="25">
         <v>6</v>
       </c>
-      <c r="J15" s="25">
+      <c r="K15" s="25">
         <v>4.16</v>
       </c>
-      <c r="K15" s="25">
+      <c r="L15" s="25">
         <v>5.89</v>
       </c>
-      <c r="L15" s="25">
+      <c r="M15" s="25">
         <v>4.17</v>
       </c>
-      <c r="M15" s="25">
+      <c r="N15" s="25">
         <v>6.05</v>
       </c>
-      <c r="N15" s="25">
+      <c r="O15" s="25">
         <v>6.45</v>
       </c>
-      <c r="O15" s="25">
+      <c r="P15" s="25">
         <v>1.5</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="Q15" s="26">
         <v>0.254</v>
@@ -3193,19 +3201,19 @@
         <v>58.347176079734218</v>
       </c>
       <c r="AN15">
-        <f>RANK(E15,E$4:E$33,0)</f>
+        <f>RANK(F15,F$4:F$33,0)</f>
         <v>18</v>
       </c>
       <c r="AO15">
-        <f>RANK(J15,J$4:J$33,0)</f>
+        <f>RANK(K15,K$4:K$33,0)</f>
         <v>8</v>
       </c>
       <c r="AP15">
-        <f>RANK(K15,K$4:K$33,0)</f>
+        <f>RANK(L15,L$4:L$33,0)</f>
         <v>3</v>
       </c>
       <c r="AQ15">
-        <f>RANK(N15,N$4:N$33,1)</f>
+        <f>RANK(O15,O$4:O$33,1)</f>
         <v>9</v>
       </c>
       <c r="AR15">
@@ -3252,44 +3260,44 @@
       <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>11400</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="28">
+      <c r="H16" s="28">
         <v>42475.423611111109</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>446.2</v>
       </c>
-      <c r="I16" s="25">
+      <c r="J16" s="25">
         <v>11</v>
       </c>
-      <c r="J16" s="25">
+      <c r="K16" s="25">
         <v>3.02</v>
       </c>
-      <c r="K16" s="25">
+      <c r="L16" s="25">
         <v>3.99</v>
       </c>
-      <c r="L16" s="25">
+      <c r="M16" s="25">
         <v>3.01</v>
       </c>
-      <c r="M16" s="25">
+      <c r="N16" s="25">
         <v>4.9400000000000004</v>
       </c>
-      <c r="N16" s="25">
+      <c r="O16" s="25">
         <v>9.41</v>
       </c>
-      <c r="O16" s="25">
+      <c r="P16" s="25">
         <v>11.45</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="Q16" s="26">
         <v>0.28399999999999997</v>
@@ -3357,19 +3365,19 @@
         <v>54.485049833887047</v>
       </c>
       <c r="AN16">
-        <f>RANK(E16,E$4:E$33,0)</f>
+        <f>RANK(F16,F$4:F$33,0)</f>
         <v>3</v>
       </c>
       <c r="AO16">
-        <f>RANK(J16,J$4:J$33,0)</f>
+        <f>RANK(K16,K$4:K$33,0)</f>
         <v>23</v>
       </c>
       <c r="AP16">
-        <f>RANK(K16,K$4:K$33,0)</f>
+        <f>RANK(L16,L$4:L$33,0)</f>
         <v>11</v>
       </c>
       <c r="AQ16">
-        <f>RANK(N16,N$4:N$33,1)</f>
+        <f>RANK(O16,O$4:O$33,1)</f>
         <v>25</v>
       </c>
       <c r="AR16">
@@ -3416,44 +3424,44 @@
       <c r="C17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>7200</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="28">
+      <c r="H17" s="28">
         <v>42475.298611111109</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>382.2</v>
       </c>
-      <c r="I17" s="25">
+      <c r="J17" s="25">
         <v>6</v>
       </c>
-      <c r="J17" s="25">
+      <c r="K17" s="25">
         <v>3.8</v>
       </c>
-      <c r="K17" s="25">
+      <c r="L17" s="25">
         <v>3.11</v>
       </c>
-      <c r="L17" s="25">
+      <c r="M17" s="25">
         <v>3.91</v>
       </c>
-      <c r="M17" s="25">
+      <c r="N17" s="25">
         <v>5.71</v>
       </c>
-      <c r="N17" s="25">
+      <c r="O17" s="25">
         <v>6.7</v>
       </c>
-      <c r="O17" s="25">
+      <c r="P17" s="25">
         <v>10.5</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="Q17" s="26">
         <v>0.311</v>
@@ -3521,19 +3529,19 @@
         <v>53.862126245847172</v>
       </c>
       <c r="AN17">
-        <f>RANK(E17,E$4:E$33,0)</f>
+        <f>RANK(F17,F$4:F$33,0)</f>
         <v>17</v>
       </c>
       <c r="AO17">
-        <f>RANK(J17,J$4:J$33,0)</f>
+        <f>RANK(K17,K$4:K$33,0)</f>
         <v>15</v>
       </c>
       <c r="AP17">
-        <f>RANK(K17,K$4:K$33,0)</f>
+        <f>RANK(L17,L$4:L$33,0)</f>
         <v>18</v>
       </c>
       <c r="AQ17">
-        <f>RANK(N17,N$4:N$33,1)</f>
+        <f>RANK(O17,O$4:O$33,1)</f>
         <v>11</v>
       </c>
       <c r="AR17">
@@ -3580,44 +3588,44 @@
       <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>9200</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="28">
+      <c r="H18" s="28">
         <v>42475.444444444445</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>442.1</v>
       </c>
-      <c r="I18" s="25">
+      <c r="J18" s="25">
         <v>13</v>
       </c>
-      <c r="J18" s="25">
+      <c r="K18" s="25">
         <v>3.66</v>
       </c>
-      <c r="K18" s="25">
+      <c r="L18" s="25">
         <v>4.42</v>
       </c>
-      <c r="L18" s="25">
+      <c r="M18" s="25">
         <v>4.05</v>
       </c>
-      <c r="M18" s="25">
+      <c r="N18" s="25">
         <v>5.68</v>
       </c>
-      <c r="N18" s="25">
+      <c r="O18" s="25">
         <v>8.2200000000000006</v>
       </c>
-      <c r="O18" s="25">
+      <c r="P18" s="25">
         <v>5.54</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="Q18" s="26">
         <v>0.309</v>
@@ -3685,19 +3693,19 @@
         <v>47.923588039867113</v>
       </c>
       <c r="AN18">
-        <f>RANK(E18,E$4:E$33,0)</f>
+        <f>RANK(F18,F$4:F$33,0)</f>
         <v>7</v>
       </c>
       <c r="AO18">
-        <f>RANK(J18,J$4:J$33,0)</f>
+        <f>RANK(K18,K$4:K$33,0)</f>
         <v>19</v>
       </c>
       <c r="AP18">
-        <f>RANK(K18,K$4:K$33,0)</f>
+        <f>RANK(L18,L$4:L$33,0)</f>
         <v>8</v>
       </c>
       <c r="AQ18">
-        <f>RANK(N18,N$4:N$33,1)</f>
+        <f>RANK(O18,O$4:O$33,1)</f>
         <v>20</v>
       </c>
       <c r="AR18">
@@ -3744,44 +3752,44 @@
       <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>6800</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="28">
+      <c r="H19" s="28">
         <v>42475.295138888891</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>221.1</v>
       </c>
-      <c r="I19" s="25">
+      <c r="J19" s="25">
         <v>11.2</v>
       </c>
-      <c r="J19" s="25">
+      <c r="K19" s="25">
         <v>4.0599999999999996</v>
       </c>
-      <c r="K19" s="25">
+      <c r="L19" s="25">
         <v>3.07</v>
       </c>
-      <c r="L19" s="25">
+      <c r="M19" s="25">
         <v>4.2699999999999996</v>
       </c>
-      <c r="M19" s="25">
+      <c r="N19" s="25">
         <v>2.7</v>
       </c>
-      <c r="N19" s="25">
+      <c r="O19" s="25">
         <v>7.56</v>
       </c>
-      <c r="O19" s="25">
+      <c r="P19" s="25">
         <v>8.49</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="Q19" s="26">
         <v>0.29299999999999998</v>
@@ -3849,19 +3857,19 @@
         <v>47.383720930232563</v>
       </c>
       <c r="AN19">
-        <f>RANK(E19,E$4:E$33,0)</f>
+        <f>RANK(F19,F$4:F$33,0)</f>
         <v>19</v>
       </c>
       <c r="AO19">
-        <f>RANK(J19,J$4:J$33,0)</f>
+        <f>RANK(K19,K$4:K$33,0)</f>
         <v>9</v>
       </c>
       <c r="AP19">
-        <f>RANK(K19,K$4:K$33,0)</f>
+        <f>RANK(L19,L$4:L$33,0)</f>
         <v>19</v>
       </c>
       <c r="AQ19">
-        <f>RANK(N19,N$4:N$33,1)</f>
+        <f>RANK(O19,O$4:O$33,1)</f>
         <v>15</v>
       </c>
       <c r="AR19">
@@ -3908,44 +3916,44 @@
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>5300</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="28">
+      <c r="H20" s="28">
         <v>42475.298611111109</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>404.1</v>
       </c>
-      <c r="I20" s="25">
+      <c r="J20" s="25">
         <v>7.1</v>
       </c>
-      <c r="J20" s="25">
+      <c r="K20" s="25">
         <v>3.85</v>
       </c>
-      <c r="K20" s="25">
+      <c r="L20" s="25">
         <v>1.91</v>
       </c>
-      <c r="L20" s="25">
+      <c r="M20" s="25">
         <v>3.69</v>
       </c>
-      <c r="M20" s="25">
+      <c r="N20" s="25">
         <v>2.8</v>
       </c>
-      <c r="N20" s="25">
+      <c r="O20" s="25">
         <v>6.57</v>
       </c>
-      <c r="O20" s="25">
+      <c r="P20" s="25">
         <v>9.82</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="Q20" s="26">
         <v>0.35399999999999998</v>
@@ -4013,19 +4021,19 @@
         <v>46.760797342192703</v>
       </c>
       <c r="AN20">
-        <f>RANK(E20,E$4:E$33,0)</f>
+        <f>RANK(F20,F$4:F$33,0)</f>
         <v>25</v>
       </c>
       <c r="AO20">
-        <f>RANK(J20,J$4:J$33,0)</f>
+        <f>RANK(K20,K$4:K$33,0)</f>
         <v>13</v>
       </c>
       <c r="AP20">
-        <f>RANK(K20,K$4:K$33,0)</f>
+        <f>RANK(L20,L$4:L$33,0)</f>
         <v>27</v>
       </c>
       <c r="AQ20">
-        <f>RANK(N20,N$4:N$33,1)</f>
+        <f>RANK(O20,O$4:O$33,1)</f>
         <v>10</v>
       </c>
       <c r="AR20">
@@ -4072,44 +4080,44 @@
       <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>4900</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="28">
+      <c r="H21" s="28">
         <v>42475.336805555555</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>187</v>
       </c>
-      <c r="I21" s="25">
+      <c r="J21" s="25">
         <v>4.2</v>
       </c>
-      <c r="J21" s="25">
+      <c r="K21" s="25">
         <v>3.91</v>
       </c>
-      <c r="K21" s="25">
+      <c r="L21" s="25">
         <v>3.4</v>
       </c>
-      <c r="L21" s="25">
+      <c r="M21" s="25">
         <v>3.61</v>
       </c>
-      <c r="M21" s="25">
+      <c r="N21" s="25">
         <v>4.5</v>
       </c>
-      <c r="N21" s="25">
+      <c r="O21" s="25">
         <v>6.4</v>
       </c>
-      <c r="O21" s="25">
+      <c r="P21" s="25">
         <v>9.64</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="Q21" s="26">
         <v>0.28399999999999997</v>
@@ -4177,19 +4185,19 @@
         <v>44.850498338870437</v>
       </c>
       <c r="AN21">
-        <f>RANK(E21,E$4:E$33,0)</f>
+        <f>RANK(F21,F$4:F$33,0)</f>
         <v>28</v>
       </c>
       <c r="AO21">
-        <f>RANK(J21,J$4:J$33,0)</f>
+        <f>RANK(K21,K$4:K$33,0)</f>
         <v>12</v>
       </c>
       <c r="AP21">
-        <f>RANK(K21,K$4:K$33,0)</f>
+        <f>RANK(L21,L$4:L$33,0)</f>
         <v>15</v>
       </c>
       <c r="AQ21">
-        <f>RANK(N21,N$4:N$33,1)</f>
+        <f>RANK(O21,O$4:O$33,1)</f>
         <v>8</v>
       </c>
       <c r="AR21">
@@ -4236,44 +4244,44 @@
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>7500</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="28">
+      <c r="H22" s="28">
         <v>42475.295138888891</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>164</v>
       </c>
-      <c r="I22" s="25">
+      <c r="J22" s="25">
         <v>5</v>
       </c>
-      <c r="J22" s="25">
+      <c r="K22" s="25">
         <v>3.82</v>
       </c>
-      <c r="K22" s="25">
+      <c r="L22" s="25">
         <v>2.95</v>
       </c>
-      <c r="L22" s="25">
+      <c r="M22" s="25">
         <v>4.2</v>
       </c>
-      <c r="M22" s="25">
+      <c r="N22" s="25">
         <v>4.01</v>
       </c>
-      <c r="N22" s="25">
+      <c r="O22" s="25">
         <v>9</v>
       </c>
-      <c r="O22" s="25">
+      <c r="P22" s="25">
         <v>10.8</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="Q22" s="26">
         <v>0.33900000000000002</v>
@@ -4341,19 +4349,19 @@
         <v>44.352159468438543</v>
       </c>
       <c r="AN22">
-        <f>RANK(E22,E$4:E$33,0)</f>
+        <f>RANK(F22,F$4:F$33,0)</f>
         <v>15</v>
       </c>
       <c r="AO22">
-        <f>RANK(J22,J$4:J$33,0)</f>
+        <f>RANK(K22,K$4:K$33,0)</f>
         <v>14</v>
       </c>
       <c r="AP22">
-        <f>RANK(K22,K$4:K$33,0)</f>
+        <f>RANK(L22,L$4:L$33,0)</f>
         <v>21</v>
       </c>
       <c r="AQ22">
-        <f>RANK(N22,N$4:N$33,1)</f>
+        <f>RANK(O22,O$4:O$33,1)</f>
         <v>24</v>
       </c>
       <c r="AR22">
@@ -4400,44 +4408,44 @@
       <c r="C23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>9400</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="28">
+      <c r="H23" s="28">
         <v>42475.340277777781</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>444.2</v>
       </c>
-      <c r="I23" s="25">
+      <c r="J23" s="25">
         <v>12.2</v>
       </c>
-      <c r="J23" s="25">
+      <c r="K23" s="25">
         <v>3.02</v>
       </c>
-      <c r="K23" s="25">
+      <c r="L23" s="25">
         <v>5.0599999999999996</v>
       </c>
-      <c r="L23" s="25">
+      <c r="M23" s="25">
         <v>3.06</v>
       </c>
-      <c r="M23" s="25">
+      <c r="N23" s="25">
         <v>3.53</v>
       </c>
-      <c r="N23" s="25">
+      <c r="O23" s="25">
         <v>7.59</v>
       </c>
-      <c r="O23" s="25">
+      <c r="P23" s="25">
         <v>9.24</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="Q23" s="26">
         <v>0.372</v>
@@ -4505,19 +4513,19 @@
         <v>41.569767441860471</v>
       </c>
       <c r="AN23" s="17">
-        <f>RANK(E23,E$4:E$33,0)</f>
+        <f>RANK(F23,F$4:F$33,0)</f>
         <v>5</v>
       </c>
       <c r="AO23" s="17">
-        <f>RANK(J23,J$4:J$33,0)</f>
+        <f>RANK(K23,K$4:K$33,0)</f>
         <v>23</v>
       </c>
       <c r="AP23" s="17">
-        <f>RANK(K23,K$4:K$33,0)</f>
+        <f>RANK(L23,L$4:L$33,0)</f>
         <v>5</v>
       </c>
       <c r="AQ23" s="17">
-        <f>RANK(N23,N$4:N$33,1)</f>
+        <f>RANK(O23,O$4:O$33,1)</f>
         <v>16</v>
       </c>
       <c r="AR23" s="17">
@@ -4564,44 +4572,44 @@
       <c r="C24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>5000</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="28">
+      <c r="H24" s="28">
         <v>42475.298611111109</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>97.1</v>
       </c>
-      <c r="I24" s="25">
+      <c r="J24" s="25">
         <v>6</v>
       </c>
-      <c r="J24" s="25">
+      <c r="K24" s="25">
         <v>4.97</v>
       </c>
-      <c r="K24" s="25">
+      <c r="L24" s="25">
         <v>6.01</v>
       </c>
-      <c r="L24" s="25">
+      <c r="M24" s="25">
         <v>4.3600000000000003</v>
       </c>
-      <c r="M24" s="25">
+      <c r="N24" s="25">
         <v>5.71</v>
       </c>
-      <c r="N24" s="25">
+      <c r="O24" s="25">
         <v>4.25</v>
       </c>
-      <c r="O24" s="25">
+      <c r="P24" s="25">
         <v>3</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="Q24" s="26">
         <v>0.246</v>
@@ -4663,19 +4671,19 @@
         <v>39.74252491694353</v>
       </c>
       <c r="AN24">
-        <f>RANK(E24,E$4:E$33,0)</f>
+        <f>RANK(F24,F$4:F$33,0)</f>
         <v>27</v>
       </c>
       <c r="AO24">
-        <f>RANK(J24,J$4:J$33,0)</f>
+        <f>RANK(K24,K$4:K$33,0)</f>
         <v>1</v>
       </c>
       <c r="AP24">
-        <f>RANK(K24,K$4:K$33,0)</f>
+        <f>RANK(L24,L$4:L$33,0)</f>
         <v>2</v>
       </c>
       <c r="AQ24">
-        <f>RANK(N24,N$4:N$33,1)</f>
+        <f>RANK(O24,O$4:O$33,1)</f>
         <v>2</v>
       </c>
       <c r="AR24">
@@ -4722,44 +4730,44 @@
       <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>6500</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="28">
+      <c r="H25" s="28">
         <v>42475.340277777781</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>251.1</v>
       </c>
-      <c r="I25" s="25">
+      <c r="J25" s="25">
         <v>4.2</v>
       </c>
-      <c r="J25" s="25">
+      <c r="K25" s="25">
         <v>4.46</v>
       </c>
-      <c r="K25" s="25">
+      <c r="L25" s="25">
         <v>2.92</v>
       </c>
-      <c r="L25" s="25">
+      <c r="M25" s="25">
         <v>4.55</v>
       </c>
-      <c r="M25" s="25">
+      <c r="N25" s="25">
         <v>7.71</v>
       </c>
-      <c r="N25" s="25">
+      <c r="O25" s="25">
         <v>6.09</v>
       </c>
-      <c r="O25" s="25">
+      <c r="P25" s="25">
         <v>7.71</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="Q25" s="26">
         <v>0.28499999999999998</v>
@@ -4827,19 +4835,19 @@
         <v>39.119601328903656</v>
       </c>
       <c r="AN25">
-        <f>RANK(E25,E$4:E$33,0)</f>
+        <f>RANK(F25,F$4:F$33,0)</f>
         <v>20</v>
       </c>
       <c r="AO25">
-        <f>RANK(J25,J$4:J$33,0)</f>
+        <f>RANK(K25,K$4:K$33,0)</f>
         <v>4</v>
       </c>
       <c r="AP25">
-        <f>RANK(K25,K$4:K$33,0)</f>
+        <f>RANK(L25,L$4:L$33,0)</f>
         <v>22</v>
       </c>
       <c r="AQ25">
-        <f>RANK(N25,N$4:N$33,1)</f>
+        <f>RANK(O25,O$4:O$33,1)</f>
         <v>6</v>
       </c>
       <c r="AR25">
@@ -4886,22 +4894,22 @@
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>5100</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="28">
+      <c r="H26" s="28">
         <v>42475.34375</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="25">
+      <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="25">
@@ -4922,8 +4930,8 @@
       <c r="O26" s="25">
         <v>0</v>
       </c>
-      <c r="P26" s="5" t="s">
-        <v>34</v>
+      <c r="P26" s="25">
+        <v>0</v>
       </c>
       <c r="Q26" s="26">
         <v>0.371</v>
@@ -4962,19 +4970,19 @@
         <v>37.333887043189371</v>
       </c>
       <c r="AN26">
-        <f>RANK(E26,E$4:E$33,0)</f>
+        <f>RANK(F26,F$4:F$33,0)</f>
         <v>26</v>
       </c>
       <c r="AO26">
-        <f>RANK(J26,J$4:J$33,0)</f>
-        <v>28</v>
-      </c>
-      <c r="AP26">
         <f>RANK(K26,K$4:K$33,0)</f>
         <v>28</v>
       </c>
+      <c r="AP26">
+        <f>RANK(L26,L$4:L$33,0)</f>
+        <v>28</v>
+      </c>
       <c r="AQ26">
-        <f>RANK(N26,N$4:N$33,1)</f>
+        <f>RANK(O26,O$4:O$33,1)</f>
         <v>1</v>
       </c>
       <c r="AR26">
@@ -5021,44 +5029,44 @@
       <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>5900</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="28">
+      <c r="H27" s="28">
         <v>42475.298611111109</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>440</v>
       </c>
-      <c r="I27" s="25">
+      <c r="J27" s="25">
         <v>10</v>
       </c>
-      <c r="J27" s="25">
+      <c r="K27" s="25">
         <v>4.3899999999999997</v>
       </c>
-      <c r="K27" s="25">
+      <c r="L27" s="25">
         <v>3.66</v>
       </c>
-      <c r="L27" s="25">
+      <c r="M27" s="25">
         <v>4.38</v>
       </c>
-      <c r="M27" s="25">
+      <c r="N27" s="25">
         <v>3.31</v>
       </c>
-      <c r="N27" s="25">
+      <c r="O27" s="25">
         <v>6.36</v>
       </c>
-      <c r="O27" s="25">
+      <c r="P27" s="25">
         <v>10.8</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="Q27" s="26">
         <v>0.33800000000000002</v>
@@ -5126,19 +5134,19 @@
         <v>36.129568106312291</v>
       </c>
       <c r="AN27">
-        <f>RANK(E27,E$4:E$33,0)</f>
+        <f>RANK(F27,F$4:F$33,0)</f>
         <v>22</v>
       </c>
       <c r="AO27">
-        <f>RANK(J27,J$4:J$33,0)</f>
+        <f>RANK(K27,K$4:K$33,0)</f>
         <v>5</v>
       </c>
       <c r="AP27">
-        <f>RANK(K27,K$4:K$33,0)</f>
+        <f>RANK(L27,L$4:L$33,0)</f>
         <v>14</v>
       </c>
       <c r="AQ27">
-        <f>RANK(N27,N$4:N$33,1)</f>
+        <f>RANK(O27,O$4:O$33,1)</f>
         <v>7</v>
       </c>
       <c r="AR27">
@@ -5185,44 +5193,44 @@
       <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>8100</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="28">
+      <c r="H28" s="28">
         <v>42475.295138888891</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>260</v>
       </c>
-      <c r="I28" s="25">
+      <c r="J28" s="25">
         <v>13.1</v>
       </c>
-      <c r="J28" s="25">
+      <c r="K28" s="25">
         <v>3.99</v>
       </c>
-      <c r="K28" s="25">
+      <c r="L28" s="25">
         <v>3.91</v>
       </c>
-      <c r="L28" s="25">
+      <c r="M28" s="25">
         <v>4.09</v>
       </c>
-      <c r="M28" s="25">
+      <c r="N28" s="25">
         <v>5.46</v>
       </c>
-      <c r="N28" s="25">
+      <c r="O28" s="25">
         <v>7.51</v>
       </c>
-      <c r="O28" s="25">
+      <c r="P28" s="25">
         <v>8.1</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="Q28" s="26">
         <v>0.34899999999999998</v>
@@ -5290,19 +5298,19 @@
         <v>34.219269102990033</v>
       </c>
       <c r="AN28">
-        <f>RANK(E28,E$4:E$33,0)</f>
+        <f>RANK(F28,F$4:F$33,0)</f>
         <v>11</v>
       </c>
       <c r="AO28">
-        <f>RANK(J28,J$4:J$33,0)</f>
+        <f>RANK(K28,K$4:K$33,0)</f>
         <v>10</v>
       </c>
       <c r="AP28">
-        <f>RANK(K28,K$4:K$33,0)</f>
+        <f>RANK(L28,L$4:L$33,0)</f>
         <v>13</v>
       </c>
       <c r="AQ28">
-        <f>RANK(N28,N$4:N$33,1)</f>
+        <f>RANK(O28,O$4:O$33,1)</f>
         <v>14</v>
       </c>
       <c r="AR28">
@@ -5349,44 +5357,44 @@
       <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>6000</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="28">
+      <c r="H29" s="28">
         <v>42475.336805555555</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>142.1</v>
       </c>
-      <c r="I29" s="25">
+      <c r="J29" s="25">
         <v>12.1</v>
       </c>
-      <c r="J29" s="25">
+      <c r="K29" s="25">
         <v>4.3099999999999996</v>
       </c>
-      <c r="K29" s="25">
+      <c r="L29" s="25">
         <v>7</v>
       </c>
-      <c r="L29" s="25">
+      <c r="M29" s="25">
         <v>3.77</v>
       </c>
-      <c r="M29" s="25">
+      <c r="N29" s="25">
         <v>6.46</v>
       </c>
-      <c r="N29" s="25">
+      <c r="O29" s="25">
         <v>5.44</v>
       </c>
-      <c r="O29" s="25">
+      <c r="P29" s="25">
         <v>2.19</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="Q29" s="26">
         <v>0.33</v>
@@ -5448,19 +5456,19 @@
         <v>29.401993355481725</v>
       </c>
       <c r="AN29">
-        <f>RANK(E29,E$4:E$33,0)</f>
+        <f>RANK(F29,F$4:F$33,0)</f>
         <v>21</v>
       </c>
       <c r="AO29">
-        <f>RANK(J29,J$4:J$33,0)</f>
+        <f>RANK(K29,K$4:K$33,0)</f>
         <v>6</v>
       </c>
       <c r="AP29">
-        <f>RANK(K29,K$4:K$33,0)</f>
+        <f>RANK(L29,L$4:L$33,0)</f>
         <v>1</v>
       </c>
       <c r="AQ29">
-        <f>RANK(N29,N$4:N$33,1)</f>
+        <f>RANK(O29,O$4:O$33,1)</f>
         <v>4</v>
       </c>
       <c r="AR29">
@@ -5507,44 +5515,44 @@
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>5800</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="28">
+      <c r="H30" s="28">
         <v>42475.298611111109</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <v>121.1</v>
       </c>
-      <c r="I30" s="25">
+      <c r="J30" s="25">
         <v>4.2</v>
       </c>
-      <c r="J30" s="25">
+      <c r="K30" s="25">
         <v>4.91</v>
       </c>
-      <c r="K30" s="25">
+      <c r="L30" s="25">
         <v>5.38</v>
       </c>
-      <c r="L30" s="25">
+      <c r="M30" s="25">
         <v>4.95</v>
       </c>
-      <c r="M30" s="25">
+      <c r="N30" s="25">
         <v>6.86</v>
       </c>
-      <c r="N30" s="25">
+      <c r="O30" s="25">
         <v>5.71</v>
       </c>
-      <c r="O30" s="25">
+      <c r="P30" s="25">
         <v>7.71</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="Q30" s="26">
         <v>0.317</v>
@@ -5606,19 +5614,19 @@
         <v>22.674418604651166</v>
       </c>
       <c r="AN30">
-        <f>RANK(E30,E$4:E$33,0)</f>
+        <f>RANK(F30,F$4:F$33,0)</f>
         <v>23</v>
       </c>
       <c r="AO30">
-        <f>RANK(J30,J$4:J$33,0)</f>
+        <f>RANK(K30,K$4:K$33,0)</f>
         <v>2</v>
       </c>
       <c r="AP30">
-        <f>RANK(K30,K$4:K$33,0)</f>
+        <f>RANK(L30,L$4:L$33,0)</f>
         <v>4</v>
       </c>
       <c r="AQ30">
-        <f>RANK(N30,N$4:N$33,1)</f>
+        <f>RANK(O30,O$4:O$33,1)</f>
         <v>5</v>
       </c>
       <c r="AR30">
@@ -5665,44 +5673,44 @@
       <c r="C31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>5500</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="28">
+      <c r="H31" s="28">
         <v>42475.340277777781</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <v>192</v>
       </c>
-      <c r="I31" s="25">
+      <c r="J31" s="25">
         <v>3.2</v>
       </c>
-      <c r="J31" s="25">
+      <c r="K31" s="25">
         <v>4.83</v>
       </c>
-      <c r="K31" s="25">
+      <c r="L31" s="25">
         <v>4.24</v>
       </c>
-      <c r="L31" s="25">
+      <c r="M31" s="25">
         <v>4.47</v>
       </c>
-      <c r="M31" s="25">
+      <c r="N31" s="25">
         <v>5.94</v>
       </c>
-      <c r="N31" s="25">
+      <c r="O31" s="25">
         <v>4.6399999999999997</v>
       </c>
-      <c r="O31" s="25">
+      <c r="P31" s="25">
         <v>7.36</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="Q31" s="26">
         <v>0.32600000000000001</v>
@@ -5770,19 +5778,19 @@
         <v>21.760797342192692</v>
       </c>
       <c r="AN31">
-        <f>RANK(E31,E$4:E$33,0)</f>
+        <f>RANK(F31,F$4:F$33,0)</f>
         <v>24</v>
       </c>
       <c r="AO31">
-        <f>RANK(J31,J$4:J$33,0)</f>
+        <f>RANK(K31,K$4:K$33,0)</f>
         <v>3</v>
       </c>
       <c r="AP31">
-        <f>RANK(K31,K$4:K$33,0)</f>
+        <f>RANK(L31,L$4:L$33,0)</f>
         <v>9</v>
       </c>
       <c r="AQ31">
-        <f>RANK(N31,N$4:N$33,1)</f>
+        <f>RANK(O31,O$4:O$33,1)</f>
         <v>3</v>
       </c>
       <c r="AR31">
@@ -5822,11 +5830,11 @@
     <row r="32" spans="1:53">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -5834,7 +5842,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="5"/>
+      <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="13"/>
@@ -5847,11 +5855,11 @@
     <row r="33" spans="2:52">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -5859,7 +5867,7 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="5"/>
+      <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="13"/>
@@ -5925,7 +5933,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:BA3">
-    <sortState ref="A4:BA31">
+    <sortState ref="A4:BB31">
       <sortCondition ref="AL3:AL31"/>
     </sortState>
   </autoFilter>
@@ -5971,17 +5979,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="29" bestFit="1" customWidth="1"/>
     <col min="26" max="35" width="0" hidden="1" customWidth="1"/>
     <col min="36" max="37" width="1.6640625" customWidth="1"/>
     <col min="48" max="48" width="2.33203125" customWidth="1"/>
@@ -5989,7 +5997,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
-      <c r="G1"/>
+      <c r="H1"/>
       <c r="AN1" s="8">
         <v>2.75</v>
       </c>
@@ -6016,7 +6024,7 @@
       </c>
     </row>
     <row r="2" spans="1:53">
-      <c r="G2"/>
+      <c r="H2"/>
       <c r="AN2" s="10">
         <f t="shared" ref="AN2:AU2" si="0">AN1/SUM($AN$1:$AU$1)</f>
         <v>0.23809523809523808</v>
@@ -6061,43 +6069,43 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>55</v>
@@ -6206,44 +6214,44 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>7300</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="28">
+      <c r="H4" s="28">
         <v>42475.420138888891</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>43</v>
       </c>
-      <c r="I4" s="25">
+      <c r="J4" s="25">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J4" s="25">
+      <c r="K4" s="25">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K4" s="25">
+      <c r="L4" s="25">
         <v>2.31</v>
       </c>
-      <c r="L4" s="25">
+      <c r="M4" s="25">
         <v>2.75</v>
       </c>
-      <c r="M4" s="25">
+      <c r="N4" s="25">
         <v>3.79</v>
       </c>
-      <c r="N4" s="25">
+      <c r="O4" s="25">
         <v>12.14</v>
       </c>
-      <c r="O4" s="25">
+      <c r="P4" s="25">
         <v>13.5</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="Q4" s="26">
         <v>0.373</v>
@@ -6305,19 +6313,19 @@
         <v>65.058750773036479</v>
       </c>
       <c r="AN4">
-        <f>RANK(E4,E$4:E$33,0)</f>
+        <f>RANK(F4,F$4:F$33,0)</f>
         <v>16</v>
       </c>
       <c r="AO4">
-        <f>RANK(J4,J$4:J$33,0)</f>
+        <f>RANK(K4,K$4:K$33,0)</f>
         <v>26</v>
       </c>
       <c r="AP4">
-        <f>RANK(K4,K$4:K$33,0)</f>
+        <f>RANK(L4,L$4:L$33,0)</f>
         <v>25</v>
       </c>
       <c r="AQ4">
-        <f>RANK(N4,N$4:N$33,1)</f>
+        <f>RANK(O4,O$4:O$33,1)</f>
         <v>28</v>
       </c>
       <c r="AR4">
@@ -6364,44 +6372,44 @@
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>10000</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="28">
+      <c r="H5" s="28">
         <v>42475.444444444445</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>435</v>
       </c>
-      <c r="I5" s="25">
+      <c r="J5" s="25">
         <v>10</v>
       </c>
-      <c r="J5" s="25">
+      <c r="K5" s="25">
         <v>3.11</v>
       </c>
-      <c r="K5" s="25">
+      <c r="L5" s="25">
         <v>4.21</v>
       </c>
-      <c r="L5" s="25">
+      <c r="M5" s="25">
         <v>2.94</v>
       </c>
-      <c r="M5" s="25">
+      <c r="N5" s="25">
         <v>6.31</v>
       </c>
-      <c r="N5" s="25">
+      <c r="O5" s="25">
         <v>8.6300000000000008</v>
       </c>
-      <c r="O5" s="25">
+      <c r="P5" s="25">
         <v>9</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="Q5" s="26">
         <v>0.24299999999999999</v>
@@ -6469,19 +6477,19 @@
         <v>64.223871366728503</v>
       </c>
       <c r="AN5">
-        <f>RANK(E5,E$4:E$33,0)</f>
+        <f>RANK(F5,F$4:F$33,0)</f>
         <v>4</v>
       </c>
       <c r="AO5">
-        <f>RANK(J5,J$4:J$33,0)</f>
+        <f>RANK(K5,K$4:K$33,0)</f>
         <v>22</v>
       </c>
       <c r="AP5">
-        <f>RANK(K5,K$4:K$33,0)</f>
+        <f>RANK(L5,L$4:L$33,0)</f>
         <v>10</v>
       </c>
       <c r="AQ5">
-        <f>RANK(N5,N$4:N$33,1)</f>
+        <f>RANK(O5,O$4:O$33,1)</f>
         <v>21</v>
       </c>
       <c r="AR5">
@@ -6528,44 +6536,44 @@
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>9000</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="28">
+      <c r="H6" s="28">
         <v>42475.34375</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>275</v>
       </c>
-      <c r="I6" s="25">
+      <c r="J6" s="25">
         <v>6</v>
       </c>
-      <c r="J6" s="25">
+      <c r="K6" s="25">
         <v>3.47</v>
       </c>
-      <c r="K6" s="25">
+      <c r="L6" s="25">
         <v>4.8099999999999996</v>
       </c>
-      <c r="L6" s="25">
+      <c r="M6" s="25">
         <v>3.2</v>
       </c>
-      <c r="M6" s="25">
+      <c r="N6" s="25">
         <v>3.05</v>
       </c>
-      <c r="N6" s="25">
+      <c r="O6" s="25">
         <v>8.93</v>
       </c>
-      <c r="O6" s="25">
+      <c r="P6" s="25">
         <v>7.5</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="Q6" s="26">
         <v>0.28299999999999997</v>
@@ -6633,19 +6641,19 @@
         <v>61.008039579468146</v>
       </c>
       <c r="AN6">
-        <f>RANK(E6,E$4:E$33,0)</f>
+        <f>RANK(F6,F$4:F$33,0)</f>
         <v>8</v>
       </c>
       <c r="AO6">
-        <f>RANK(J6,J$4:J$33,0)</f>
+        <f>RANK(K6,K$4:K$33,0)</f>
         <v>21</v>
       </c>
       <c r="AP6">
-        <f>RANK(K6,K$4:K$33,0)</f>
+        <f>RANK(L6,L$4:L$33,0)</f>
         <v>6</v>
       </c>
       <c r="AQ6">
-        <f>RANK(N6,N$4:N$33,1)</f>
+        <f>RANK(O6,O$4:O$33,1)</f>
         <v>23</v>
       </c>
       <c r="AR6">
@@ -6692,44 +6700,44 @@
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>7100</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="28">
+      <c r="H7" s="28">
         <v>42475.295138888891</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>305.2</v>
       </c>
-      <c r="I7" s="25">
+      <c r="J7" s="25">
         <v>6</v>
       </c>
-      <c r="J7" s="25">
+      <c r="K7" s="25">
         <v>4.16</v>
       </c>
-      <c r="K7" s="25">
+      <c r="L7" s="25">
         <v>5.89</v>
       </c>
-      <c r="L7" s="25">
+      <c r="M7" s="25">
         <v>4.17</v>
       </c>
-      <c r="M7" s="25">
+      <c r="N7" s="25">
         <v>6.05</v>
       </c>
-      <c r="N7" s="25">
+      <c r="O7" s="25">
         <v>6.45</v>
       </c>
-      <c r="O7" s="25">
+      <c r="P7" s="25">
         <v>1.5</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="Q7" s="26">
         <v>0.254</v>
@@ -6797,19 +6805,19 @@
         <v>60.420531849103284</v>
       </c>
       <c r="AN7">
-        <f>RANK(E7,E$4:E$33,0)</f>
+        <f>RANK(F7,F$4:F$33,0)</f>
         <v>18</v>
       </c>
       <c r="AO7">
-        <f>RANK(J7,J$4:J$33,0)</f>
+        <f>RANK(K7,K$4:K$33,0)</f>
         <v>8</v>
       </c>
       <c r="AP7">
-        <f>RANK(K7,K$4:K$33,0)</f>
+        <f>RANK(L7,L$4:L$33,0)</f>
         <v>3</v>
       </c>
       <c r="AQ7">
-        <f>RANK(N7,N$4:N$33,1)</f>
+        <f>RANK(O7,O$4:O$33,1)</f>
         <v>9</v>
       </c>
       <c r="AR7">
@@ -6856,44 +6864,44 @@
       <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>7900</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="28">
+      <c r="H8" s="28">
         <v>42475.295138888891</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>67.099999999999994</v>
       </c>
-      <c r="I8" s="25">
+      <c r="J8" s="25">
         <v>5</v>
       </c>
-      <c r="J8" s="25">
+      <c r="K8" s="25">
         <v>3.72</v>
       </c>
-      <c r="K8" s="25">
+      <c r="L8" s="25">
         <v>2.2200000000000002</v>
       </c>
-      <c r="L8" s="25">
+      <c r="M8" s="25">
         <v>4.1399999999999997</v>
       </c>
-      <c r="M8" s="25">
+      <c r="N8" s="25">
         <v>1.21</v>
       </c>
-      <c r="N8" s="25">
+      <c r="O8" s="25">
         <v>8.15</v>
       </c>
-      <c r="O8" s="25">
+      <c r="P8" s="25">
         <v>9</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="Q8" s="26">
         <v>0.32300000000000001</v>
@@ -6949,19 +6957,19 @@
         <v>60.111317254174388</v>
       </c>
       <c r="AN8">
-        <f>RANK(E8,E$4:E$33,0)</f>
+        <f>RANK(F8,F$4:F$33,0)</f>
         <v>12</v>
       </c>
       <c r="AO8">
-        <f>RANK(J8,J$4:J$33,0)</f>
+        <f>RANK(K8,K$4:K$33,0)</f>
         <v>17</v>
       </c>
       <c r="AP8">
-        <f>RANK(K8,K$4:K$33,0)</f>
+        <f>RANK(L8,L$4:L$33,0)</f>
         <v>26</v>
       </c>
       <c r="AQ8">
-        <f>RANK(N8,N$4:N$33,1)</f>
+        <f>RANK(O8,O$4:O$33,1)</f>
         <v>18</v>
       </c>
       <c r="AR8">
@@ -7008,44 +7016,44 @@
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>9300</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="28">
+      <c r="H9" s="28">
         <v>42475.340277777781</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>387.2</v>
       </c>
-      <c r="I9" s="25">
+      <c r="J9" s="25">
         <v>11.2</v>
       </c>
-      <c r="J9" s="25">
+      <c r="K9" s="25">
         <v>3.6</v>
       </c>
-      <c r="K9" s="25">
+      <c r="L9" s="25">
         <v>3.28</v>
       </c>
-      <c r="L9" s="25">
+      <c r="M9" s="25">
         <v>3.29</v>
       </c>
-      <c r="M9" s="25">
+      <c r="N9" s="25">
         <v>3.13</v>
       </c>
-      <c r="N9" s="25">
+      <c r="O9" s="25">
         <v>8.1999999999999993</v>
       </c>
-      <c r="O9" s="25">
+      <c r="P9" s="25">
         <v>10.029999999999999</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="Q9" s="26">
         <v>0.26300000000000001</v>
@@ -7113,19 +7121,19 @@
         <v>59.523809523809526</v>
       </c>
       <c r="AN9">
-        <f>RANK(E9,E$4:E$33,0)</f>
+        <f>RANK(F9,F$4:F$33,0)</f>
         <v>6</v>
       </c>
       <c r="AO9">
-        <f>RANK(J9,J$4:J$33,0)</f>
+        <f>RANK(K9,K$4:K$33,0)</f>
         <v>20</v>
       </c>
       <c r="AP9">
-        <f>RANK(K9,K$4:K$33,0)</f>
+        <f>RANK(L9,L$4:L$33,0)</f>
         <v>16</v>
       </c>
       <c r="AQ9">
-        <f>RANK(N9,N$4:N$33,1)</f>
+        <f>RANK(O9,O$4:O$33,1)</f>
         <v>19</v>
       </c>
       <c r="AR9">
@@ -7172,44 +7180,44 @@
       <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>13700</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="28">
+      <c r="H10" s="28">
         <v>42475.423611111109</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>446</v>
       </c>
-      <c r="I10" s="25">
+      <c r="J10" s="25">
         <v>15</v>
       </c>
-      <c r="J10" s="25">
+      <c r="K10" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K10" s="25">
+      <c r="L10" s="25">
         <v>3.13</v>
       </c>
-      <c r="L10" s="25">
+      <c r="M10" s="25">
         <v>1.96</v>
       </c>
-      <c r="M10" s="25">
+      <c r="N10" s="25">
         <v>3.48</v>
       </c>
-      <c r="N10" s="25">
+      <c r="O10" s="25">
         <v>11.18</v>
       </c>
-      <c r="O10" s="25">
+      <c r="P10" s="25">
         <v>8.4</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="Q10" s="26">
         <v>0.32200000000000001</v>
@@ -7277,19 +7285,19 @@
         <v>59.477427334570187</v>
       </c>
       <c r="AN10">
-        <f>RANK(E10,E$4:E$33,0)</f>
+        <f>RANK(F10,F$4:F$33,0)</f>
         <v>1</v>
       </c>
       <c r="AO10">
-        <f>RANK(J10,J$4:J$33,0)</f>
+        <f>RANK(K10,K$4:K$33,0)</f>
         <v>27</v>
       </c>
       <c r="AP10">
-        <f>RANK(K10,K$4:K$33,0)</f>
+        <f>RANK(L10,L$4:L$33,0)</f>
         <v>17</v>
       </c>
       <c r="AQ10">
-        <f>RANK(N10,N$4:N$33,1)</f>
+        <f>RANK(O10,O$4:O$33,1)</f>
         <v>26</v>
       </c>
       <c r="AR10">
@@ -7336,44 +7344,44 @@
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>12200</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="28">
+      <c r="H11" s="28">
         <v>42475.298611111109</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>396.2</v>
       </c>
-      <c r="I11" s="25">
+      <c r="J11" s="25">
         <v>14</v>
       </c>
-      <c r="J11" s="25">
+      <c r="K11" s="25">
         <v>2.56</v>
       </c>
-      <c r="K11" s="25">
+      <c r="L11" s="25">
         <v>3.04</v>
       </c>
-      <c r="L11" s="25">
+      <c r="M11" s="25">
         <v>2.7</v>
       </c>
-      <c r="M11" s="25">
+      <c r="N11" s="25">
         <v>3.71</v>
       </c>
-      <c r="N11" s="25">
+      <c r="O11" s="25">
         <v>11.25</v>
       </c>
-      <c r="O11" s="25">
+      <c r="P11" s="25">
         <v>9</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="Q11" s="26">
         <v>0.27400000000000002</v>
@@ -7441,19 +7449,19 @@
         <v>59.276437847866411</v>
       </c>
       <c r="AN11">
-        <f>RANK(E11,E$4:E$33,0)</f>
+        <f>RANK(F11,F$4:F$33,0)</f>
         <v>2</v>
       </c>
       <c r="AO11">
-        <f>RANK(J11,J$4:J$33,0)</f>
+        <f>RANK(K11,K$4:K$33,0)</f>
         <v>25</v>
       </c>
       <c r="AP11">
-        <f>RANK(K11,K$4:K$33,0)</f>
+        <f>RANK(L11,L$4:L$33,0)</f>
         <v>20</v>
       </c>
       <c r="AQ11">
-        <f>RANK(N11,N$4:N$33,1)</f>
+        <f>RANK(O11,O$4:O$33,1)</f>
         <v>27</v>
       </c>
       <c r="AR11">
@@ -7500,44 +7508,44 @@
       <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>7700</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="28">
+      <c r="H12" s="28">
         <v>42475.295138888891</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>83.2</v>
       </c>
-      <c r="I12" s="25">
+      <c r="J12" s="25">
         <v>7</v>
       </c>
-      <c r="J12" s="25">
+      <c r="K12" s="25">
         <v>3.68</v>
       </c>
-      <c r="K12" s="25">
+      <c r="L12" s="25">
         <v>3.99</v>
       </c>
-      <c r="L12" s="25">
+      <c r="M12" s="25">
         <v>3.36</v>
       </c>
-      <c r="M12" s="25">
+      <c r="N12" s="25">
         <v>2.64</v>
       </c>
-      <c r="N12" s="25">
+      <c r="O12" s="25">
         <v>7.96</v>
       </c>
-      <c r="O12" s="25">
+      <c r="P12" s="25">
         <v>6.43</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="Q12" s="26">
         <v>0.30099999999999999</v>
@@ -7599,19 +7607,19 @@
         <v>58.147804576376004</v>
       </c>
       <c r="AN12">
-        <f>RANK(E12,E$4:E$33,0)</f>
+        <f>RANK(F12,F$4:F$33,0)</f>
         <v>13</v>
       </c>
       <c r="AO12">
-        <f>RANK(J12,J$4:J$33,0)</f>
+        <f>RANK(K12,K$4:K$33,0)</f>
         <v>18</v>
       </c>
       <c r="AP12">
-        <f>RANK(K12,K$4:K$33,0)</f>
+        <f>RANK(L12,L$4:L$33,0)</f>
         <v>11</v>
       </c>
       <c r="AQ12">
-        <f>RANK(N12,N$4:N$33,1)</f>
+        <f>RANK(O12,O$4:O$33,1)</f>
         <v>17</v>
       </c>
       <c r="AR12">
@@ -7658,44 +7666,44 @@
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>8200</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="28">
+      <c r="H13" s="28">
         <v>42475.298611111109</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>382</v>
       </c>
-      <c r="I13" s="25">
+      <c r="J13" s="25">
         <v>5</v>
       </c>
-      <c r="J13" s="25">
+      <c r="K13" s="25">
         <v>3.92</v>
       </c>
-      <c r="K13" s="25">
+      <c r="L13" s="25">
         <v>4.58</v>
       </c>
-      <c r="L13" s="25">
+      <c r="M13" s="25">
         <v>4.03</v>
       </c>
-      <c r="M13" s="25">
+      <c r="N13" s="25">
         <v>4.6100000000000003</v>
       </c>
-      <c r="N13" s="25">
+      <c r="O13" s="25">
         <v>6.88</v>
       </c>
-      <c r="O13" s="25">
+      <c r="P13" s="25">
         <v>5.4</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="Q13" s="26">
         <v>0.19500000000000001</v>
@@ -7763,19 +7771,19 @@
         <v>57.575757575757571</v>
       </c>
       <c r="AN13">
-        <f>RANK(E13,E$4:E$33,0)</f>
+        <f>RANK(F13,F$4:F$33,0)</f>
         <v>10</v>
       </c>
       <c r="AO13">
-        <f>RANK(J13,J$4:J$33,0)</f>
+        <f>RANK(K13,K$4:K$33,0)</f>
         <v>11</v>
       </c>
       <c r="AP13">
-        <f>RANK(K13,K$4:K$33,0)</f>
+        <f>RANK(L13,L$4:L$33,0)</f>
         <v>7</v>
       </c>
       <c r="AQ13">
-        <f>RANK(N13,N$4:N$33,1)</f>
+        <f>RANK(O13,O$4:O$33,1)</f>
         <v>12</v>
       </c>
       <c r="AR13">
@@ -7822,44 +7830,44 @@
       <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>7600</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="28">
+      <c r="H14" s="28">
         <v>42475.420138888891</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>404.2</v>
       </c>
-      <c r="I14" s="25">
+      <c r="J14" s="25">
         <v>11.2</v>
       </c>
-      <c r="J14" s="25">
+      <c r="K14" s="25">
         <v>4.2300000000000004</v>
       </c>
-      <c r="K14" s="25">
+      <c r="L14" s="25">
         <v>2.4900000000000002</v>
       </c>
-      <c r="L14" s="25">
+      <c r="M14" s="25">
         <v>3.91</v>
       </c>
-      <c r="M14" s="25">
+      <c r="N14" s="25">
         <v>1.41</v>
       </c>
-      <c r="N14" s="25">
+      <c r="O14" s="25">
         <v>6.89</v>
       </c>
-      <c r="O14" s="25">
+      <c r="P14" s="25">
         <v>11.57</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="Q14" s="26">
         <v>0.253</v>
@@ -7927,19 +7935,19 @@
         <v>56.09152752009895</v>
       </c>
       <c r="AN14">
-        <f>RANK(E14,E$4:E$33,0)</f>
+        <f>RANK(F14,F$4:F$33,0)</f>
         <v>14</v>
       </c>
       <c r="AO14">
-        <f>RANK(J14,J$4:J$33,0)</f>
+        <f>RANK(K14,K$4:K$33,0)</f>
         <v>7</v>
       </c>
       <c r="AP14">
-        <f>RANK(K14,K$4:K$33,0)</f>
+        <f>RANK(L14,L$4:L$33,0)</f>
         <v>24</v>
       </c>
       <c r="AQ14">
-        <f>RANK(N14,N$4:N$33,1)</f>
+        <f>RANK(O14,O$4:O$33,1)</f>
         <v>13</v>
       </c>
       <c r="AR14">
@@ -7986,44 +7994,44 @@
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>8300</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="28">
+      <c r="H15" s="28">
         <v>42475.298611111109</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>349</v>
       </c>
-      <c r="I15" s="25">
+      <c r="J15" s="25">
         <v>11.2</v>
       </c>
-      <c r="J15" s="25">
+      <c r="K15" s="25">
         <v>3.74</v>
       </c>
-      <c r="K15" s="25">
+      <c r="L15" s="25">
         <v>2.89</v>
       </c>
-      <c r="L15" s="25">
+      <c r="M15" s="25">
         <v>3.64</v>
       </c>
-      <c r="M15" s="25">
+      <c r="N15" s="25">
         <v>2.44</v>
       </c>
-      <c r="N15" s="25">
+      <c r="O15" s="25">
         <v>8.7200000000000006</v>
       </c>
-      <c r="O15" s="25">
+      <c r="P15" s="25">
         <v>10.8</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="Q15" s="26">
         <v>0.27600000000000002</v>
@@ -8091,19 +8099,19 @@
         <v>55.983302411873822</v>
       </c>
       <c r="AN15">
-        <f>RANK(E15,E$4:E$33,0)</f>
+        <f>RANK(F15,F$4:F$33,0)</f>
         <v>9</v>
       </c>
       <c r="AO15">
-        <f>RANK(J15,J$4:J$33,0)</f>
+        <f>RANK(K15,K$4:K$33,0)</f>
         <v>16</v>
       </c>
       <c r="AP15">
-        <f>RANK(K15,K$4:K$33,0)</f>
+        <f>RANK(L15,L$4:L$33,0)</f>
         <v>23</v>
       </c>
       <c r="AQ15">
-        <f>RANK(N15,N$4:N$33,1)</f>
+        <f>RANK(O15,O$4:O$33,1)</f>
         <v>22</v>
       </c>
       <c r="AR15">
@@ -8150,44 +8158,44 @@
       <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>4900</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="28">
+      <c r="H16" s="28">
         <v>42475.336805555555</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>187</v>
       </c>
-      <c r="I16" s="25">
+      <c r="J16" s="25">
         <v>4.2</v>
       </c>
-      <c r="J16" s="25">
+      <c r="K16" s="25">
         <v>3.91</v>
       </c>
-      <c r="K16" s="25">
+      <c r="L16" s="25">
         <v>3.4</v>
       </c>
-      <c r="L16" s="25">
+      <c r="M16" s="25">
         <v>3.61</v>
       </c>
-      <c r="M16" s="25">
+      <c r="N16" s="25">
         <v>4.5</v>
       </c>
-      <c r="N16" s="25">
+      <c r="O16" s="25">
         <v>6.4</v>
       </c>
-      <c r="O16" s="25">
+      <c r="P16" s="25">
         <v>9.64</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="Q16" s="26">
         <v>0.28399999999999997</v>
@@ -8255,19 +8263,19 @@
         <v>55.596784168212743</v>
       </c>
       <c r="AN16">
-        <f>RANK(E16,E$4:E$33,0)</f>
+        <f>RANK(F16,F$4:F$33,0)</f>
         <v>28</v>
       </c>
       <c r="AO16">
-        <f>RANK(J16,J$4:J$33,0)</f>
+        <f>RANK(K16,K$4:K$33,0)</f>
         <v>12</v>
       </c>
       <c r="AP16">
-        <f>RANK(K16,K$4:K$33,0)</f>
+        <f>RANK(L16,L$4:L$33,0)</f>
         <v>15</v>
       </c>
       <c r="AQ16">
-        <f>RANK(N16,N$4:N$33,1)</f>
+        <f>RANK(O16,O$4:O$33,1)</f>
         <v>8</v>
       </c>
       <c r="AR16">
@@ -8314,44 +8322,44 @@
       <c r="C17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>7200</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="28">
+      <c r="H17" s="28">
         <v>42475.298611111109</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>382.2</v>
       </c>
-      <c r="I17" s="25">
+      <c r="J17" s="25">
         <v>6</v>
       </c>
-      <c r="J17" s="25">
+      <c r="K17" s="25">
         <v>3.8</v>
       </c>
-      <c r="K17" s="25">
+      <c r="L17" s="25">
         <v>3.11</v>
       </c>
-      <c r="L17" s="25">
+      <c r="M17" s="25">
         <v>3.91</v>
       </c>
-      <c r="M17" s="25">
+      <c r="N17" s="25">
         <v>5.71</v>
       </c>
-      <c r="N17" s="25">
+      <c r="O17" s="25">
         <v>6.7</v>
       </c>
-      <c r="O17" s="25">
+      <c r="P17" s="25">
         <v>10.5</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="Q17" s="26">
         <v>0.311</v>
@@ -8419,19 +8427,19 @@
         <v>55.241187384044522</v>
       </c>
       <c r="AN17">
-        <f>RANK(E17,E$4:E$33,0)</f>
+        <f>RANK(F17,F$4:F$33,0)</f>
         <v>17</v>
       </c>
       <c r="AO17">
-        <f>RANK(J17,J$4:J$33,0)</f>
+        <f>RANK(K17,K$4:K$33,0)</f>
         <v>15</v>
       </c>
       <c r="AP17">
-        <f>RANK(K17,K$4:K$33,0)</f>
+        <f>RANK(L17,L$4:L$33,0)</f>
         <v>18</v>
       </c>
       <c r="AQ17">
-        <f>RANK(N17,N$4:N$33,1)</f>
+        <f>RANK(O17,O$4:O$33,1)</f>
         <v>11</v>
       </c>
       <c r="AR17">
@@ -8478,44 +8486,44 @@
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>5300</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="28">
+      <c r="H18" s="28">
         <v>42475.298611111109</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>404.1</v>
       </c>
-      <c r="I18" s="25">
+      <c r="J18" s="25">
         <v>7.1</v>
       </c>
-      <c r="J18" s="25">
+      <c r="K18" s="25">
         <v>3.85</v>
       </c>
-      <c r="K18" s="25">
+      <c r="L18" s="25">
         <v>1.91</v>
       </c>
-      <c r="L18" s="25">
+      <c r="M18" s="25">
         <v>3.69</v>
       </c>
-      <c r="M18" s="25">
+      <c r="N18" s="25">
         <v>2.8</v>
       </c>
-      <c r="N18" s="25">
+      <c r="O18" s="25">
         <v>6.57</v>
       </c>
-      <c r="O18" s="25">
+      <c r="P18" s="25">
         <v>9.82</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="Q18" s="26">
         <v>0.35399999999999998</v>
@@ -8583,19 +8591,19 @@
         <v>55.02473716759431</v>
       </c>
       <c r="AN18">
-        <f>RANK(E18,E$4:E$33,0)</f>
+        <f>RANK(F18,F$4:F$33,0)</f>
         <v>25</v>
       </c>
       <c r="AO18">
-        <f>RANK(J18,J$4:J$33,0)</f>
+        <f>RANK(K18,K$4:K$33,0)</f>
         <v>13</v>
       </c>
       <c r="AP18">
-        <f>RANK(K18,K$4:K$33,0)</f>
+        <f>RANK(L18,L$4:L$33,0)</f>
         <v>27</v>
       </c>
       <c r="AQ18">
-        <f>RANK(N18,N$4:N$33,1)</f>
+        <f>RANK(O18,O$4:O$33,1)</f>
         <v>10</v>
       </c>
       <c r="AR18">
@@ -8642,44 +8650,44 @@
       <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>5000</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="28">
+      <c r="H19" s="28">
         <v>42475.298611111109</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>97.1</v>
       </c>
-      <c r="I19" s="25">
+      <c r="J19" s="25">
         <v>6</v>
       </c>
-      <c r="J19" s="25">
+      <c r="K19" s="25">
         <v>4.97</v>
       </c>
-      <c r="K19" s="25">
+      <c r="L19" s="25">
         <v>6.01</v>
       </c>
-      <c r="L19" s="25">
+      <c r="M19" s="25">
         <v>4.3600000000000003</v>
       </c>
-      <c r="M19" s="25">
+      <c r="N19" s="25">
         <v>5.71</v>
       </c>
-      <c r="N19" s="25">
+      <c r="O19" s="25">
         <v>4.25</v>
       </c>
-      <c r="O19" s="25">
+      <c r="P19" s="25">
         <v>3</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="Q19" s="26">
         <v>0.246</v>
@@ -8741,19 +8749,19 @@
         <v>52.551020408163261</v>
       </c>
       <c r="AN19">
-        <f>RANK(E19,E$4:E$33,0)</f>
+        <f>RANK(F19,F$4:F$33,0)</f>
         <v>27</v>
       </c>
       <c r="AO19">
-        <f>RANK(J19,J$4:J$33,0)</f>
+        <f>RANK(K19,K$4:K$33,0)</f>
         <v>1</v>
       </c>
       <c r="AP19">
-        <f>RANK(K19,K$4:K$33,0)</f>
+        <f>RANK(L19,L$4:L$33,0)</f>
         <v>2</v>
       </c>
       <c r="AQ19">
-        <f>RANK(N19,N$4:N$33,1)</f>
+        <f>RANK(O19,O$4:O$33,1)</f>
         <v>2</v>
       </c>
       <c r="AR19">
@@ -8800,44 +8808,44 @@
       <c r="C20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>6800</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="28">
+      <c r="H20" s="28">
         <v>42475.295138888891</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>221.1</v>
       </c>
-      <c r="I20" s="25">
+      <c r="J20" s="25">
         <v>11.2</v>
       </c>
-      <c r="J20" s="25">
+      <c r="K20" s="25">
         <v>4.0599999999999996</v>
       </c>
-      <c r="K20" s="25">
+      <c r="L20" s="25">
         <v>3.07</v>
       </c>
-      <c r="L20" s="25">
+      <c r="M20" s="25">
         <v>4.2699999999999996</v>
       </c>
-      <c r="M20" s="25">
+      <c r="N20" s="25">
         <v>2.7</v>
       </c>
-      <c r="N20" s="25">
+      <c r="O20" s="25">
         <v>7.56</v>
       </c>
-      <c r="O20" s="25">
+      <c r="P20" s="25">
         <v>8.49</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="Q20" s="26">
         <v>0.29299999999999998</v>
@@ -8905,19 +8913,19 @@
         <v>50.200989486703776</v>
       </c>
       <c r="AN20">
-        <f>RANK(E20,E$4:E$33,0)</f>
+        <f>RANK(F20,F$4:F$33,0)</f>
         <v>19</v>
       </c>
       <c r="AO20">
-        <f>RANK(J20,J$4:J$33,0)</f>
+        <f>RANK(K20,K$4:K$33,0)</f>
         <v>9</v>
       </c>
       <c r="AP20">
-        <f>RANK(K20,K$4:K$33,0)</f>
+        <f>RANK(L20,L$4:L$33,0)</f>
         <v>19</v>
       </c>
       <c r="AQ20">
-        <f>RANK(N20,N$4:N$33,1)</f>
+        <f>RANK(O20,O$4:O$33,1)</f>
         <v>15</v>
       </c>
       <c r="AR20">
@@ -8964,22 +8972,22 @@
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>5100</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="28">
+      <c r="H21" s="28">
         <v>42475.34375</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="25">
+      <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="25">
@@ -9000,8 +9008,8 @@
       <c r="O21" s="25">
         <v>0</v>
       </c>
-      <c r="P21" s="5" t="s">
-        <v>34</v>
+      <c r="P21" s="25">
+        <v>0</v>
       </c>
       <c r="Q21" s="26">
         <v>0.371</v>
@@ -9040,19 +9048,19 @@
         <v>47.062461348175631</v>
       </c>
       <c r="AN21">
-        <f>RANK(E21,E$4:E$33,0)</f>
+        <f>RANK(F21,F$4:F$33,0)</f>
         <v>26</v>
       </c>
       <c r="AO21">
-        <f>RANK(J21,J$4:J$33,0)</f>
-        <v>28</v>
-      </c>
-      <c r="AP21">
         <f>RANK(K21,K$4:K$33,0)</f>
         <v>28</v>
       </c>
+      <c r="AP21">
+        <f>RANK(L21,L$4:L$33,0)</f>
+        <v>28</v>
+      </c>
       <c r="AQ21">
-        <f>RANK(N21,N$4:N$33,1)</f>
+        <f>RANK(O21,O$4:O$33,1)</f>
         <v>1</v>
       </c>
       <c r="AR21">
@@ -9099,44 +9107,44 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>5900</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="28">
+      <c r="H22" s="28">
         <v>42475.298611111109</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>440</v>
       </c>
-      <c r="I22" s="25">
+      <c r="J22" s="25">
         <v>10</v>
       </c>
-      <c r="J22" s="25">
+      <c r="K22" s="25">
         <v>4.3899999999999997</v>
       </c>
-      <c r="K22" s="25">
+      <c r="L22" s="25">
         <v>3.66</v>
       </c>
-      <c r="L22" s="25">
+      <c r="M22" s="25">
         <v>4.38</v>
       </c>
-      <c r="M22" s="25">
+      <c r="N22" s="25">
         <v>3.31</v>
       </c>
-      <c r="N22" s="25">
+      <c r="O22" s="25">
         <v>6.36</v>
       </c>
-      <c r="O22" s="25">
+      <c r="P22" s="25">
         <v>10.8</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="Q22" s="26">
         <v>0.33800000000000002</v>
@@ -9204,19 +9212,19 @@
         <v>45.485466914038334</v>
       </c>
       <c r="AN22">
-        <f>RANK(E22,E$4:E$33,0)</f>
+        <f>RANK(F22,F$4:F$33,0)</f>
         <v>22</v>
       </c>
       <c r="AO22">
-        <f>RANK(J22,J$4:J$33,0)</f>
+        <f>RANK(K22,K$4:K$33,0)</f>
         <v>5</v>
       </c>
       <c r="AP22">
-        <f>RANK(K22,K$4:K$33,0)</f>
+        <f>RANK(L22,L$4:L$33,0)</f>
         <v>14</v>
       </c>
       <c r="AQ22">
-        <f>RANK(N22,N$4:N$33,1)</f>
+        <f>RANK(O22,O$4:O$33,1)</f>
         <v>7</v>
       </c>
       <c r="AR22">
@@ -9263,44 +9271,44 @@
       <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>6500</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="28">
+      <c r="H23" s="28">
         <v>42475.340277777781</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>251.1</v>
       </c>
-      <c r="I23" s="25">
+      <c r="J23" s="25">
         <v>4.2</v>
       </c>
-      <c r="J23" s="25">
+      <c r="K23" s="25">
         <v>4.46</v>
       </c>
-      <c r="K23" s="25">
+      <c r="L23" s="25">
         <v>2.92</v>
       </c>
-      <c r="L23" s="25">
+      <c r="M23" s="25">
         <v>4.55</v>
       </c>
-      <c r="M23" s="25">
+      <c r="N23" s="25">
         <v>7.71</v>
       </c>
-      <c r="N23" s="25">
+      <c r="O23" s="25">
         <v>6.09</v>
       </c>
-      <c r="O23" s="25">
+      <c r="P23" s="25">
         <v>7.71</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="Q23" s="26">
         <v>0.28499999999999998</v>
@@ -9368,19 +9376,19 @@
         <v>45.330859616573896</v>
       </c>
       <c r="AN23" s="17">
-        <f>RANK(E23,E$4:E$33,0)</f>
+        <f>RANK(F23,F$4:F$33,0)</f>
         <v>20</v>
       </c>
       <c r="AO23" s="17">
-        <f>RANK(J23,J$4:J$33,0)</f>
+        <f>RANK(K23,K$4:K$33,0)</f>
         <v>4</v>
       </c>
       <c r="AP23" s="17">
-        <f>RANK(K23,K$4:K$33,0)</f>
+        <f>RANK(L23,L$4:L$33,0)</f>
         <v>22</v>
       </c>
       <c r="AQ23" s="17">
-        <f>RANK(N23,N$4:N$33,1)</f>
+        <f>RANK(O23,O$4:O$33,1)</f>
         <v>6</v>
       </c>
       <c r="AR23" s="17">
@@ -9427,44 +9435,44 @@
       <c r="C24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>7500</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="28">
+      <c r="H24" s="28">
         <v>42475.295138888891</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>164</v>
       </c>
-      <c r="I24" s="25">
+      <c r="J24" s="25">
         <v>5</v>
       </c>
-      <c r="J24" s="25">
+      <c r="K24" s="25">
         <v>3.82</v>
       </c>
-      <c r="K24" s="25">
+      <c r="L24" s="25">
         <v>2.95</v>
       </c>
-      <c r="L24" s="25">
+      <c r="M24" s="25">
         <v>4.2</v>
       </c>
-      <c r="M24" s="25">
+      <c r="N24" s="25">
         <v>4.01</v>
       </c>
-      <c r="N24" s="25">
+      <c r="O24" s="25">
         <v>9</v>
       </c>
-      <c r="O24" s="25">
+      <c r="P24" s="25">
         <v>10.8</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="Q24" s="26">
         <v>0.33900000000000002</v>
@@ -9532,19 +9540,19 @@
         <v>45.22263450834879</v>
       </c>
       <c r="AN24">
-        <f>RANK(E24,E$4:E$33,0)</f>
+        <f>RANK(F24,F$4:F$33,0)</f>
         <v>15</v>
       </c>
       <c r="AO24">
-        <f>RANK(J24,J$4:J$33,0)</f>
+        <f>RANK(K24,K$4:K$33,0)</f>
         <v>14</v>
       </c>
       <c r="AP24">
-        <f>RANK(K24,K$4:K$33,0)</f>
+        <f>RANK(L24,L$4:L$33,0)</f>
         <v>21</v>
       </c>
       <c r="AQ24">
-        <f>RANK(N24,N$4:N$33,1)</f>
+        <f>RANK(O24,O$4:O$33,1)</f>
         <v>24</v>
       </c>
       <c r="AR24">
@@ -9591,44 +9599,44 @@
       <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>11400</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="28">
+      <c r="H25" s="28">
         <v>42475.423611111109</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>446.2</v>
       </c>
-      <c r="I25" s="25">
+      <c r="J25" s="25">
         <v>11</v>
       </c>
-      <c r="J25" s="25">
+      <c r="K25" s="25">
         <v>3.02</v>
       </c>
-      <c r="K25" s="25">
+      <c r="L25" s="25">
         <v>3.99</v>
       </c>
-      <c r="L25" s="25">
+      <c r="M25" s="25">
         <v>3.01</v>
       </c>
-      <c r="M25" s="25">
+      <c r="N25" s="25">
         <v>4.9400000000000004</v>
       </c>
-      <c r="N25" s="25">
+      <c r="O25" s="25">
         <v>9.41</v>
       </c>
-      <c r="O25" s="25">
+      <c r="P25" s="25">
         <v>11.45</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="Q25" s="26">
         <v>0.28399999999999997</v>
@@ -9696,19 +9704,19 @@
         <v>43.491032776747055</v>
       </c>
       <c r="AN25">
-        <f>RANK(E25,E$4:E$33,0)</f>
+        <f>RANK(F25,F$4:F$33,0)</f>
         <v>3</v>
       </c>
       <c r="AO25">
-        <f>RANK(J25,J$4:J$33,0)</f>
+        <f>RANK(K25,K$4:K$33,0)</f>
         <v>23</v>
       </c>
       <c r="AP25">
-        <f>RANK(K25,K$4:K$33,0)</f>
+        <f>RANK(L25,L$4:L$33,0)</f>
         <v>11</v>
       </c>
       <c r="AQ25">
-        <f>RANK(N25,N$4:N$33,1)</f>
+        <f>RANK(O25,O$4:O$33,1)</f>
         <v>25</v>
       </c>
       <c r="AR25">
@@ -9755,44 +9763,44 @@
       <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>9200</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="28">
+      <c r="H26" s="28">
         <v>42475.444444444445</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>442.1</v>
       </c>
-      <c r="I26" s="25">
+      <c r="J26" s="25">
         <v>13</v>
       </c>
-      <c r="J26" s="25">
+      <c r="K26" s="25">
         <v>3.66</v>
       </c>
-      <c r="K26" s="25">
+      <c r="L26" s="25">
         <v>4.42</v>
       </c>
-      <c r="L26" s="25">
+      <c r="M26" s="25">
         <v>4.05</v>
       </c>
-      <c r="M26" s="25">
+      <c r="N26" s="25">
         <v>5.68</v>
       </c>
-      <c r="N26" s="25">
+      <c r="O26" s="25">
         <v>8.2200000000000006</v>
       </c>
-      <c r="O26" s="25">
+      <c r="P26" s="25">
         <v>5.54</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="Q26" s="26">
         <v>0.309</v>
@@ -9860,19 +9868,19 @@
         <v>41.697588126159559</v>
       </c>
       <c r="AN26">
-        <f>RANK(E26,E$4:E$33,0)</f>
+        <f>RANK(F26,F$4:F$33,0)</f>
         <v>7</v>
       </c>
       <c r="AO26">
-        <f>RANK(J26,J$4:J$33,0)</f>
+        <f>RANK(K26,K$4:K$33,0)</f>
         <v>19</v>
       </c>
       <c r="AP26">
-        <f>RANK(K26,K$4:K$33,0)</f>
+        <f>RANK(L26,L$4:L$33,0)</f>
         <v>8</v>
       </c>
       <c r="AQ26">
-        <f>RANK(N26,N$4:N$33,1)</f>
+        <f>RANK(O26,O$4:O$33,1)</f>
         <v>20</v>
       </c>
       <c r="AR26">
@@ -9919,44 +9927,44 @@
       <c r="C27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>6000</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="28">
+      <c r="H27" s="28">
         <v>42475.336805555555</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>142.1</v>
       </c>
-      <c r="I27" s="25">
+      <c r="J27" s="25">
         <v>12.1</v>
       </c>
-      <c r="J27" s="25">
+      <c r="K27" s="25">
         <v>4.3099999999999996</v>
       </c>
-      <c r="K27" s="25">
+      <c r="L27" s="25">
         <v>7</v>
       </c>
-      <c r="L27" s="25">
+      <c r="M27" s="25">
         <v>3.77</v>
       </c>
-      <c r="M27" s="25">
+      <c r="N27" s="25">
         <v>6.46</v>
       </c>
-      <c r="N27" s="25">
+      <c r="O27" s="25">
         <v>5.44</v>
       </c>
-      <c r="O27" s="25">
+      <c r="P27" s="25">
         <v>2.19</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="Q27" s="26">
         <v>0.33</v>
@@ -10018,19 +10026,19 @@
         <v>40.677179962894236</v>
       </c>
       <c r="AN27">
-        <f>RANK(E27,E$4:E$33,0)</f>
+        <f>RANK(F27,F$4:F$33,0)</f>
         <v>21</v>
       </c>
       <c r="AO27">
-        <f>RANK(J27,J$4:J$33,0)</f>
+        <f>RANK(K27,K$4:K$33,0)</f>
         <v>6</v>
       </c>
       <c r="AP27">
-        <f>RANK(K27,K$4:K$33,0)</f>
+        <f>RANK(L27,L$4:L$33,0)</f>
         <v>1</v>
       </c>
       <c r="AQ27">
-        <f>RANK(N27,N$4:N$33,1)</f>
+        <f>RANK(O27,O$4:O$33,1)</f>
         <v>4</v>
       </c>
       <c r="AR27">
@@ -10077,44 +10085,44 @@
       <c r="C28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>9400</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="28">
+      <c r="H28" s="28">
         <v>42475.340277777781</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>444.2</v>
       </c>
-      <c r="I28" s="25">
+      <c r="J28" s="25">
         <v>12.2</v>
       </c>
-      <c r="J28" s="25">
+      <c r="K28" s="25">
         <v>3.02</v>
       </c>
-      <c r="K28" s="25">
+      <c r="L28" s="25">
         <v>5.0599999999999996</v>
       </c>
-      <c r="L28" s="25">
+      <c r="M28" s="25">
         <v>3.06</v>
       </c>
-      <c r="M28" s="25">
+      <c r="N28" s="25">
         <v>3.53</v>
       </c>
-      <c r="N28" s="25">
+      <c r="O28" s="25">
         <v>7.59</v>
       </c>
-      <c r="O28" s="25">
+      <c r="P28" s="25">
         <v>9.24</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="Q28" s="26">
         <v>0.372</v>
@@ -10182,19 +10190,19 @@
         <v>39.780457637600492</v>
       </c>
       <c r="AN28">
-        <f>RANK(E28,E$4:E$33,0)</f>
+        <f>RANK(F28,F$4:F$33,0)</f>
         <v>5</v>
       </c>
       <c r="AO28">
-        <f>RANK(J28,J$4:J$33,0)</f>
+        <f>RANK(K28,K$4:K$33,0)</f>
         <v>23</v>
       </c>
       <c r="AP28">
-        <f>RANK(K28,K$4:K$33,0)</f>
+        <f>RANK(L28,L$4:L$33,0)</f>
         <v>5</v>
       </c>
       <c r="AQ28">
-        <f>RANK(N28,N$4:N$33,1)</f>
+        <f>RANK(O28,O$4:O$33,1)</f>
         <v>16</v>
       </c>
       <c r="AR28">
@@ -10241,44 +10249,44 @@
       <c r="C29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>8100</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="28">
+      <c r="H29" s="28">
         <v>42475.295138888891</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>260</v>
       </c>
-      <c r="I29" s="25">
+      <c r="J29" s="25">
         <v>13.1</v>
       </c>
-      <c r="J29" s="25">
+      <c r="K29" s="25">
         <v>3.99</v>
       </c>
-      <c r="K29" s="25">
+      <c r="L29" s="25">
         <v>3.91</v>
       </c>
-      <c r="L29" s="25">
+      <c r="M29" s="25">
         <v>4.09</v>
       </c>
-      <c r="M29" s="25">
+      <c r="N29" s="25">
         <v>5.46</v>
       </c>
-      <c r="N29" s="25">
+      <c r="O29" s="25">
         <v>7.51</v>
       </c>
-      <c r="O29" s="25">
+      <c r="P29" s="25">
         <v>8.1</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="Q29" s="26">
         <v>0.34899999999999998</v>
@@ -10346,19 +10354,19 @@
         <v>34.956709956709958</v>
       </c>
       <c r="AN29">
-        <f>RANK(E29,E$4:E$33,0)</f>
+        <f>RANK(F29,F$4:F$33,0)</f>
         <v>11</v>
       </c>
       <c r="AO29">
-        <f>RANK(J29,J$4:J$33,0)</f>
+        <f>RANK(K29,K$4:K$33,0)</f>
         <v>10</v>
       </c>
       <c r="AP29">
-        <f>RANK(K29,K$4:K$33,0)</f>
+        <f>RANK(L29,L$4:L$33,0)</f>
         <v>13</v>
       </c>
       <c r="AQ29">
-        <f>RANK(N29,N$4:N$33,1)</f>
+        <f>RANK(O29,O$4:O$33,1)</f>
         <v>14</v>
       </c>
       <c r="AR29">
@@ -10405,44 +10413,44 @@
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>5800</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="28">
+      <c r="H30" s="28">
         <v>42475.298611111109</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <v>121.1</v>
       </c>
-      <c r="I30" s="25">
+      <c r="J30" s="25">
         <v>4.2</v>
       </c>
-      <c r="J30" s="25">
+      <c r="K30" s="25">
         <v>4.91</v>
       </c>
-      <c r="K30" s="25">
+      <c r="L30" s="25">
         <v>5.38</v>
       </c>
-      <c r="L30" s="25">
+      <c r="M30" s="25">
         <v>4.95</v>
       </c>
-      <c r="M30" s="25">
+      <c r="N30" s="25">
         <v>6.86</v>
       </c>
-      <c r="N30" s="25">
+      <c r="O30" s="25">
         <v>5.71</v>
       </c>
-      <c r="O30" s="25">
+      <c r="P30" s="25">
         <v>7.71</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="Q30" s="26">
         <v>0.317</v>
@@ -10504,19 +10512,19 @@
         <v>33.967223252937536</v>
       </c>
       <c r="AN30">
-        <f>RANK(E30,E$4:E$33,0)</f>
+        <f>RANK(F30,F$4:F$33,0)</f>
         <v>23</v>
       </c>
       <c r="AO30">
-        <f>RANK(J30,J$4:J$33,0)</f>
+        <f>RANK(K30,K$4:K$33,0)</f>
         <v>2</v>
       </c>
       <c r="AP30">
-        <f>RANK(K30,K$4:K$33,0)</f>
+        <f>RANK(L30,L$4:L$33,0)</f>
         <v>4</v>
       </c>
       <c r="AQ30">
-        <f>RANK(N30,N$4:N$33,1)</f>
+        <f>RANK(O30,O$4:O$33,1)</f>
         <v>5</v>
       </c>
       <c r="AR30">
@@ -10563,44 +10571,44 @@
       <c r="C31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>5500</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="28">
+      <c r="H31" s="28">
         <v>42475.340277777781</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <v>192</v>
       </c>
-      <c r="I31" s="25">
+      <c r="J31" s="25">
         <v>3.2</v>
       </c>
-      <c r="J31" s="25">
+      <c r="K31" s="25">
         <v>4.83</v>
       </c>
-      <c r="K31" s="25">
+      <c r="L31" s="25">
         <v>4.24</v>
       </c>
-      <c r="L31" s="25">
+      <c r="M31" s="25">
         <v>4.47</v>
       </c>
-      <c r="M31" s="25">
+      <c r="N31" s="25">
         <v>5.94</v>
       </c>
-      <c r="N31" s="25">
+      <c r="O31" s="25">
         <v>4.6399999999999997</v>
       </c>
-      <c r="O31" s="25">
+      <c r="P31" s="25">
         <v>7.36</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="Q31" s="26">
         <v>0.32600000000000001</v>
@@ -10668,19 +10676,19 @@
         <v>33.828076685219536</v>
       </c>
       <c r="AN31">
-        <f>RANK(E31,E$4:E$33,0)</f>
+        <f>RANK(F31,F$4:F$33,0)</f>
         <v>24</v>
       </c>
       <c r="AO31">
-        <f>RANK(J31,J$4:J$33,0)</f>
+        <f>RANK(K31,K$4:K$33,0)</f>
         <v>3</v>
       </c>
       <c r="AP31">
-        <f>RANK(K31,K$4:K$33,0)</f>
+        <f>RANK(L31,L$4:L$33,0)</f>
         <v>9</v>
       </c>
       <c r="AQ31">
-        <f>RANK(N31,N$4:N$33,1)</f>
+        <f>RANK(O31,O$4:O$33,1)</f>
         <v>3</v>
       </c>
       <c r="AR31">
@@ -10720,11 +10728,11 @@
     <row r="32" spans="1:53">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -10732,7 +10740,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="5"/>
+      <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="13"/>
@@ -10745,11 +10753,11 @@
     <row r="33" spans="2:52">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -10757,7 +10765,7 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="5"/>
+      <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="13"/>
@@ -10823,7 +10831,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:BA3">
-    <sortState ref="A4:BA31">
+    <sortState ref="A4:BB31">
       <sortCondition ref="AL3:AL31"/>
     </sortState>
   </autoFilter>

--- a/Excel/Pitcher_Model.xlsx
+++ b/Excel/Pitcher_Model.xlsx
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="105">
   <si>
     <t>Player</t>
   </si>
@@ -292,12 +292,6 @@
     <t>RHP</t>
   </si>
   <si>
-    <t>Yankee Stadium</t>
-  </si>
-  <si>
-    <t>Fenway Park</t>
-  </si>
-  <si>
     <t>Player ID</t>
   </si>
   <si>
@@ -313,33 +307,18 @@
     <t>DET</t>
   </si>
   <si>
-    <t>Kauffman Stadium</t>
-  </si>
-  <si>
     <t>PIT</t>
   </si>
   <si>
     <t>SD</t>
   </si>
   <si>
-    <t>Petco Park</t>
-  </si>
-  <si>
-    <t>WSH</t>
-  </si>
-  <si>
     <t>MIA</t>
   </si>
   <si>
-    <t>Marlins Park</t>
-  </si>
-  <si>
     <t>BAL</t>
   </si>
   <si>
-    <t>Oriole Park at Camden Yards</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -358,45 +337,21 @@
     <t>Globe Life Park in Arlington</t>
   </si>
   <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>Citizens Bank Park</t>
-  </si>
-  <si>
-    <t>Bartolo Colon</t>
-  </si>
-  <si>
     <t>Nathan Eovaldi</t>
   </si>
   <si>
     <t>Madison Bumgarner</t>
   </si>
   <si>
-    <t>Jimmy Nelson</t>
-  </si>
-  <si>
-    <t>MIL</t>
-  </si>
-  <si>
     <t>MIN</t>
   </si>
   <si>
-    <t>Miller Park</t>
-  </si>
-  <si>
-    <t>Cole Hamels</t>
-  </si>
-  <si>
     <t>Ian Kennedy</t>
   </si>
   <si>
     <t>Wei-Yin Chen</t>
   </si>
   <si>
-    <t>Ubaldo Jimenez</t>
-  </si>
-  <si>
     <t>Drew Pomeranz</t>
   </si>
   <si>
@@ -409,12 +364,6 @@
     <t>Jeff Locke</t>
   </si>
   <si>
-    <t>R.A. Dickey</t>
-  </si>
-  <si>
-    <t>Joe Ross</t>
-  </si>
-  <si>
     <t>Jordan Zimmermann</t>
   </si>
   <si>
@@ -433,7 +382,79 @@
     <t>Kendall Graveman</t>
   </si>
   <si>
-    <t>Jeremy Hellickson</t>
+    <t>Noah Syndergaard</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>Citi Field</t>
+  </si>
+  <si>
+    <t>Marcus Stroman</t>
+  </si>
+  <si>
+    <t>CWS</t>
+  </si>
+  <si>
+    <t>Rogers Centre</t>
+  </si>
+  <si>
+    <t>Danny Salazar</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>Target Field</t>
+  </si>
+  <si>
+    <t>Taijuan Walker</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>Safeco Field</t>
+  </si>
+  <si>
+    <t>Chad Bettis</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>Coors Field</t>
+  </si>
+  <si>
+    <t>Comerica Park</t>
+  </si>
+  <si>
+    <t>Tropicana Field</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>Chase Field</t>
+  </si>
+  <si>
+    <t>Garrett Richards</t>
+  </si>
+  <si>
+    <t>LAA</t>
+  </si>
+  <si>
+    <t>Angel Stadium of Anaheim</t>
+  </si>
+  <si>
+    <t>Dodger Stadium</t>
+  </si>
+  <si>
+    <t>Jaime Garcia</t>
+  </si>
+  <si>
+    <t>Raisel Iglesias</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1079,7 @@
   <dimension ref="A1:BA43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1138,7 +1159,7 @@
     </row>
     <row r="3" spans="1:53" ht="42">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1284,109 +1305,109 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4">
-        <v>518516</v>
+        <v>592789</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="4">
         <v>11400</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H4" s="26">
-        <v>42480.427083333336</v>
+        <v>42485.298611111109</v>
       </c>
       <c r="I4" s="3">
-        <v>451.2</v>
+        <v>170</v>
       </c>
       <c r="J4" s="23">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K4" s="23">
-        <v>3.01</v>
+        <v>2.81</v>
       </c>
       <c r="L4" s="23">
-        <v>3.46</v>
+        <v>1.81</v>
       </c>
       <c r="M4" s="23">
-        <v>3.04</v>
+        <v>2.96</v>
       </c>
       <c r="N4" s="23">
-        <v>5.19</v>
+        <v>0.79</v>
       </c>
       <c r="O4" s="23">
-        <v>9.4499999999999993</v>
+        <v>10.32</v>
       </c>
       <c r="P4" s="23">
-        <v>11.81</v>
+        <v>13.05</v>
       </c>
       <c r="Q4" s="24">
-        <v>0.32600000000000001</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="R4" s="24">
-        <v>0.216</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="S4" s="21">
-        <v>27.6</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="T4" s="14">
-        <v>12.785294</v>
+        <v>10.32</v>
       </c>
       <c r="U4" s="14">
-        <v>15.978235</v>
+        <v>13.05</v>
       </c>
       <c r="V4" s="7">
-        <v>-132</v>
+        <v>-208</v>
       </c>
       <c r="W4">
         <v>6.5</v>
       </c>
       <c r="X4" s="14">
-        <v>2.58</v>
+        <v>2.1</v>
       </c>
       <c r="Y4" s="22">
-        <v>0.27</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="Z4">
-        <v>11600</v>
+        <v>12100</v>
       </c>
       <c r="AA4">
-        <v>9200</v>
+        <v>10400</v>
       </c>
       <c r="AB4">
-        <v>11800</v>
+        <v>9400</v>
       </c>
       <c r="AC4">
-        <v>13700</v>
+        <v>11100</v>
       </c>
       <c r="AD4">
-        <v>10500</v>
+        <v>7200</v>
       </c>
       <c r="AE4">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="AF4">
-        <v>-200</v>
+        <v>2700</v>
       </c>
       <c r="AG4">
-        <v>-800</v>
+        <v>-100</v>
       </c>
       <c r="AH4">
-        <v>-2100</v>
+        <v>1000</v>
       </c>
       <c r="AI4">
-        <v>1100</v>
+        <v>4900</v>
       </c>
       <c r="AL4">
         <f>RANK(AW4,$AW$4:$AW$33,0)</f>
@@ -1394,163 +1415,163 @@
       </c>
       <c r="AM4" s="15">
         <f>$AW4/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>75.802879291251386</v>
+        <v>88.847780126849898</v>
       </c>
       <c r="AN4">
         <f>RANK(F4,F$4:F$33,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO4">
         <f>RANK(K4,K$4:K$33,0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP4">
         <f>RANK(L4,L$4:L$33,0)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AQ4">
         <f>RANK(O4,O$4:O$33,1)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR4">
         <f>RANK(T4,T$4:T$33,1)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AS4">
         <f>RANK(Q4,Q$4:Q$33,0)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AT4">
         <f>RANK(V4,V$4:V$33,0)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AU4">
         <f>RANK(W4,W$4:W$33,0)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW4" s="14">
         <f>SUMPRODUCT(AN4:AU4,$AN$1:$AU$1)</f>
-        <v>136.9</v>
+        <v>168.1</v>
       </c>
       <c r="AX4" s="14"/>
       <c r="AY4" s="14">
         <f>IF(V4&lt;0,(-100+V4)/V4,V4/100+1)</f>
-        <v>1.7575757575757576</v>
+        <v>1.4807692307692308</v>
       </c>
       <c r="AZ4" s="25">
         <f>(1-((AY4-1)/2))</f>
-        <v>0.62121212121212122</v>
+        <v>0.75961538461538458</v>
       </c>
       <c r="BA4" s="14">
         <f>AZ4*4</f>
-        <v>2.4848484848484849</v>
+        <v>3.0384615384615383</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5">
-        <v>112526</v>
+        <v>517593</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="4">
-        <v>5500</v>
+        <v>10700</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H5" s="26">
-        <v>42480.295138888891</v>
+        <v>42485.340277777781</v>
       </c>
       <c r="I5" s="3">
-        <v>409.2</v>
+        <v>313.10000000000002</v>
       </c>
       <c r="J5" s="23">
-        <v>12.2</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K5" s="23">
-        <v>3.85</v>
+        <v>3.37</v>
       </c>
       <c r="L5" s="23">
-        <v>2.72</v>
+        <v>3.44</v>
       </c>
       <c r="M5" s="23">
-        <v>3.66</v>
+        <v>3.54</v>
       </c>
       <c r="N5" s="23">
-        <v>2.2799999999999998</v>
+        <v>2.93</v>
       </c>
       <c r="O5" s="23">
-        <v>6.59</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="P5" s="23">
-        <v>9.24</v>
+        <v>11.29</v>
       </c>
       <c r="Q5" s="24">
-        <v>0.28499999999999998</v>
+        <v>0.307</v>
       </c>
       <c r="R5" s="24">
-        <v>0.13300000000000001</v>
+        <v>0.151</v>
       </c>
       <c r="S5" s="21">
-        <v>22.3</v>
+        <v>24.7</v>
       </c>
       <c r="T5" s="14">
-        <v>7.2037750000000003</v>
+        <v>11.756716000000001</v>
       </c>
       <c r="U5" s="14">
-        <v>10.100588</v>
+        <v>13.669755</v>
       </c>
       <c r="V5" s="7">
-        <v>-159</v>
+        <v>-148</v>
       </c>
       <c r="W5">
         <v>8</v>
       </c>
       <c r="X5" s="14">
-        <v>3.1850000000000001</v>
+        <v>3.1150000000000002</v>
       </c>
       <c r="Y5" s="22">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>6100</v>
+        <v>9500</v>
       </c>
       <c r="AA5">
-        <v>5400</v>
+        <v>11000</v>
       </c>
       <c r="AB5">
-        <v>6800</v>
+        <v>10700</v>
       </c>
       <c r="AC5">
-        <v>7500</v>
+        <v>11400</v>
       </c>
       <c r="AD5">
-        <v>7200</v>
+        <v>8600</v>
       </c>
       <c r="AE5">
-        <v>700</v>
+        <v>-1500</v>
       </c>
       <c r="AF5">
-        <v>-700</v>
+        <v>-1200</v>
       </c>
       <c r="AG5">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>-1400</v>
+        <v>-1900</v>
       </c>
       <c r="AI5">
-        <v>-1100</v>
+        <v>900</v>
       </c>
       <c r="AL5">
         <f>RANK(AW5,$AW$4:$AW$33,0)</f>
@@ -1558,35 +1579,35 @@
       </c>
       <c r="AM5" s="15">
         <f>$AW5/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>68.881506090808415</v>
+        <v>72.357293868921801</v>
       </c>
       <c r="AN5">
         <f>RANK(F5,F$4:F$33,0)</f>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AO5">
         <f>RANK(K5,K$4:K$33,0)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AP5">
         <f>RANK(L5,L$4:L$33,0)</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AQ5">
         <f>RANK(O5,O$4:O$33,1)</f>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AR5">
         <f>RANK(T5,T$4:T$33,1)</f>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="AS5">
         <f>RANK(Q5,Q$4:Q$33,0)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AT5">
         <f>RANK(V5,V$4:V$33,0)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU5">
         <f>RANK(W5,W$4:W$33,0)</f>
@@ -1594,127 +1615,127 @@
       </c>
       <c r="AW5" s="14">
         <f>SUMPRODUCT(AN5:AU5,$AN$1:$AU$1)</f>
-        <v>124.4</v>
+        <v>136.90000000000003</v>
       </c>
       <c r="AX5" s="14"/>
       <c r="AY5" s="14">
         <f>IF(V5&lt;0,(-100+V5)/V5,V5/100+1)</f>
-        <v>1.628930817610063</v>
+        <v>1.6756756756756757</v>
       </c>
       <c r="AZ5" s="25">
         <f>(1-((AY5-1)/2))</f>
-        <v>0.68553459119496851</v>
+        <v>0.66216216216216217</v>
       </c>
       <c r="BA5" s="14">
         <f>AZ5*4</f>
-        <v>2.742138364779874</v>
+        <v>2.6486486486486487</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6">
-        <v>453178</v>
+        <v>518516</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4">
-        <v>8300</v>
+        <v>12000</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H6" s="26">
-        <v>42480.302083333336</v>
+        <v>42485.427083333336</v>
       </c>
       <c r="I6" s="3">
-        <v>383</v>
+        <v>458.2</v>
       </c>
       <c r="J6" s="23">
-        <v>13.2</v>
+        <v>23</v>
       </c>
       <c r="K6" s="23">
-        <v>3.52</v>
+        <v>3</v>
       </c>
       <c r="L6" s="23">
-        <v>3.16</v>
+        <v>3.23</v>
       </c>
       <c r="M6" s="23">
-        <v>3.76</v>
+        <v>3.04</v>
       </c>
       <c r="N6" s="23">
-        <v>2.63</v>
+        <v>4.57</v>
       </c>
       <c r="O6" s="23">
-        <v>9.2799999999999994</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="P6" s="23">
-        <v>9.2200000000000006</v>
+        <v>11.35</v>
       </c>
       <c r="Q6" s="24">
-        <v>0.34399999999999997</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="R6" s="24">
-        <v>0.17299999999999999</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="S6" s="21">
-        <v>26.4</v>
+        <v>20.5</v>
       </c>
       <c r="T6" s="14">
-        <v>12.009411999999999</v>
+        <v>9.506373</v>
       </c>
       <c r="U6" s="14">
-        <v>11.931765</v>
+        <v>11.405637</v>
       </c>
       <c r="V6" s="7">
-        <v>-123</v>
+        <v>-180</v>
       </c>
       <c r="W6">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X6" s="14">
-        <v>4.4640000000000004</v>
+        <v>2.9169999999999998</v>
       </c>
       <c r="Y6" s="22">
-        <v>-0.38100000000000001</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="Z6">
-        <v>8300</v>
+        <v>11400</v>
       </c>
       <c r="AA6">
-        <v>8700</v>
+        <v>11400</v>
       </c>
       <c r="AB6">
-        <v>7300</v>
+        <v>11600</v>
       </c>
       <c r="AC6">
-        <v>6900</v>
+        <v>12200</v>
       </c>
       <c r="AD6">
-        <v>8200</v>
+        <v>10300</v>
       </c>
       <c r="AE6">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1000</v>
+        <v>-200</v>
       </c>
       <c r="AG6">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="AH6">
-        <v>1400</v>
+        <v>-800</v>
       </c>
       <c r="AI6">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="AL6">
         <f>RANK(AW6,$AW$4:$AW$33,0)</f>
@@ -1722,15 +1743,15 @@
       </c>
       <c r="AM6" s="15">
         <f>$AW6/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>68.217054263565885</v>
+        <v>66.120507399577178</v>
       </c>
       <c r="AN6">
         <f>RANK(F6,F$4:F$33,0)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AO6">
         <f>RANK(K6,K$4:K$33,0)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP6">
         <f>RANK(L6,L$4:L$33,0)</f>
@@ -1738,147 +1759,147 @@
       </c>
       <c r="AQ6">
         <f>RANK(O6,O$4:O$33,1)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR6">
         <f>RANK(T6,T$4:T$33,1)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AS6">
         <f>RANK(Q6,Q$4:Q$33,0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT6">
         <f>RANK(V6,V$4:V$33,0)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AU6">
         <f>RANK(W6,W$4:W$33,0)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AW6" s="14">
         <f>SUMPRODUCT(AN6:AU6,$AN$1:$AU$1)</f>
-        <v>123.2</v>
+        <v>125.10000000000001</v>
       </c>
       <c r="AX6" s="14"/>
       <c r="AY6" s="14">
         <f>IF(V6&lt;0,(-100+V6)/V6,V6/100+1)</f>
-        <v>1.8130081300813008</v>
+        <v>1.5555555555555556</v>
       </c>
       <c r="AZ6" s="25">
         <f>(1-((AY6-1)/2))</f>
-        <v>0.5934959349593496</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="BA6" s="14">
         <f>AZ6*4</f>
-        <v>2.3739837398373984</v>
+        <v>2.8888888888888888</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7">
-        <v>543135</v>
+        <v>453178</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="4">
-        <v>7100</v>
+        <v>8800</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="H7" s="26">
-        <v>42480.295138888891</v>
+        <v>42485.420138888891</v>
       </c>
       <c r="I7" s="3">
-        <v>365.2</v>
+        <v>389.1</v>
       </c>
       <c r="J7" s="23">
-        <v>11.2</v>
+        <v>20</v>
       </c>
       <c r="K7" s="23">
-        <v>3.92</v>
+        <v>3.52</v>
       </c>
       <c r="L7" s="23">
-        <v>2.66</v>
+        <v>3.35</v>
       </c>
       <c r="M7" s="23">
-        <v>3.46</v>
+        <v>3.74</v>
       </c>
       <c r="N7" s="23">
-        <v>5.47</v>
+        <v>2.54</v>
       </c>
       <c r="O7" s="23">
-        <v>6.84</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="P7" s="23">
-        <v>11.57</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="Q7" s="24">
-        <v>0.27400000000000002</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="R7" s="24">
-        <v>0.129</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="S7" s="21">
-        <v>19.8</v>
+        <v>17</v>
       </c>
       <c r="T7" s="14">
-        <v>6.6388239999999996</v>
+        <v>7.7416669999999996</v>
       </c>
       <c r="U7" s="14">
-        <v>11.229706</v>
+        <v>7.875</v>
       </c>
       <c r="V7" s="7">
-        <v>-146</v>
+        <v>110</v>
       </c>
       <c r="W7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X7" s="14">
-        <v>3.8180000000000001</v>
+        <v>3.3250000000000002</v>
       </c>
       <c r="Y7" s="22">
-        <v>-0.183</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="Z7">
-        <v>7300</v>
+        <v>8300</v>
       </c>
       <c r="AA7">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="AB7">
-        <v>7300</v>
+        <v>8700</v>
       </c>
       <c r="AC7">
-        <v>6200</v>
+        <v>7500</v>
       </c>
       <c r="AD7">
-        <v>6100</v>
+        <v>8500</v>
       </c>
       <c r="AE7">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="AG7">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="AH7">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="AI7">
-        <v>1200</v>
+        <v>-200</v>
       </c>
       <c r="AL7">
         <f>RANK(AW7,$AW$4:$AW$33,0)</f>
@@ -1886,163 +1907,163 @@
       </c>
       <c r="AM7" s="15">
         <f>$AW7/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>67.386489479512733</v>
+        <v>65.697674418604663</v>
       </c>
       <c r="AN7">
         <f>RANK(F7,F$4:F$33,0)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AO7">
         <f>RANK(K7,K$4:K$33,0)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP7">
         <f>RANK(L7,L$4:L$33,0)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AQ7">
         <f>RANK(O7,O$4:O$33,1)</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AR7">
         <f>RANK(T7,T$4:T$33,1)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AS7">
         <f>RANK(Q7,Q$4:Q$33,0)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT7">
         <f>RANK(V7,V$4:V$33,0)</f>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AU7">
         <f>RANK(W7,W$4:W$33,0)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AW7" s="14">
         <f>SUMPRODUCT(AN7:AU7,$AN$1:$AU$1)</f>
-        <v>121.7</v>
+        <v>124.30000000000001</v>
       </c>
       <c r="AX7" s="14"/>
       <c r="AY7" s="14">
         <f>IF(V7&lt;0,(-100+V7)/V7,V7/100+1)</f>
-        <v>1.6849315068493151</v>
+        <v>2.1</v>
       </c>
       <c r="AZ7" s="25">
         <f>(1-((AY7-1)/2))</f>
-        <v>0.65753424657534243</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="BA7" s="14">
         <f>AZ7*4</f>
-        <v>2.6301369863013697</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8">
-        <v>519144</v>
+        <v>592836</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="4">
-        <v>8200</v>
+        <v>9000</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H8" s="26">
-        <v>42480.298611111109</v>
+        <v>42485.423611111109</v>
       </c>
       <c r="I8" s="3">
-        <v>389</v>
+        <v>225.2</v>
       </c>
       <c r="J8" s="23">
-        <v>12.1</v>
+        <v>18</v>
       </c>
       <c r="K8" s="23">
-        <v>3.77</v>
+        <v>3.71</v>
       </c>
       <c r="L8" s="23">
-        <v>2.5099999999999998</v>
+        <v>3.17</v>
       </c>
       <c r="M8" s="23">
-        <v>3.94</v>
+        <v>3.9</v>
       </c>
       <c r="N8" s="23">
-        <v>5.82</v>
+        <v>2.76</v>
       </c>
       <c r="O8" s="23">
-        <v>6.78</v>
+        <v>8.18</v>
       </c>
       <c r="P8" s="23">
-        <v>10.95</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="24">
-        <v>0.28499999999999998</v>
+        <v>0.317</v>
       </c>
       <c r="R8" s="24">
-        <v>0.14199999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="S8" s="21">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="T8" s="14">
-        <v>9.0399999999999991</v>
+        <v>10.866569</v>
       </c>
       <c r="U8" s="14">
-        <v>14.6</v>
+        <v>9.2990200000000005</v>
       </c>
       <c r="V8" s="7">
-        <v>-106</v>
+        <v>-138</v>
       </c>
       <c r="W8">
         <v>8</v>
       </c>
       <c r="X8" s="14">
-        <v>3.44</v>
+        <v>3.22</v>
       </c>
       <c r="Y8" s="22">
+        <v>0.245</v>
+      </c>
+      <c r="Z8">
+        <v>7200</v>
+      </c>
+      <c r="AA8">
+        <v>10000</v>
+      </c>
+      <c r="AB8">
+        <v>9300</v>
+      </c>
+      <c r="AC8">
+        <v>7200</v>
+      </c>
+      <c r="AD8">
+        <v>6700</v>
+      </c>
+      <c r="AE8">
+        <v>-2800</v>
+      </c>
+      <c r="AF8">
+        <v>-2100</v>
+      </c>
+      <c r="AG8">
+        <v>-1000</v>
+      </c>
+      <c r="AH8">
         <v>0</v>
       </c>
-      <c r="Z8">
-        <v>7800</v>
-      </c>
-      <c r="AA8">
-        <v>7300</v>
-      </c>
-      <c r="AB8">
-        <v>6600</v>
-      </c>
-      <c r="AC8">
-        <v>5900</v>
-      </c>
-      <c r="AD8">
-        <v>7000</v>
-      </c>
-      <c r="AE8">
+      <c r="AI8">
         <v>500</v>
-      </c>
-      <c r="AF8">
-        <v>1200</v>
-      </c>
-      <c r="AG8">
-        <v>1500</v>
-      </c>
-      <c r="AH8">
-        <v>1900</v>
-      </c>
-      <c r="AI8">
-        <v>800</v>
       </c>
       <c r="AL8">
         <f>RANK(AW8,$AW$4:$AW$33,0)</f>
@@ -2050,7 +2071,7 @@
       </c>
       <c r="AM8" s="15">
         <f>$AW8/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>66.44518272425249</v>
+        <v>64.323467230443981</v>
       </c>
       <c r="AN8">
         <f>RANK(F8,F$4:F$33,0)</f>
@@ -2058,27 +2079,27 @@
       </c>
       <c r="AO8">
         <f>RANK(K8,K$4:K$33,0)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP8">
         <f>RANK(L8,L$4:L$33,0)</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ8">
         <f>RANK(O8,O$4:O$33,1)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AR8">
         <f>RANK(T8,T$4:T$33,1)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AS8">
         <f>RANK(Q8,Q$4:Q$33,0)</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AT8">
         <f>RANK(V8,V$4:V$33,0)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AU8">
         <f>RANK(W8,W$4:W$33,0)</f>
@@ -2086,127 +2107,127 @@
       </c>
       <c r="AW8" s="14">
         <f>SUMPRODUCT(AN8:AU8,$AN$1:$AU$1)</f>
-        <v>120</v>
+        <v>121.7</v>
       </c>
       <c r="AX8" s="14"/>
       <c r="AY8" s="14">
         <f>IF(V8&lt;0,(-100+V8)/V8,V8/100+1)</f>
-        <v>1.9433962264150944</v>
+        <v>1.7246376811594204</v>
       </c>
       <c r="AZ8" s="25">
         <f>(1-((AY8-1)/2))</f>
-        <v>0.52830188679245282</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="BA8" s="14">
         <f>AZ8*4</f>
-        <v>2.1132075471698113</v>
+        <v>2.5507246376811592</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9">
-        <v>502042</v>
+        <v>519144</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="4">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H9" s="26">
-        <v>42480.298611111109</v>
+        <v>42485.298611111109</v>
       </c>
       <c r="I9" s="3">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="J9" s="23">
-        <v>15.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K9" s="23">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L9" s="23">
-        <v>3.16</v>
+        <v>2.54</v>
       </c>
       <c r="M9" s="23">
-        <v>3.23</v>
+        <v>3.92</v>
       </c>
       <c r="N9" s="23">
-        <v>5.87</v>
+        <v>4.75</v>
       </c>
       <c r="O9" s="23">
-        <v>9.5500000000000007</v>
+        <v>6.86</v>
       </c>
       <c r="P9" s="23">
-        <v>13.5</v>
+        <v>11.17</v>
       </c>
       <c r="Q9" s="24">
-        <v>0.32400000000000001</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="R9" s="24">
-        <v>0.154</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="S9" s="21">
-        <v>21.6</v>
+        <v>21.1</v>
       </c>
       <c r="T9" s="14">
-        <v>10.111765</v>
+        <v>7.0953920000000004</v>
       </c>
       <c r="U9" s="14">
-        <v>14.294117999999999</v>
+        <v>11.553284</v>
       </c>
       <c r="V9" s="7">
-        <v>-102</v>
+        <v>-128</v>
       </c>
       <c r="W9">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X9" s="14">
-        <v>3.7589999999999999</v>
+        <v>2.9750000000000001</v>
       </c>
       <c r="Y9" s="22">
-        <v>-0.39900000000000002</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Z9">
-        <v>11400</v>
+        <v>8200</v>
       </c>
       <c r="AA9">
-        <v>10700</v>
+        <v>7200</v>
       </c>
       <c r="AB9">
-        <v>9400</v>
+        <v>7800</v>
       </c>
       <c r="AC9">
-        <v>12300</v>
+        <v>5600</v>
       </c>
       <c r="AD9">
-        <v>8300</v>
+        <v>6600</v>
       </c>
       <c r="AE9">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AF9">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="AG9">
-        <v>-500</v>
+        <v>1300</v>
       </c>
       <c r="AH9">
-        <v>-900</v>
+        <v>2600</v>
       </c>
       <c r="AI9">
-        <v>3100</v>
+        <v>1600</v>
       </c>
       <c r="AL9">
         <f>RANK(AW9,$AW$4:$AW$33,0)</f>
@@ -2214,163 +2235,163 @@
       </c>
       <c r="AM9" s="15">
         <f>$AW9/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>65.227021040974535</v>
+        <v>59.725158562367866</v>
       </c>
       <c r="AN9">
         <f>RANK(F9,F$4:F$33,0)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AO9">
         <f>RANK(K9,K$4:K$33,0)</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AP9">
         <f>RANK(L9,L$4:L$33,0)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AQ9">
         <f>RANK(O9,O$4:O$33,1)</f>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AR9">
         <f>RANK(T9,T$4:T$33,1)</f>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AS9">
         <f>RANK(Q9,Q$4:Q$33,0)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AT9">
         <f>RANK(V9,V$4:V$33,0)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AU9">
         <f>RANK(W9,W$4:W$33,0)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AW9" s="14">
         <f>SUMPRODUCT(AN9:AU9,$AN$1:$AU$1)</f>
-        <v>117.8</v>
+        <v>113</v>
       </c>
       <c r="AX9" s="14"/>
       <c r="AY9" s="14">
         <f>IF(V9&lt;0,(-100+V9)/V9,V9/100+1)</f>
-        <v>1.9803921568627452</v>
+        <v>1.78125</v>
       </c>
       <c r="AZ9" s="25">
         <f>(1-((AY9-1)/2))</f>
-        <v>0.50980392156862742</v>
+        <v>0.609375</v>
       </c>
       <c r="BA9" s="14">
         <f>AZ9*4</f>
-        <v>2.0392156862745097</v>
+        <v>2.4375</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10">
-        <v>434622</v>
+        <v>502042</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="4">
-        <v>7000</v>
+        <v>10300</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="H10" s="26">
-        <v>42480.295138888891</v>
+        <v>42485.298611111109</v>
       </c>
       <c r="I10" s="3">
-        <v>321.10000000000002</v>
+        <v>426.1</v>
       </c>
       <c r="J10" s="23">
-        <v>12</v>
+        <v>19.2</v>
       </c>
       <c r="K10" s="23">
-        <v>4.17</v>
+        <v>3.41</v>
       </c>
       <c r="L10" s="23">
-        <v>2.87</v>
+        <v>3.4</v>
       </c>
       <c r="M10" s="23">
-        <v>4.22</v>
+        <v>3.26</v>
       </c>
       <c r="N10" s="23">
-        <v>2.82</v>
+        <v>5.79</v>
       </c>
       <c r="O10" s="23">
-        <v>8.35</v>
+        <v>9.58</v>
       </c>
       <c r="P10" s="23">
-        <v>10.5</v>
+        <v>13.27</v>
       </c>
       <c r="Q10" s="24">
-        <v>0.311</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="R10" s="24">
-        <v>0.13600000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="S10" s="21">
-        <v>26.3</v>
+        <v>22.6</v>
       </c>
       <c r="T10" s="14">
-        <v>10.764951</v>
+        <v>10.613137</v>
       </c>
       <c r="U10" s="14">
-        <v>13.536765000000001</v>
+        <v>14.701078000000001</v>
       </c>
       <c r="V10" s="7">
-        <v>-110</v>
+        <v>-128</v>
       </c>
       <c r="W10">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X10" s="14">
-        <v>4.4909999999999997</v>
+        <v>3.0449999999999999</v>
       </c>
       <c r="Y10" s="22">
-        <v>-9.5000000000000001E-2</v>
+        <v>0.105</v>
       </c>
       <c r="Z10">
-        <v>7600</v>
+        <v>8500</v>
       </c>
       <c r="AA10">
-        <v>7500</v>
+        <v>11400</v>
       </c>
       <c r="AB10">
-        <v>8400</v>
+        <v>10700</v>
       </c>
       <c r="AC10">
-        <v>7100</v>
+        <v>11200</v>
       </c>
       <c r="AD10">
-        <v>7300</v>
+        <v>8000</v>
       </c>
       <c r="AE10">
-        <v>100</v>
+        <v>-2900</v>
       </c>
       <c r="AF10">
-        <v>-800</v>
+        <v>-2200</v>
       </c>
       <c r="AG10">
-        <v>100</v>
+        <v>-3200</v>
       </c>
       <c r="AH10">
+        <v>-2700</v>
+      </c>
+      <c r="AI10">
         <v>500</v>
-      </c>
-      <c r="AI10">
-        <v>300</v>
       </c>
       <c r="AL10">
         <f>RANK(AW10,$AW$4:$AW$33,0)</f>
@@ -2378,23 +2399,23 @@
       </c>
       <c r="AM10" s="15">
         <f>$AW10/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>63.565891472868216</v>
+        <v>59.038054968287533</v>
       </c>
       <c r="AN10">
         <f>RANK(F10,F$4:F$33,0)</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AO10">
         <f>RANK(K10,K$4:K$33,0)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AP10">
         <f>RANK(L10,L$4:L$33,0)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AQ10">
         <f>RANK(O10,O$4:O$33,1)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AR10">
         <f>RANK(T10,T$4:T$33,1)</f>
@@ -2402,7 +2423,7 @@
       </c>
       <c r="AS10">
         <f>RANK(Q10,Q$4:Q$33,0)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AT10">
         <f>RANK(V10,V$4:V$33,0)</f>
@@ -2410,128 +2431,128 @@
       </c>
       <c r="AU10">
         <f>RANK(W10,W$4:W$33,0)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AW10" s="14">
         <f>SUMPRODUCT(AN10:AU10,$AN$1:$AU$1)</f>
-        <v>114.8</v>
+        <v>111.7</v>
       </c>
       <c r="AX10" s="14"/>
       <c r="AY10" s="14">
         <f>IF(V10&lt;0,(-100+V10)/V10,V10/100+1)</f>
-        <v>1.9090909090909092</v>
+        <v>1.78125</v>
       </c>
       <c r="AZ10" s="25">
         <f>(1-((AY10-1)/2))</f>
-        <v>0.54545454545454541</v>
+        <v>0.609375</v>
       </c>
       <c r="BA10" s="14">
         <f>AZ10*4</f>
-        <v>2.1818181818181817</v>
+        <v>2.4375</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11">
-        <v>519141</v>
+        <v>573186</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8700</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="4">
-        <v>6300</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="H11" s="26">
-        <v>42480.423611111109</v>
+        <v>42485.296527777777</v>
       </c>
       <c r="I11" s="3">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="J11" s="23">
-        <v>11</v>
+        <v>28.1</v>
       </c>
       <c r="K11" s="23">
-        <v>3.66</v>
+        <v>3.34</v>
       </c>
       <c r="L11" s="23">
-        <v>3.36</v>
+        <v>4.04</v>
       </c>
       <c r="M11" s="23">
-        <v>3.65</v>
+        <v>3.16</v>
       </c>
       <c r="N11" s="23">
-        <v>3.16</v>
+        <v>4.26</v>
       </c>
       <c r="O11" s="23">
-        <v>8.73</v>
+        <v>6.97</v>
       </c>
       <c r="P11" s="23">
-        <v>12.27</v>
+        <v>4.76</v>
       </c>
       <c r="Q11" s="24">
-        <v>0.33700000000000002</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="R11" s="24">
-        <v>0.11799999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="S11" s="21">
-        <v>17.8</v>
+        <v>18.8</v>
       </c>
       <c r="T11" s="14">
-        <v>7.6173529999999996</v>
+        <v>6.4233330000000004</v>
       </c>
       <c r="U11" s="14">
-        <v>10.706175999999999</v>
+        <v>4.3866670000000001</v>
       </c>
       <c r="V11" s="7">
-        <v>-107</v>
+        <v>-185</v>
       </c>
       <c r="W11">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X11" s="14">
-        <v>3.7890000000000001</v>
+        <v>3.43</v>
       </c>
       <c r="Y11" s="22">
-        <v>-0.187</v>
+        <v>-0.105</v>
       </c>
       <c r="Z11">
-        <v>6700</v>
+        <v>7700</v>
       </c>
       <c r="AA11">
-        <v>4900</v>
+        <v>9000</v>
       </c>
       <c r="AB11">
-        <v>6000</v>
+        <v>9100</v>
       </c>
       <c r="AC11">
-        <v>6000</v>
+        <v>7400</v>
       </c>
       <c r="AD11">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="AE11">
-        <v>1800</v>
+        <v>-1300</v>
       </c>
       <c r="AF11">
-        <v>700</v>
+        <v>-1400</v>
       </c>
       <c r="AG11">
-        <v>700</v>
+        <v>-900</v>
       </c>
       <c r="AH11">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="AI11">
         <v>700</v>
@@ -2542,163 +2563,163 @@
       </c>
       <c r="AM11" s="15">
         <f>$AW11/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>59.136212624584715</v>
+        <v>56.131078224101486</v>
       </c>
       <c r="AN11">
         <f>RANK(F11,F$4:F$33,0)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AO11">
         <f>RANK(K11,K$4:K$33,0)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP11">
         <f>RANK(L11,L$4:L$33,0)</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AQ11">
         <f>RANK(O11,O$4:O$33,1)</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AR11">
         <f>RANK(T11,T$4:T$33,1)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AS11">
         <f>RANK(Q11,Q$4:Q$33,0)</f>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AT11">
         <f>RANK(V11,V$4:V$33,0)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AU11">
         <f>RANK(W11,W$4:W$33,0)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AW11" s="14">
         <f>SUMPRODUCT(AN11:AU11,$AN$1:$AU$1)</f>
-        <v>106.8</v>
+        <v>106.19999999999999</v>
       </c>
       <c r="AX11" s="14"/>
       <c r="AY11" s="14">
         <f>IF(V11&lt;0,(-100+V11)/V11,V11/100+1)</f>
-        <v>1.9345794392523366</v>
+        <v>1.5405405405405406</v>
       </c>
       <c r="AZ11" s="25">
         <f>(1-((AY11-1)/2))</f>
-        <v>0.53271028037383172</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="BA11" s="14">
         <f>AZ11*4</f>
-        <v>2.1308411214953269</v>
+        <v>2.9189189189189189</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12">
-        <v>430935</v>
+        <v>448802</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="4">
-        <v>9900</v>
+        <v>8300</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="H12" s="26">
-        <v>42480.336805555555</v>
+        <v>42485.402777777781</v>
       </c>
       <c r="I12" s="3">
-        <v>435.1</v>
+        <v>193.1</v>
       </c>
       <c r="J12" s="23">
-        <v>18.100000000000001</v>
+        <v>20</v>
       </c>
       <c r="K12" s="23">
-        <v>3.39</v>
+        <v>3.21</v>
       </c>
       <c r="L12" s="23">
-        <v>3.97</v>
+        <v>2.86</v>
       </c>
       <c r="M12" s="23">
-        <v>3.34</v>
+        <v>3.05</v>
       </c>
       <c r="N12" s="23">
-        <v>4.92</v>
+        <v>1.69</v>
       </c>
       <c r="O12" s="23">
-        <v>8.8699999999999992</v>
+        <v>7.54</v>
       </c>
       <c r="P12" s="23">
-        <v>7.85</v>
+        <v>11.7</v>
       </c>
       <c r="Q12" s="24">
-        <v>0.35199999999999998</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="R12" s="24">
-        <v>0.16900000000000001</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="S12" s="21">
-        <v>24.2</v>
+        <v>23.8</v>
       </c>
       <c r="T12" s="14">
-        <v>10.522254999999999</v>
+        <v>8.7966669999999993</v>
       </c>
       <c r="U12" s="14">
-        <v>9.3122550000000004</v>
+        <v>13.65</v>
       </c>
       <c r="V12" s="7">
-        <v>-123</v>
+        <v>111</v>
       </c>
       <c r="W12">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X12" s="14">
-        <v>3.76</v>
+        <v>4.0590000000000002</v>
       </c>
       <c r="Y12" s="22">
-        <v>0.08</v>
+        <v>-0.156</v>
       </c>
       <c r="Z12">
-        <v>10600</v>
+        <v>9200</v>
       </c>
       <c r="AA12">
-        <v>11200</v>
+        <v>9700</v>
       </c>
       <c r="AB12">
-        <v>8400</v>
+        <v>9400</v>
       </c>
       <c r="AC12">
-        <v>10600</v>
+        <v>9800</v>
       </c>
       <c r="AD12">
-        <v>10100</v>
+        <v>9200</v>
       </c>
       <c r="AE12">
+        <v>-500</v>
+      </c>
+      <c r="AF12">
+        <v>-200</v>
+      </c>
+      <c r="AG12">
+        <v>-1100</v>
+      </c>
+      <c r="AH12">
         <v>-600</v>
       </c>
-      <c r="AF12">
-        <v>2200</v>
-      </c>
-      <c r="AG12">
-        <v>600</v>
-      </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>500</v>
       </c>
       <c r="AL12">
         <f>RANK(AW12,$AW$4:$AW$33,0)</f>
@@ -2706,11 +2727,11 @@
       </c>
       <c r="AM12" s="15">
         <f>$AW12/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>55.813953488372107</v>
+        <v>55.549682875264274</v>
       </c>
       <c r="AN12">
         <f>RANK(F12,F$4:F$33,0)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AO12">
         <f>RANK(K12,K$4:K$33,0)</f>
@@ -2718,145 +2739,151 @@
       </c>
       <c r="AP12">
         <f>RANK(L12,L$4:L$33,0)</f>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AQ12">
         <f>RANK(O12,O$4:O$33,1)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AR12">
         <f>RANK(T12,T$4:T$33,1)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS12">
         <f>RANK(Q12,Q$4:Q$33,0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT12">
         <f>RANK(V12,V$4:V$33,0)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AU12">
         <f>RANK(W12,W$4:W$33,0)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AW12" s="14">
         <f>SUMPRODUCT(AN12:AU12,$AN$1:$AU$1)</f>
-        <v>100.80000000000001</v>
+        <v>105.1</v>
       </c>
       <c r="AX12" s="14"/>
       <c r="AY12" s="14">
         <f>IF(V12&lt;0,(-100+V12)/V12,V12/100+1)</f>
-        <v>1.8130081300813008</v>
+        <v>2.1100000000000003</v>
       </c>
       <c r="AZ12" s="25">
         <f>(1-((AY12-1)/2))</f>
-        <v>0.5934959349593496</v>
+        <v>0.44499999999999984</v>
       </c>
       <c r="BA12" s="14">
         <f>AZ12*4</f>
-        <v>2.3739837398373984</v>
+        <v>1.7799999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13">
-        <v>605452</v>
+        <v>519141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6600</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="4">
-        <v>8100</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="H13" s="26">
-        <v>42480.298611111109</v>
+        <v>42485.427083333336</v>
       </c>
       <c r="I13" s="3">
-        <v>91.1</v>
+        <v>172.2</v>
       </c>
       <c r="J13" s="23">
-        <v>14.2</v>
+        <v>17.2</v>
       </c>
       <c r="K13" s="23">
-        <v>3.7</v>
+        <v>3.62</v>
       </c>
       <c r="L13" s="23">
-        <v>3.94</v>
+        <v>3.16</v>
       </c>
       <c r="M13" s="23">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="N13" s="23">
-        <v>2.52</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="O13" s="23">
-        <v>7.78</v>
+        <v>8.91</v>
       </c>
       <c r="P13" s="23">
-        <v>6.14</v>
+        <v>12.74</v>
       </c>
       <c r="Q13" s="24">
-        <v>0.30299999999999999</v>
+        <v>0.313</v>
       </c>
       <c r="R13" s="24">
-        <v>0.115</v>
+        <v>0.154</v>
       </c>
       <c r="S13" s="21">
-        <v>21.4</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="T13" s="14">
-        <v>8.1613729999999993</v>
+        <v>8.3422059999999991</v>
       </c>
       <c r="U13" s="14">
-        <v>6.4409799999999997</v>
+        <v>11.928137</v>
       </c>
       <c r="V13" s="7">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="W13">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X13" s="14">
-        <v>3.8180000000000001</v>
+        <v>3.847</v>
       </c>
       <c r="Y13" s="22">
-        <v>-5.8999999999999997E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="Z13">
-        <v>7800</v>
+        <v>6300</v>
       </c>
       <c r="AA13">
-        <v>5000</v>
+        <v>6700</v>
       </c>
       <c r="AB13">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="AC13">
-        <v>5000</v>
+        <v>6000</v>
+      </c>
+      <c r="AD13">
+        <v>6000</v>
       </c>
       <c r="AE13">
-        <v>2800</v>
+        <v>-400</v>
       </c>
       <c r="AF13">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="AG13">
-        <v>-2300</v>
+        <v>300</v>
       </c>
       <c r="AH13">
-        <v>2800</v>
+        <v>300</v>
+      </c>
+      <c r="AI13">
+        <v>300</v>
       </c>
       <c r="AL13">
         <f>RANK(AW13,$AW$4:$AW$33,0)</f>
@@ -2864,163 +2891,163 @@
       </c>
       <c r="AM13" s="15">
         <f>$AW13/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>54.31893687707641</v>
+        <v>55.021141649048623</v>
       </c>
       <c r="AN13">
         <f>RANK(F13,F$4:F$33,0)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AO13">
         <f>RANK(K13,K$4:K$33,0)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP13">
         <f>RANK(L13,L$4:L$33,0)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AQ13">
         <f>RANK(O13,O$4:O$33,1)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR13">
         <f>RANK(T13,T$4:T$33,1)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AS13">
         <f>RANK(Q13,Q$4:Q$33,0)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AT13">
         <f>RANK(V13,V$4:V$33,0)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <f>RANK(W13,W$4:W$33,0)</f>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AW13" s="14">
         <f>SUMPRODUCT(AN13:AU13,$AN$1:$AU$1)</f>
-        <v>98.1</v>
+        <v>104.1</v>
       </c>
       <c r="AX13" s="14"/>
       <c r="AY13" s="14">
         <f>IF(V13&lt;0,(-100+V13)/V13,V13/100+1)</f>
-        <v>2.0300000000000002</v>
+        <v>2.65</v>
       </c>
       <c r="AZ13" s="25">
         <f>(1-((AY13-1)/2))</f>
-        <v>0.48499999999999988</v>
+        <v>0.17500000000000004</v>
       </c>
       <c r="BA13" s="14">
         <f>AZ13*4</f>
-        <v>1.9399999999999995</v>
+        <v>0.70000000000000018</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14">
-        <v>519076</v>
+        <v>572070</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="4">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="H14" s="26">
-        <v>42480.340277777781</v>
+        <v>42485.420138888891</v>
       </c>
       <c r="I14" s="3">
-        <v>266</v>
+        <v>400</v>
       </c>
       <c r="J14" s="23">
-        <v>19.100000000000001</v>
+        <v>24</v>
       </c>
       <c r="K14" s="23">
-        <v>4.04</v>
+        <v>3.61</v>
       </c>
       <c r="L14" s="23">
-        <v>4.71</v>
+        <v>3.59</v>
       </c>
       <c r="M14" s="23">
-        <v>4.1399999999999997</v>
+        <v>3.3</v>
       </c>
       <c r="N14" s="23">
-        <v>5.81</v>
+        <v>3.34</v>
       </c>
       <c r="O14" s="23">
-        <v>7.38</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="P14" s="23">
-        <v>6.05</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="Q14" s="24">
-        <v>0.311</v>
+        <v>0.31</v>
       </c>
       <c r="R14" s="24">
-        <v>0.156</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="S14" s="21">
-        <v>23.2</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="T14" s="14">
-        <v>8.3929410000000004</v>
+        <v>7.4855879999999999</v>
       </c>
       <c r="U14" s="14">
-        <v>6.8803919999999996</v>
+        <v>8.5523530000000001</v>
       </c>
       <c r="V14" s="7">
-        <v>-129</v>
+        <v>-119</v>
       </c>
       <c r="W14">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X14" s="14">
-        <v>4.1310000000000002</v>
+        <v>3.1150000000000002</v>
       </c>
       <c r="Y14" s="22">
-        <v>0.13500000000000001</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="Z14">
-        <v>7900</v>
+        <v>9100</v>
       </c>
       <c r="AA14">
-        <v>7000</v>
+        <v>9300</v>
       </c>
       <c r="AB14">
-        <v>8500</v>
+        <v>10200</v>
       </c>
       <c r="AC14">
-        <v>7000</v>
+        <v>9400</v>
       </c>
       <c r="AD14">
-        <v>7000</v>
+        <v>9700</v>
       </c>
       <c r="AE14">
-        <v>900</v>
+        <v>-200</v>
       </c>
       <c r="AF14">
+        <v>-1100</v>
+      </c>
+      <c r="AG14">
+        <v>-400</v>
+      </c>
+      <c r="AH14">
+        <v>-300</v>
+      </c>
+      <c r="AI14">
         <v>-600</v>
-      </c>
-      <c r="AG14">
-        <v>-500</v>
-      </c>
-      <c r="AH14">
-        <v>900</v>
-      </c>
-      <c r="AI14">
-        <v>900</v>
       </c>
       <c r="AL14">
         <f>RANK(AW14,$AW$4:$AW$33,0)</f>
@@ -3028,27 +3055,27 @@
       </c>
       <c r="AM14" s="15">
         <f>$AW14/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>51.052048726467333</v>
+        <v>54.334038054968289</v>
       </c>
       <c r="AN14">
         <f>RANK(F14,F$4:F$33,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO14">
         <f>RANK(K14,K$4:K$33,0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AP14">
         <f>RANK(L14,L$4:L$33,0)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AQ14">
         <f>RANK(O14,O$4:O$33,1)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AR14">
         <f>RANK(T14,T$4:T$33,1)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AS14">
         <f>RANK(Q14,Q$4:Q$33,0)</f>
@@ -3056,135 +3083,135 @@
       </c>
       <c r="AT14">
         <f>RANK(V14,V$4:V$33,0)</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AU14">
         <f>RANK(W14,W$4:W$33,0)</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AW14" s="14">
         <f>SUMPRODUCT(AN14:AU14,$AN$1:$AU$1)</f>
-        <v>92.2</v>
+        <v>102.80000000000001</v>
       </c>
       <c r="AX14" s="14"/>
       <c r="AY14" s="14">
         <f>IF(V14&lt;0,(-100+V14)/V14,V14/100+1)</f>
-        <v>1.7751937984496124</v>
+        <v>1.8403361344537814</v>
       </c>
       <c r="AZ14" s="25">
         <f>(1-((AY14-1)/2))</f>
-        <v>0.61240310077519378</v>
+        <v>0.57983193277310929</v>
       </c>
       <c r="BA14" s="14">
         <f>AZ14*4</f>
-        <v>2.4496124031007751</v>
+        <v>2.3193277310924372</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15">
-        <v>476451</v>
+        <v>519455</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="4">
-        <v>6500</v>
+        <v>8200</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H15" s="26">
-        <v>42480.295138888891</v>
+        <v>42485.298611111109</v>
       </c>
       <c r="I15" s="3">
-        <v>224.1</v>
+        <v>420.2</v>
       </c>
       <c r="J15" s="23">
-        <v>14.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K15" s="23">
-        <v>4.0599999999999996</v>
+        <v>3.52</v>
       </c>
       <c r="L15" s="23">
-        <v>3.28</v>
+        <v>4.13</v>
       </c>
       <c r="M15" s="23">
-        <v>4.29</v>
+        <v>3.19</v>
       </c>
       <c r="N15" s="23">
-        <v>3.34</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="O15" s="23">
-        <v>7.58</v>
+        <v>7.72</v>
       </c>
       <c r="P15" s="23">
-        <v>8.59</v>
+        <v>6.98</v>
       </c>
       <c r="Q15" s="24">
-        <v>0.30299999999999999</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="R15" s="24">
-        <v>0.17399999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="S15" s="21">
-        <v>24.3</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="T15" s="14">
-        <v>9.0291180000000004</v>
+        <v>7.4172549999999999</v>
       </c>
       <c r="U15" s="14">
-        <v>10.232206</v>
+        <v>6.7062749999999998</v>
       </c>
       <c r="V15" s="7">
-        <v>146</v>
+        <v>-134</v>
       </c>
       <c r="W15">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X15" s="14">
-        <v>4.5</v>
+        <v>4.2220000000000004</v>
       </c>
       <c r="Y15" s="22">
-        <v>0.255</v>
+        <v>-0.433</v>
       </c>
       <c r="Z15">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="AA15">
-        <v>7300</v>
+        <v>8300</v>
       </c>
       <c r="AB15">
-        <v>5500</v>
+        <v>9100</v>
       </c>
       <c r="AC15">
-        <v>5900</v>
+        <v>7500</v>
       </c>
       <c r="AD15">
-        <v>6300</v>
+        <v>8800</v>
       </c>
       <c r="AE15">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="AF15">
-        <v>1600</v>
+        <v>-1700</v>
       </c>
       <c r="AG15">
-        <v>1200</v>
+        <v>-1700</v>
       </c>
       <c r="AH15">
-        <v>1200</v>
+        <v>-100</v>
       </c>
       <c r="AI15">
-        <v>800</v>
+        <v>-1400</v>
       </c>
       <c r="AL15">
         <f>RANK(AW15,$AW$4:$AW$33,0)</f>
@@ -3192,163 +3219,157 @@
       </c>
       <c r="AM15" s="15">
         <f>$AW15/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>49.557032115171651</v>
+        <v>53.382663847780144</v>
       </c>
       <c r="AN15">
         <f>RANK(F15,F$4:F$33,0)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AO15">
         <f>RANK(K15,K$4:K$33,0)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AP15">
         <f>RANK(L15,L$4:L$33,0)</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AQ15">
         <f>RANK(O15,O$4:O$33,1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR15">
         <f>RANK(T15,T$4:T$33,1)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AS15">
         <f>RANK(Q15,Q$4:Q$33,0)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT15">
         <f>RANK(V15,V$4:V$33,0)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AU15">
         <f>RANK(W15,W$4:W$33,0)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW15" s="14">
         <f>SUMPRODUCT(AN15:AU15,$AN$1:$AU$1)</f>
-        <v>89.5</v>
+        <v>101.00000000000001</v>
       </c>
       <c r="AX15" s="14"/>
       <c r="AY15" s="14">
         <f>IF(V15&lt;0,(-100+V15)/V15,V15/100+1)</f>
-        <v>2.46</v>
+        <v>1.7462686567164178</v>
       </c>
       <c r="AZ15" s="25">
         <f>(1-((AY15-1)/2))</f>
-        <v>0.27</v>
+        <v>0.62686567164179108</v>
       </c>
       <c r="BA15" s="14">
         <f>AZ15*4</f>
-        <v>1.08</v>
+        <v>2.5074626865671643</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16">
-        <v>519455</v>
+        <v>628452</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="4">
-        <v>7400</v>
+        <v>9200</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H16" s="26">
-        <v>42480.302083333336</v>
+        <v>42485.298611111109</v>
       </c>
       <c r="I16" s="3">
-        <v>414.1</v>
+        <v>118.2</v>
       </c>
       <c r="J16" s="23">
-        <v>13</v>
+        <v>23.1</v>
       </c>
       <c r="K16" s="23">
-        <v>3.54</v>
+        <v>3.33</v>
       </c>
       <c r="L16" s="23">
-        <v>5.17</v>
+        <v>3.6</v>
       </c>
       <c r="M16" s="23">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="N16" s="23">
-        <v>3.14</v>
+        <v>2.97</v>
       </c>
       <c r="O16" s="23">
-        <v>7.67</v>
+        <v>9.56</v>
       </c>
       <c r="P16" s="23">
-        <v>4.8499999999999996</v>
+        <v>8.49</v>
       </c>
       <c r="Q16" s="24">
-        <v>0.28499999999999998</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="R16" s="24">
-        <v>0.114</v>
+        <v>0.185</v>
       </c>
       <c r="S16" s="21">
-        <v>19.600000000000001</v>
+        <v>23.8</v>
       </c>
       <c r="T16" s="14">
-        <v>7.3692159999999998</v>
+        <v>11.153333</v>
       </c>
       <c r="U16" s="14">
-        <v>4.6598040000000003</v>
+        <v>9.9049999999999994</v>
       </c>
       <c r="V16" s="7">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="W16">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X16" s="14">
-        <v>3.8</v>
+        <v>3.43</v>
       </c>
       <c r="Y16" s="22">
-        <v>-0.10199999999999999</v>
+        <v>-0.21</v>
       </c>
       <c r="Z16">
-        <v>8300</v>
+        <v>7300</v>
       </c>
       <c r="AA16">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="AB16">
-        <v>8100</v>
+        <v>8600</v>
       </c>
       <c r="AC16">
-        <v>7700</v>
-      </c>
-      <c r="AD16">
-        <v>8600</v>
+        <v>5500</v>
       </c>
       <c r="AE16">
-        <v>-800</v>
+        <v>-1400</v>
       </c>
       <c r="AF16">
-        <v>200</v>
+        <v>-1300</v>
       </c>
       <c r="AG16">
-        <v>100</v>
+        <v>-1900</v>
       </c>
       <c r="AH16">
-        <v>600</v>
-      </c>
-      <c r="AI16">
-        <v>-300</v>
+        <v>1800</v>
       </c>
       <c r="AL16">
         <f>RANK(AW16,$AW$4:$AW$33,0)</f>
@@ -3356,163 +3377,163 @@
       </c>
       <c r="AM16" s="15">
         <f>$AW16/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>49.224806201550393</v>
+        <v>53.012684989429182</v>
       </c>
       <c r="AN16">
         <f>RANK(F16,F$4:F$33,0)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AO16">
         <f>RANK(K16,K$4:K$33,0)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP16">
         <f>RANK(L16,L$4:L$33,0)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AQ16">
         <f>RANK(O16,O$4:O$33,1)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AR16">
         <f>RANK(T16,T$4:T$33,1)</f>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AS16">
         <f>RANK(Q16,Q$4:Q$33,0)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AT16">
         <f>RANK(V16,V$4:V$33,0)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <f>RANK(W16,W$4:W$33,0)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AW16" s="14">
         <f>SUMPRODUCT(AN16:AU16,$AN$1:$AU$1)</f>
-        <v>88.9</v>
+        <v>100.30000000000001</v>
       </c>
       <c r="AX16" s="14"/>
       <c r="AY16" s="14">
         <f>IF(V16&lt;0,(-100+V16)/V16,V16/100+1)</f>
-        <v>2.1399999999999997</v>
+        <v>2.9</v>
       </c>
       <c r="AZ16" s="25">
         <f>(1-((AY16-1)/2))</f>
-        <v>0.43000000000000016</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="BA16" s="14">
         <f>AZ16*4</f>
-        <v>1.7200000000000006</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17">
-        <v>612672</v>
+        <v>543135</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" s="4">
-        <v>7900</v>
+        <v>6400</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H17" s="26">
-        <v>42480.298611111109</v>
+        <v>42485.336805555555</v>
       </c>
       <c r="I17" s="3">
-        <v>388.1</v>
+        <v>371.2</v>
       </c>
       <c r="J17" s="23">
-        <v>11.1</v>
+        <v>17.2</v>
       </c>
       <c r="K17" s="23">
-        <v>3.9</v>
+        <v>3.89</v>
       </c>
       <c r="L17" s="23">
-        <v>3.28</v>
+        <v>2.73</v>
       </c>
       <c r="M17" s="23">
-        <v>3.99</v>
+        <v>3.42</v>
       </c>
       <c r="N17" s="23">
-        <v>2.89</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="O17" s="23">
-        <v>6.91</v>
+        <v>6.9</v>
       </c>
       <c r="P17" s="23">
-        <v>7.15</v>
+        <v>11.21</v>
       </c>
       <c r="Q17" s="24">
-        <v>0.432</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="R17" s="24">
-        <v>0.33300000000000002</v>
+        <v>0.13</v>
       </c>
       <c r="S17" s="21">
-        <v>22.7</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="T17" s="14">
-        <v>7.6890689999999999</v>
+        <v>6.7308820000000003</v>
       </c>
       <c r="U17" s="14">
-        <v>7.9561270000000004</v>
+        <v>10.935245</v>
       </c>
       <c r="V17" s="7">
-        <v>-111</v>
+        <v>-113</v>
       </c>
       <c r="W17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X17" s="14">
-        <v>3.903</v>
+        <v>3.105</v>
       </c>
       <c r="Y17" s="22">
-        <v>2.7E-2</v>
+        <v>0.495</v>
       </c>
       <c r="Z17">
-        <v>8100</v>
+        <v>7100</v>
       </c>
       <c r="AA17">
-        <v>9000</v>
+        <v>7300</v>
       </c>
       <c r="AB17">
-        <v>7600</v>
+        <v>8200</v>
       </c>
       <c r="AC17">
-        <v>8900</v>
+        <v>6400</v>
       </c>
       <c r="AD17">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="AE17">
-        <v>-900</v>
+        <v>-200</v>
       </c>
       <c r="AF17">
+        <v>-1100</v>
+      </c>
+      <c r="AG17">
+        <v>-200</v>
+      </c>
+      <c r="AH17">
+        <v>700</v>
+      </c>
+      <c r="AI17">
         <v>500</v>
-      </c>
-      <c r="AG17">
-        <v>-100</v>
-      </c>
-      <c r="AH17">
-        <v>-800</v>
-      </c>
-      <c r="AI17">
-        <v>1400</v>
       </c>
       <c r="AL17">
         <f>RANK(AW17,$AW$4:$AW$33,0)</f>
@@ -3520,163 +3541,163 @@
       </c>
       <c r="AM17" s="15">
         <f>$AW17/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>47.120708748615726</v>
+        <v>49.630021141649053</v>
       </c>
       <c r="AN17">
         <f>RANK(F17,F$4:F$33,0)</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AO17">
         <f>RANK(K17,K$4:K$33,0)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP17">
         <f>RANK(L17,L$4:L$33,0)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AQ17">
         <f>RANK(O17,O$4:O$33,1)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AR17">
         <f>RANK(T17,T$4:T$33,1)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AS17">
         <f>RANK(Q17,Q$4:Q$33,0)</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AT17">
         <f>RANK(V17,V$4:V$33,0)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AU17">
         <f>RANK(W17,W$4:W$33,0)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW17" s="14">
         <f>SUMPRODUCT(AN17:AU17,$AN$1:$AU$1)</f>
-        <v>85.1</v>
+        <v>93.9</v>
       </c>
       <c r="AX17" s="14"/>
       <c r="AY17" s="14">
         <f>IF(V17&lt;0,(-100+V17)/V17,V17/100+1)</f>
-        <v>1.9009009009009008</v>
+        <v>1.8849557522123894</v>
       </c>
       <c r="AZ17" s="25">
         <f>(1-((AY17-1)/2))</f>
-        <v>0.5495495495495496</v>
+        <v>0.55752212389380529</v>
       </c>
       <c r="BA17" s="14">
         <f>AZ17*4</f>
-        <v>2.1981981981981984</v>
+        <v>2.2300884955752212</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18">
-        <v>543548</v>
+        <v>425844</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="4">
-        <v>6800</v>
+        <v>9700</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="H18" s="26">
-        <v>42480.340277777781</v>
+        <v>42485.402777777781</v>
       </c>
       <c r="I18" s="3">
-        <v>257.10000000000002</v>
+        <v>449</v>
       </c>
       <c r="J18" s="23">
-        <v>10.199999999999999</v>
+        <v>24</v>
       </c>
       <c r="K18" s="23">
-        <v>4.47</v>
+        <v>3.11</v>
       </c>
       <c r="L18" s="23">
-        <v>3.8</v>
+        <v>3.76</v>
       </c>
       <c r="M18" s="23">
-        <v>4.6100000000000003</v>
+        <v>2.9</v>
       </c>
       <c r="N18" s="23">
-        <v>7.38</v>
+        <v>3.64</v>
       </c>
       <c r="O18" s="23">
-        <v>6.02</v>
+        <v>8.6</v>
       </c>
       <c r="P18" s="23">
-        <v>5.0599999999999996</v>
+        <v>8.25</v>
       </c>
       <c r="Q18" s="24">
-        <v>0.27400000000000002</v>
+        <v>0.374</v>
       </c>
       <c r="R18" s="24">
-        <v>0.10199999999999999</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="S18" s="21">
-        <v>26.9</v>
+        <v>18.8</v>
       </c>
       <c r="T18" s="14">
-        <v>7.9381370000000002</v>
+        <v>7.9254899999999999</v>
       </c>
       <c r="U18" s="14">
-        <v>6.6722549999999998</v>
+        <v>7.6029410000000004</v>
       </c>
       <c r="V18" s="7">
-        <v>119</v>
+        <v>-120</v>
       </c>
       <c r="W18">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X18" s="14">
-        <v>4.3639999999999999</v>
+        <v>3.7589999999999999</v>
       </c>
       <c r="Y18" s="22">
-        <v>0</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="Z18">
-        <v>6600</v>
+        <v>10300</v>
       </c>
       <c r="AA18">
-        <v>5900</v>
+        <v>10000</v>
       </c>
       <c r="AB18">
-        <v>5900</v>
+        <v>10500</v>
       </c>
       <c r="AC18">
-        <v>8000</v>
+        <v>11700</v>
       </c>
       <c r="AD18">
-        <v>6900</v>
+        <v>10400</v>
       </c>
       <c r="AE18">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="AF18">
-        <v>700</v>
+        <v>-200</v>
       </c>
       <c r="AG18">
-        <v>700</v>
+        <v>-2300</v>
       </c>
       <c r="AH18">
         <v>-1400</v>
       </c>
       <c r="AI18">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="AL18">
         <f>RANK(AW18,$AW$4:$AW$33,0)</f>
@@ -3684,163 +3705,157 @@
       </c>
       <c r="AM18" s="15">
         <f>$AW18/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>43.133997785160581</v>
+        <v>47.568710359408037</v>
       </c>
       <c r="AN18">
         <f>RANK(F18,F$4:F$33,0)</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AO18">
         <f>RANK(K18,K$4:K$33,0)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AP18">
         <f>RANK(L18,L$4:L$33,0)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ18">
         <f>RANK(O18,O$4:O$33,1)</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AR18">
         <f>RANK(T18,T$4:T$33,1)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS18">
         <f>RANK(Q18,Q$4:Q$33,0)</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AT18">
         <f>RANK(V18,V$4:V$33,0)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AU18">
         <f>RANK(W18,W$4:W$33,0)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AW18" s="14">
         <f>SUMPRODUCT(AN18:AU18,$AN$1:$AU$1)</f>
-        <v>77.900000000000006</v>
+        <v>90</v>
       </c>
       <c r="AX18" s="14"/>
       <c r="AY18" s="14">
         <f>IF(V18&lt;0,(-100+V18)/V18,V18/100+1)</f>
-        <v>2.19</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="AZ18" s="25">
         <f>(1-((AY18-1)/2))</f>
-        <v>0.40500000000000003</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="BA18" s="14">
         <f>AZ18*4</f>
-        <v>1.62</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19">
-        <v>425844</v>
+        <v>608665</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="4">
-        <v>10300</v>
+        <v>5900</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="H19" s="26">
-        <v>42480.427083333336</v>
+        <v>42485.298611111109</v>
       </c>
       <c r="I19" s="3">
-        <v>442.1</v>
+        <v>138</v>
       </c>
       <c r="J19" s="23">
-        <v>17.100000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="K19" s="23">
-        <v>3.12</v>
+        <v>4.22</v>
       </c>
       <c r="L19" s="23">
-        <v>4.0199999999999996</v>
+        <v>3.51</v>
       </c>
       <c r="M19" s="23">
-        <v>2.92</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N19" s="23">
-        <v>4.45</v>
+        <v>3.89</v>
       </c>
       <c r="O19" s="23">
-        <v>8.59</v>
+        <v>6.26</v>
       </c>
       <c r="P19" s="23">
-        <v>7.79</v>
+        <v>7.64</v>
       </c>
       <c r="Q19" s="24">
-        <v>0.34100000000000003</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="R19" s="24">
-        <v>0.19800000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="S19" s="21">
-        <v>14.3</v>
+        <v>26.6</v>
       </c>
       <c r="T19" s="14">
-        <v>6.0214220000000003</v>
+        <v>8.1625490000000003</v>
       </c>
       <c r="U19" s="14">
-        <v>5.4606370000000002</v>
+        <v>9.9619610000000005</v>
       </c>
       <c r="V19" s="7">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="W19">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X19" s="14">
-        <v>3.4359999999999999</v>
+        <v>3.87</v>
       </c>
       <c r="Y19" s="22">
-        <v>-0.81100000000000005</v>
+        <v>-0.63</v>
       </c>
       <c r="Z19">
-        <v>10500</v>
+        <v>5800</v>
       </c>
       <c r="AA19">
-        <v>9000</v>
+        <v>5200</v>
       </c>
       <c r="AB19">
-        <v>12700</v>
+        <v>5900</v>
       </c>
       <c r="AC19">
-        <v>12000</v>
-      </c>
-      <c r="AD19">
-        <v>10200</v>
+        <v>5600</v>
       </c>
       <c r="AE19">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="AF19">
-        <v>-2200</v>
+        <v>-100</v>
       </c>
       <c r="AG19">
-        <v>-1800</v>
+        <v>-1000</v>
       </c>
       <c r="AH19">
-        <v>-1500</v>
-      </c>
-      <c r="AI19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AL19">
         <f>RANK(AW19,$AW$4:$AW$33,0)</f>
@@ -3848,163 +3863,163 @@
       </c>
       <c r="AM19" s="15">
         <f>$AW19/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>38.593576965669982</v>
+        <v>44.027484143763211</v>
       </c>
       <c r="AN19">
         <f>RANK(F19,F$4:F$33,0)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AO19">
         <f>RANK(K19,K$4:K$33,0)</f>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AP19">
         <f>RANK(L19,L$4:L$33,0)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AQ19">
         <f>RANK(O19,O$4:O$33,1)</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AR19">
         <f>RANK(T19,T$4:T$33,1)</f>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AS19">
         <f>RANK(Q19,Q$4:Q$33,0)</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AT19">
         <f>RANK(V19,V$4:V$33,0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU19">
         <f>RANK(W19,W$4:W$33,0)</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AW19" s="14">
         <f>SUMPRODUCT(AN19:AU19,$AN$1:$AU$1)</f>
-        <v>69.699999999999989</v>
+        <v>83.3</v>
       </c>
       <c r="AX19" s="14"/>
       <c r="AY19" s="14">
         <f>IF(V19&lt;0,(-100+V19)/V19,V19/100+1)</f>
-        <v>2.2199999999999998</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="AZ19" s="25">
         <f>(1-((AY19-1)/2))</f>
-        <v>0.39000000000000012</v>
+        <v>0.37999999999999989</v>
       </c>
       <c r="BA19" s="14">
         <f>AZ19*4</f>
-        <v>1.5600000000000005</v>
+        <v>1.5199999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20">
-        <v>527054</v>
+        <v>612672</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="4">
         <v>8400</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="H20" s="26">
-        <v>42480.298611111109</v>
+        <v>42485.423611111109</v>
       </c>
       <c r="I20" s="3">
-        <v>438.2</v>
+        <v>395.1</v>
       </c>
       <c r="J20" s="23">
-        <v>17</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K20" s="23">
-        <v>3.97</v>
+        <v>3.89</v>
       </c>
       <c r="L20" s="23">
-        <v>4.67</v>
+        <v>3.43</v>
       </c>
       <c r="M20" s="23">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="N20" s="23">
-        <v>5.89</v>
+        <v>3.26</v>
       </c>
       <c r="O20" s="23">
-        <v>7.61</v>
+        <v>6.94</v>
       </c>
       <c r="P20" s="23">
-        <v>7.41</v>
+        <v>7.85</v>
       </c>
       <c r="Q20" s="24">
-        <v>0.312</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="R20" s="24">
-        <v>0.13</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="S20" s="21">
         <v>19.8</v>
       </c>
       <c r="T20" s="14">
-        <v>7.3861759999999999</v>
+        <v>6.7358820000000001</v>
       </c>
       <c r="U20" s="14">
-        <v>7.1920590000000004</v>
+        <v>7.6191180000000003</v>
       </c>
       <c r="V20" s="7">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="W20">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X20" s="14">
-        <v>4.5</v>
+        <v>3.43</v>
       </c>
       <c r="Y20" s="22">
-        <v>-0.54</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Z20">
-        <v>8800</v>
+        <v>7900</v>
       </c>
       <c r="AA20">
-        <v>9300</v>
+        <v>8200</v>
       </c>
       <c r="AB20">
         <v>8100</v>
       </c>
       <c r="AC20">
-        <v>7200</v>
+        <v>9600</v>
       </c>
       <c r="AD20">
-        <v>9000</v>
+        <v>7100</v>
       </c>
       <c r="AE20">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="AF20">
-        <v>700</v>
+        <v>-200</v>
       </c>
       <c r="AG20">
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="AH20">
-        <v>1600</v>
+        <v>-1700</v>
       </c>
       <c r="AI20">
-        <v>-200</v>
+        <v>800</v>
       </c>
       <c r="AL20">
         <f>RANK(AW20,$AW$4:$AW$33,0)</f>
@@ -4012,163 +4027,163 @@
       </c>
       <c r="AM20" s="15">
         <f>$AW20/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>35.437430786267996</v>
+        <v>40.010570824524315</v>
       </c>
       <c r="AN20">
         <f>RANK(F20,F$4:F$33,0)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AO20">
         <f>RANK(K20,K$4:K$33,0)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP20">
         <f>RANK(L20,L$4:L$33,0)</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AQ20">
         <f>RANK(O20,O$4:O$33,1)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AR20">
         <f>RANK(T20,T$4:T$33,1)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AS20">
         <f>RANK(Q20,Q$4:Q$33,0)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AT20">
         <f>RANK(V20,V$4:V$33,0)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AU20">
         <f>RANK(W20,W$4:W$33,0)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AW20" s="14">
         <f>SUMPRODUCT(AN20:AU20,$AN$1:$AU$1)</f>
-        <v>64</v>
+        <v>75.7</v>
       </c>
       <c r="AX20" s="14"/>
       <c r="AY20" s="14">
         <f>IF(V20&lt;0,(-100+V20)/V20,V20/100+1)</f>
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="AZ20" s="25">
         <f>(1-((AY20-1)/2))</f>
-        <v>0.33000000000000007</v>
+        <v>0.48</v>
       </c>
       <c r="BA20" s="14">
         <f>AZ20*4</f>
-        <v>1.3200000000000003</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21">
-        <v>450729</v>
+        <v>543548</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="4">
-        <v>5300</v>
+        <v>6200</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H21" s="26">
-        <v>42480.336805555555</v>
+        <v>42485.340277777781</v>
       </c>
       <c r="I21" s="3">
-        <v>277.2</v>
+        <v>262</v>
       </c>
       <c r="J21" s="23">
-        <v>10.199999999999999</v>
+        <v>15.1</v>
       </c>
       <c r="K21" s="23">
-        <v>4.1399999999999997</v>
+        <v>4.45</v>
       </c>
       <c r="L21" s="23">
-        <v>3.98</v>
+        <v>3.78</v>
       </c>
       <c r="M21" s="23">
-        <v>4.1900000000000004</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="N21" s="23">
-        <v>4.57</v>
+        <v>5.7</v>
       </c>
       <c r="O21" s="23">
-        <v>5.48</v>
+        <v>6.11</v>
       </c>
       <c r="P21" s="23">
-        <v>6.75</v>
+        <v>7.04</v>
       </c>
       <c r="Q21" s="24">
-        <v>0.308</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="R21" s="24">
-        <v>0.123</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="S21" s="21">
-        <v>20.2</v>
+        <v>24.2</v>
       </c>
       <c r="T21" s="14">
-        <v>5.4262750000000004</v>
+        <v>7.2481369999999998</v>
       </c>
       <c r="U21" s="14">
-        <v>6.6838240000000004</v>
+        <v>8.3513730000000006</v>
       </c>
       <c r="V21" s="7">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="W21">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X21" s="14">
-        <v>4.8</v>
+        <v>4.774</v>
       </c>
       <c r="Y21" s="22">
-        <v>-0.34</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="Z21">
-        <v>5700</v>
+        <v>6800</v>
       </c>
       <c r="AA21">
-        <v>5800</v>
+        <v>6500</v>
       </c>
       <c r="AB21">
-        <v>7400</v>
+        <v>6600</v>
       </c>
       <c r="AC21">
-        <v>5300</v>
+        <v>6400</v>
       </c>
       <c r="AD21">
-        <v>7700</v>
+        <v>6400</v>
       </c>
       <c r="AE21">
+        <v>300</v>
+      </c>
+      <c r="AF21">
+        <v>200</v>
+      </c>
+      <c r="AG21">
         <v>-100</v>
-      </c>
-      <c r="AF21">
-        <v>-1700</v>
-      </c>
-      <c r="AG21">
-        <v>-1700</v>
       </c>
       <c r="AH21">
         <v>400</v>
       </c>
       <c r="AI21">
-        <v>-2000</v>
+        <v>400</v>
       </c>
       <c r="AL21">
         <f>RANK(AW21,$AW$4:$AW$33,0)</f>
@@ -4176,15 +4191,15 @@
       </c>
       <c r="AM21" s="15">
         <f>$AW21/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>32.945736434108532</v>
+        <v>37.15644820295983</v>
       </c>
       <c r="AN21">
         <f>RANK(F21,F$4:F$33,0)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO21">
         <f>RANK(K21,K$4:K$33,0)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AP21">
         <f>RANK(L21,L$4:L$33,0)</f>
@@ -4192,147 +4207,147 @@
       </c>
       <c r="AQ21">
         <f>RANK(O21,O$4:O$33,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <f>RANK(T21,T$4:T$33,1)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AS21">
         <f>RANK(Q21,Q$4:Q$33,0)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AT21">
         <f>RANK(V21,V$4:V$33,0)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AU21">
         <f>RANK(W21,W$4:W$33,0)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW21" s="14">
         <f>SUMPRODUCT(AN21:AU21,$AN$1:$AU$1)</f>
-        <v>59.5</v>
+        <v>70.3</v>
       </c>
       <c r="AX21" s="14"/>
       <c r="AY21" s="14">
         <f>IF(V21&lt;0,(-100+V21)/V21,V21/100+1)</f>
-        <v>2.1399999999999997</v>
+        <v>2.3600000000000003</v>
       </c>
       <c r="AZ21" s="25">
         <f>(1-((AY21-1)/2))</f>
-        <v>0.43000000000000016</v>
+        <v>0.31999999999999984</v>
       </c>
       <c r="BA21" s="14">
         <f>AZ21*4</f>
-        <v>1.7200000000000006</v>
+        <v>1.2799999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22">
-        <v>502046</v>
+        <v>527054</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="4">
-        <v>6600</v>
+        <v>7200</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H22" s="26">
-        <v>42480.423611111109</v>
+        <v>42485.298611111109</v>
       </c>
       <c r="I22" s="3">
-        <v>310.10000000000002</v>
+        <v>444</v>
       </c>
       <c r="J22" s="23">
-        <v>10.199999999999999</v>
+        <v>22.1</v>
       </c>
       <c r="K22" s="23">
-        <v>4.21</v>
+        <v>3.97</v>
       </c>
       <c r="L22" s="23">
-        <v>6.55</v>
+        <v>4.55</v>
       </c>
       <c r="M22" s="23">
-        <v>4.1900000000000004</v>
+        <v>3.98</v>
       </c>
       <c r="N22" s="23">
-        <v>5.88</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="O22" s="23">
-        <v>6.47</v>
+        <v>7.58</v>
       </c>
       <c r="P22" s="23">
-        <v>4.22</v>
+        <v>6.85</v>
       </c>
       <c r="Q22" s="24">
-        <v>0.34100000000000003</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="R22" s="24">
         <v>0.159</v>
       </c>
       <c r="S22" s="21">
-        <v>21.2</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="T22" s="14">
-        <v>6.723725</v>
+        <v>7.4685290000000002</v>
       </c>
       <c r="U22" s="14">
-        <v>4.3854899999999999</v>
+        <v>6.7492650000000003</v>
       </c>
       <c r="V22" s="7">
-        <v>-101</v>
+        <v>118</v>
       </c>
       <c r="W22">
         <v>7.5</v>
       </c>
       <c r="X22" s="14">
-        <v>3.22</v>
+        <v>3.8</v>
       </c>
       <c r="Y22" s="22">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.317</v>
       </c>
       <c r="Z22">
+        <v>8400</v>
+      </c>
+      <c r="AA22">
+        <v>8800</v>
+      </c>
+      <c r="AB22">
+        <v>9300</v>
+      </c>
+      <c r="AC22">
         <v>7000</v>
       </c>
-      <c r="AA22">
-        <v>5600</v>
-      </c>
-      <c r="AB22">
-        <v>6200</v>
-      </c>
-      <c r="AC22">
-        <v>6500</v>
-      </c>
       <c r="AD22">
-        <v>5800</v>
+        <v>8200</v>
       </c>
       <c r="AE22">
+        <v>-400</v>
+      </c>
+      <c r="AF22">
+        <v>-900</v>
+      </c>
+      <c r="AG22">
+        <v>700</v>
+      </c>
+      <c r="AH22">
         <v>1400</v>
       </c>
-      <c r="AF22">
-        <v>800</v>
-      </c>
-      <c r="AG22">
-        <v>1700</v>
-      </c>
-      <c r="AH22">
-        <v>500</v>
-      </c>
       <c r="AI22">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="AL22">
         <f>RANK(AW22,$AW$4:$AW$33,0)</f>
@@ -4340,7 +4355,7 @@
       </c>
       <c r="AM22" s="15">
         <f>$AW22/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>30.398671096345513</v>
+        <v>35.306553911205079</v>
       </c>
       <c r="AN22">
         <f>RANK(F22,F$4:F$33,0)</f>
@@ -4348,149 +4363,155 @@
       </c>
       <c r="AO22">
         <f>RANK(K22,K$4:K$33,0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP22">
         <f>RANK(L22,L$4:L$33,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ22">
         <f>RANK(O22,O$4:O$33,1)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AR22">
         <f>RANK(T22,T$4:T$33,1)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AS22">
         <f>RANK(Q22,Q$4:Q$33,0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT22">
         <f>RANK(V22,V$4:V$33,0)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AU22">
         <f>RANK(W22,W$4:W$33,0)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AW22" s="14">
         <f>SUMPRODUCT(AN22:AU22,$AN$1:$AU$1)</f>
-        <v>54.9</v>
+        <v>66.800000000000011</v>
       </c>
       <c r="AX22" s="14"/>
       <c r="AY22" s="14">
         <f>IF(V22&lt;0,(-100+V22)/V22,V22/100+1)</f>
-        <v>1.9900990099009901</v>
+        <v>2.1799999999999997</v>
       </c>
       <c r="AZ22" s="25">
         <f>(1-((AY22-1)/2))</f>
-        <v>0.50495049504950495</v>
+        <v>0.41000000000000014</v>
       </c>
       <c r="BA22" s="14">
         <f>AZ22*4</f>
-        <v>2.0198019801980198</v>
+        <v>1.6400000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23">
-        <v>608665</v>
+        <v>518452</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="4">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H23" s="26">
-        <v>42480.295138888891</v>
+        <v>42485.361111111109</v>
       </c>
       <c r="I23" s="3">
-        <v>131.19999999999999</v>
+        <v>164</v>
       </c>
       <c r="J23" s="23">
-        <v>11.1</v>
+        <v>24.1</v>
       </c>
       <c r="K23" s="23">
-        <v>4.28</v>
+        <v>4.17</v>
       </c>
       <c r="L23" s="23">
-        <v>3.69</v>
+        <v>4.03</v>
       </c>
       <c r="M23" s="23">
-        <v>4.42</v>
+        <v>4.2</v>
       </c>
       <c r="N23" s="23">
-        <v>3.77</v>
+        <v>4.53</v>
       </c>
       <c r="O23" s="23">
-        <v>6.02</v>
+        <v>7.13</v>
       </c>
       <c r="P23" s="23">
-        <v>5.56</v>
+        <v>7.03</v>
       </c>
       <c r="Q23" s="24">
-        <v>0.33</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="R23" s="24">
-        <v>0.17199999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="S23" s="21">
-        <v>17.399999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="T23" s="14">
-        <v>5.1347060000000004</v>
+        <v>6.1863239999999999</v>
       </c>
       <c r="U23" s="14">
-        <v>4.7423529999999996</v>
+        <v>6.0995590000000002</v>
       </c>
       <c r="V23" s="7">
-        <v>135</v>
+        <v>-137</v>
       </c>
       <c r="W23">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X23" s="14">
-        <v>4.3639999999999999</v>
+        <v>3.42</v>
       </c>
       <c r="Y23" s="22">
-        <v>-0.48399999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="Z23">
-        <v>5200</v>
+        <v>6700</v>
       </c>
       <c r="AA23">
-        <v>5900</v>
+        <v>7800</v>
       </c>
       <c r="AB23">
+        <v>5700</v>
+      </c>
+      <c r="AC23">
         <v>5300</v>
       </c>
-      <c r="AC23">
-        <v>6600</v>
+      <c r="AD23">
+        <v>5600</v>
       </c>
       <c r="AE23">
-        <v>-700</v>
+        <v>-1100</v>
       </c>
       <c r="AF23">
-        <v>-100</v>
+        <v>1000</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AH23">
-        <v>-1400</v>
+        <v>1400</v>
+      </c>
+      <c r="AI23">
+        <v>1100</v>
       </c>
       <c r="AL23">
         <f>RANK(AW23,$AW$4:$AW$33,0)</f>
@@ -4498,7 +4519,7 @@
       </c>
       <c r="AM23" s="15">
         <f>$AW23/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>26.245847176079735</v>
+        <v>35.095137420718821</v>
       </c>
       <c r="AN23">
         <f>RANK(F23,F$4:F$33,0)</f>
@@ -4506,155 +4527,155 @@
       </c>
       <c r="AO23">
         <f>RANK(K23,K$4:K$33,0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP23">
         <f>RANK(L23,L$4:L$33,0)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AQ23">
         <f>RANK(O23,O$4:O$33,1)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AR23">
         <f>RANK(T23,T$4:T$33,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS23">
         <f>RANK(Q23,Q$4:Q$33,0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AT23">
         <f>RANK(V23,V$4:V$33,0)</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AU23">
         <f>RANK(W23,W$4:W$33,0)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW23" s="14">
         <f>SUMPRODUCT(AN23:AU23,$AN$1:$AU$1)</f>
-        <v>47.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="AX23" s="14"/>
       <c r="AY23" s="14">
         <f>IF(V23&lt;0,(-100+V23)/V23,V23/100+1)</f>
-        <v>2.35</v>
+        <v>1.7299270072992701</v>
       </c>
       <c r="AZ23" s="25">
         <f>(1-((AY23-1)/2))</f>
-        <v>0.32499999999999996</v>
+        <v>0.63503649635036497</v>
       </c>
       <c r="BA23" s="14">
         <f>AZ23*4</f>
-        <v>1.2999999999999998</v>
+        <v>2.5401459854014599</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24">
-        <v>285079</v>
+        <v>450729</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="4">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="H24" s="26">
-        <v>42480.295138888891</v>
+        <v>42485.423611111109</v>
       </c>
       <c r="I24" s="3">
-        <v>444.2</v>
+        <v>283.2</v>
       </c>
       <c r="J24" s="23">
-        <v>14.2</v>
+        <v>16.2</v>
       </c>
       <c r="K24" s="23">
-        <v>4.41</v>
+        <v>4.18</v>
       </c>
       <c r="L24" s="23">
-        <v>4.32</v>
+        <v>4.71</v>
       </c>
       <c r="M24" s="23">
-        <v>4.37</v>
+        <v>4.22</v>
       </c>
       <c r="N24" s="23">
-        <v>3.54</v>
+        <v>5.07</v>
       </c>
       <c r="O24" s="23">
-        <v>6.36</v>
+        <v>5.39</v>
       </c>
       <c r="P24" s="23">
-        <v>9.1999999999999993</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="Q24" s="24">
-        <v>0.38400000000000001</v>
+        <v>0.308</v>
       </c>
       <c r="R24" s="24">
-        <v>0.247</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="S24" s="21">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="T24" s="14">
-        <v>6.8588240000000003</v>
+        <v>5.7334800000000001</v>
       </c>
       <c r="U24" s="14">
-        <v>9.9215689999999999</v>
+        <v>5.1697059999999997</v>
       </c>
       <c r="V24" s="7">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="W24">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X24" s="14">
-        <v>4.33</v>
+        <v>3.48</v>
       </c>
       <c r="Y24" s="22">
-        <v>-6.8000000000000005E-2</v>
+        <v>0.52</v>
       </c>
       <c r="Z24">
-        <v>7000</v>
+        <v>5300</v>
       </c>
       <c r="AA24">
-        <v>7900</v>
+        <v>5700</v>
       </c>
       <c r="AB24">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="AC24">
-        <v>7800</v>
+        <v>7400</v>
       </c>
       <c r="AD24">
-        <v>6800</v>
+        <v>7400</v>
       </c>
       <c r="AE24">
-        <v>-900</v>
+        <v>-400</v>
       </c>
       <c r="AF24">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="AG24">
-        <v>-600</v>
+        <v>-2100</v>
       </c>
       <c r="AH24">
-        <v>-800</v>
+        <v>-2100</v>
       </c>
       <c r="AI24">
-        <v>200</v>
+        <v>-2100</v>
       </c>
       <c r="AL24">
         <f>RANK(AW24,$AW$4:$AW$33,0)</f>
@@ -4662,88 +4683,221 @@
       </c>
       <c r="AM24" s="15">
         <f>$AW24/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>25.41528239202658</v>
+        <v>25.317124735729386</v>
       </c>
       <c r="AN24">
         <f>RANK(F24,F$4:F$33,0)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO24">
         <f>RANK(K24,K$4:K$33,0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP24">
         <f>RANK(L24,L$4:L$33,0)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <f>RANK(O24,O$4:O$33,1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <f>RANK(T24,T$4:T$33,1)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AS24">
         <f>RANK(Q24,Q$4:Q$33,0)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AT24">
         <f>RANK(V24,V$4:V$33,0)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AU24">
         <f>RANK(W24,W$4:W$33,0)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW24" s="14">
         <f>SUMPRODUCT(AN24:AU24,$AN$1:$AU$1)</f>
-        <v>45.9</v>
+        <v>47.9</v>
       </c>
       <c r="AX24" s="14"/>
       <c r="AY24" s="14">
         <f>IF(V24&lt;0,(-100+V24)/V24,V24/100+1)</f>
-        <v>2.02</v>
+        <v>2.27</v>
       </c>
       <c r="AZ24" s="25">
         <f>(1-((AY24-1)/2))</f>
-        <v>0.49</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="BA24" s="14">
         <f>AZ24*4</f>
-        <v>1.96</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="25" spans="1:53">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="7"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="22"/>
-      <c r="AM25" s="15"/>
-      <c r="AW25" s="14"/>
+      <c r="A25">
+        <v>502046</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="4">
+        <v>5200</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="26">
+        <v>42485.361111111109</v>
+      </c>
+      <c r="I25" s="3">
+        <v>313.10000000000002</v>
+      </c>
+      <c r="J25" s="23">
+        <v>13.2</v>
+      </c>
+      <c r="K25" s="23">
+        <v>4.24</v>
+      </c>
+      <c r="L25" s="23">
+        <v>6.45</v>
+      </c>
+      <c r="M25" s="23">
+        <v>4.25</v>
+      </c>
+      <c r="N25" s="23">
+        <v>6.83</v>
+      </c>
+      <c r="O25" s="23">
+        <v>6.46</v>
+      </c>
+      <c r="P25" s="23">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="Q25" s="24">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="R25" s="24">
+        <v>0.216</v>
+      </c>
+      <c r="S25" s="21">
+        <v>23.1</v>
+      </c>
+      <c r="T25" s="14">
+        <v>7.3150000000000004</v>
+      </c>
+      <c r="U25" s="14">
+        <v>5.2201469999999999</v>
+      </c>
+      <c r="V25" s="7">
+        <v>126</v>
+      </c>
+      <c r="W25">
+        <v>12</v>
+      </c>
+      <c r="X25" s="14">
+        <v>5.58</v>
+      </c>
+      <c r="Y25" s="22">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="Z25">
+        <v>6600</v>
+      </c>
+      <c r="AA25">
+        <v>7100</v>
+      </c>
+      <c r="AB25">
+        <v>7000</v>
+      </c>
+      <c r="AC25">
+        <v>6000</v>
+      </c>
+      <c r="AD25">
+        <v>6000</v>
+      </c>
+      <c r="AE25">
+        <v>-500</v>
+      </c>
+      <c r="AF25">
+        <v>-400</v>
+      </c>
+      <c r="AG25">
+        <v>1600</v>
+      </c>
+      <c r="AH25">
+        <v>600</v>
+      </c>
+      <c r="AI25">
+        <v>600</v>
+      </c>
+      <c r="AL25">
+        <f>RANK(AW25,$AW$4:$AW$33,0)</f>
+        <v>22</v>
+      </c>
+      <c r="AM25" s="15">
+        <f>$AW25/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
+        <v>20.983086680761101</v>
+      </c>
+      <c r="AN25">
+        <f>RANK(F25,F$4:F$33,0)</f>
+        <v>22</v>
+      </c>
+      <c r="AO25">
+        <f>RANK(K25,K$4:K$33,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AP25">
+        <f>RANK(L25,L$4:L$33,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <f>RANK(O25,O$4:O$33,1)</f>
+        <v>4</v>
+      </c>
+      <c r="AR25">
+        <f>RANK(T25,T$4:T$33,1)</f>
+        <v>8</v>
+      </c>
+      <c r="AS25">
+        <f>RANK(Q25,Q$4:Q$33,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AT25">
+        <f>RANK(V25,V$4:V$33,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AU25">
+        <f>RANK(W25,W$4:W$33,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW25" s="14">
+        <f>SUMPRODUCT(AN25:AU25,$AN$1:$AU$1)</f>
+        <v>39.700000000000003</v>
+      </c>
       <c r="AX25" s="14"/>
-      <c r="AY25" s="14"/>
-      <c r="AZ25" s="25"/>
-      <c r="BA25" s="14"/>
+      <c r="AY25" s="14">
+        <f>IF(V25&lt;0,(-100+V25)/V25,V25/100+1)</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AZ25" s="25">
+        <f>(1-((AY25-1)/2))</f>
+        <v>0.37000000000000011</v>
+      </c>
+      <c r="BA25" s="14">
+        <f>AZ25*4</f>
+        <v>1.4800000000000004</v>
+      </c>
     </row>
     <row r="26" spans="1:53">
       <c r="B26" s="2"/>
@@ -5037,8 +5191,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:BA3">
-    <sortState ref="A4:BA24">
-      <sortCondition ref="AL3:AL24"/>
+    <sortState ref="A4:BA25">
+      <sortCondition ref="AL3:AL25"/>
     </sortState>
   </autoFilter>
   <sortState ref="AL4:AU31">
@@ -5083,8 +5237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="AO17" sqref="AO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5164,7 +5318,7 @@
     </row>
     <row r="3" spans="1:53" ht="42">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -5310,103 +5464,109 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4">
-        <v>112526</v>
+        <v>592789</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="4">
-        <v>5500</v>
+        <v>11400</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H4" s="26">
-        <v>42480.295138888891</v>
+        <v>42485.298611111109</v>
       </c>
       <c r="I4" s="3">
-        <v>409.2</v>
+        <v>170</v>
       </c>
       <c r="J4" s="23">
-        <v>12.2</v>
+        <v>20</v>
       </c>
       <c r="K4" s="23">
-        <v>3.85</v>
+        <v>2.81</v>
       </c>
       <c r="L4" s="23">
-        <v>2.72</v>
+        <v>1.81</v>
       </c>
       <c r="M4" s="23">
-        <v>3.66</v>
+        <v>2.96</v>
       </c>
       <c r="N4" s="23">
-        <v>2.2799999999999998</v>
+        <v>0.79</v>
       </c>
       <c r="O4" s="23">
-        <v>6.59</v>
+        <v>10.32</v>
       </c>
       <c r="P4" s="23">
-        <v>9.24</v>
+        <v>13.05</v>
       </c>
       <c r="Q4" s="24">
-        <v>0.28499999999999998</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="R4" s="24">
-        <v>0.13300000000000001</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="S4" s="21">
-        <v>22.3</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="T4" s="14">
-        <v>7.2037750000000003</v>
+        <v>10.32</v>
       </c>
       <c r="U4" s="14">
-        <v>10.100588</v>
+        <v>13.05</v>
       </c>
       <c r="V4" s="7">
-        <v>-159</v>
+        <v>-208</v>
       </c>
       <c r="W4">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X4" s="14">
-        <v>3.1850000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="Y4" s="22">
-        <v>0.21</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="Z4">
-        <v>8400</v>
+        <v>12100</v>
       </c>
       <c r="AA4">
-        <v>8600</v>
+        <v>10400</v>
       </c>
       <c r="AB4">
-        <v>4300</v>
+        <v>9400</v>
       </c>
       <c r="AC4">
-        <v>5000</v>
+        <v>11100</v>
+      </c>
+      <c r="AD4">
+        <v>7200</v>
       </c>
       <c r="AE4">
-        <v>-200</v>
+        <v>1700</v>
       </c>
       <c r="AF4">
-        <v>4100</v>
+        <v>2700</v>
       </c>
       <c r="AG4">
-        <v>3400</v>
+        <v>-100</v>
       </c>
       <c r="AH4">
-        <v>3400</v>
+        <v>1000</v>
+      </c>
+      <c r="AI4">
+        <v>4900</v>
       </c>
       <c r="AL4">
         <f>RANK(AW4,$AW$4:$AW$33,0)</f>
@@ -5414,163 +5574,163 @@
       </c>
       <c r="AM4" s="15">
         <f>$AW4/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>75.860647289218718</v>
+        <v>73.199527744982291</v>
       </c>
       <c r="AN4">
         <f>RANK(F4,F$4:F$33,0)</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AO4">
         <f>RANK(K4,K$4:K$33,0)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AP4">
         <f>RANK(L4,L$4:L$33,0)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AQ4">
         <f>RANK(O4,O$4:O$33,1)</f>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AR4">
         <f>RANK(T4,T$4:T$33,1)</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AS4">
         <f>RANK(Q4,Q$4:Q$33,0)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT4">
         <f>RANK(V4,V$4:V$33,0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU4">
         <f>RANK(W4,W$4:W$33,0)</f>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AW4" s="14">
         <f>SUMPRODUCT(AN4:AU4,$AN$1:$AU$1)</f>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AX4" s="14"/>
       <c r="AY4" s="14">
         <f>IF(V4&lt;0,(-100+V4)/V4,V4/100+1)</f>
-        <v>1.628930817610063</v>
+        <v>1.4807692307692308</v>
       </c>
       <c r="AZ4" s="25">
         <f>(1-((AY4-1)/2))</f>
-        <v>0.68553459119496851</v>
+        <v>0.75961538461538458</v>
       </c>
       <c r="BA4" s="14">
         <f>AZ4*4</f>
-        <v>2.742138364779874</v>
+        <v>3.0384615384615383</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5">
-        <v>543135</v>
+        <v>517593</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="4">
-        <v>7100</v>
+        <v>10700</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="H5" s="26">
-        <v>42480.295138888891</v>
+        <v>42485.340277777781</v>
       </c>
       <c r="I5" s="3">
-        <v>365.2</v>
+        <v>313.10000000000002</v>
       </c>
       <c r="J5" s="23">
-        <v>11.2</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K5" s="23">
-        <v>3.92</v>
+        <v>3.37</v>
       </c>
       <c r="L5" s="23">
-        <v>2.66</v>
+        <v>3.44</v>
       </c>
       <c r="M5" s="23">
-        <v>3.46</v>
+        <v>3.54</v>
       </c>
       <c r="N5" s="23">
-        <v>5.47</v>
+        <v>2.93</v>
       </c>
       <c r="O5" s="23">
-        <v>6.84</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="P5" s="23">
-        <v>11.57</v>
+        <v>11.29</v>
       </c>
       <c r="Q5" s="24">
-        <v>0.27400000000000002</v>
+        <v>0.307</v>
       </c>
       <c r="R5" s="24">
-        <v>0.129</v>
+        <v>0.151</v>
       </c>
       <c r="S5" s="21">
-        <v>19.8</v>
+        <v>24.7</v>
       </c>
       <c r="T5" s="14">
-        <v>6.6388239999999996</v>
+        <v>11.756716000000001</v>
       </c>
       <c r="U5" s="14">
-        <v>11.229706</v>
+        <v>13.669755</v>
       </c>
       <c r="V5" s="7">
-        <v>-146</v>
+        <v>-148</v>
       </c>
       <c r="W5">
         <v>8</v>
       </c>
       <c r="X5" s="14">
-        <v>3.8180000000000001</v>
+        <v>3.1150000000000002</v>
       </c>
       <c r="Y5" s="22">
-        <v>-0.183</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>7300</v>
+        <v>9500</v>
       </c>
       <c r="AA5">
-        <v>6700</v>
+        <v>11000</v>
       </c>
       <c r="AB5">
-        <v>8400</v>
+        <v>10700</v>
       </c>
       <c r="AC5">
-        <v>7300</v>
+        <v>11400</v>
       </c>
       <c r="AD5">
-        <v>6600</v>
+        <v>8600</v>
       </c>
       <c r="AE5">
-        <v>600</v>
+        <v>-1500</v>
       </c>
       <c r="AF5">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="AI5">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AL5">
         <f>RANK(AW5,$AW$4:$AW$33,0)</f>
@@ -5578,35 +5738,35 @@
       </c>
       <c r="AM5" s="15">
         <f>$AW5/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>66.749123891981029</v>
+        <v>61.13734750098385</v>
       </c>
       <c r="AN5">
         <f>RANK(F5,F$4:F$33,0)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AO5">
         <f>RANK(K5,K$4:K$33,0)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AP5">
         <f>RANK(L5,L$4:L$33,0)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AQ5">
         <f>RANK(O5,O$4:O$33,1)</f>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AR5">
         <f>RANK(T5,T$4:T$33,1)</f>
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="AS5">
         <f>RANK(Q5,Q$4:Q$33,0)</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AT5">
         <f>RANK(V5,V$4:V$33,0)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU5">
         <f>RANK(W5,W$4:W$33,0)</f>
@@ -5614,127 +5774,127 @@
       </c>
       <c r="AW5" s="14">
         <f>SUMPRODUCT(AN5:AU5,$AN$1:$AU$1)</f>
-        <v>161.9</v>
+        <v>155.35</v>
       </c>
       <c r="AX5" s="14"/>
       <c r="AY5" s="14">
         <f>IF(V5&lt;0,(-100+V5)/V5,V5/100+1)</f>
-        <v>1.6849315068493151</v>
+        <v>1.6756756756756757</v>
       </c>
       <c r="AZ5" s="25">
         <f>(1-((AY5-1)/2))</f>
-        <v>0.65753424657534243</v>
+        <v>0.66216216216216217</v>
       </c>
       <c r="BA5" s="14">
         <f>AZ5*4</f>
-        <v>2.6301369863013697</v>
+        <v>2.6486486486486487</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6">
-        <v>519141</v>
+        <v>519144</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4">
-        <v>6300</v>
+        <v>8100</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H6" s="26">
-        <v>42480.423611111109</v>
+        <v>42485.298611111109</v>
       </c>
       <c r="I6" s="3">
-        <v>166</v>
+        <v>396</v>
       </c>
       <c r="J6" s="23">
-        <v>11</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K6" s="23">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="L6" s="23">
-        <v>3.36</v>
+        <v>2.54</v>
       </c>
       <c r="M6" s="23">
-        <v>3.65</v>
+        <v>3.92</v>
       </c>
       <c r="N6" s="23">
-        <v>3.16</v>
+        <v>4.75</v>
       </c>
       <c r="O6" s="23">
-        <v>8.73</v>
+        <v>6.86</v>
       </c>
       <c r="P6" s="23">
-        <v>12.27</v>
+        <v>11.17</v>
       </c>
       <c r="Q6" s="24">
-        <v>0.33700000000000002</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="R6" s="24">
-        <v>0.11799999999999999</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="S6" s="21">
-        <v>17.8</v>
+        <v>21.1</v>
       </c>
       <c r="T6" s="14">
-        <v>7.6173529999999996</v>
+        <v>7.0953920000000004</v>
       </c>
       <c r="U6" s="14">
-        <v>10.706175999999999</v>
+        <v>11.553284</v>
       </c>
       <c r="V6" s="7">
-        <v>-107</v>
+        <v>-128</v>
       </c>
       <c r="W6">
         <v>7.5</v>
       </c>
       <c r="X6" s="14">
-        <v>3.7890000000000001</v>
+        <v>2.9750000000000001</v>
       </c>
       <c r="Y6" s="22">
-        <v>-0.187</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Z6">
-        <v>5300</v>
+        <v>8200</v>
       </c>
       <c r="AA6">
-        <v>6100</v>
+        <v>7200</v>
       </c>
       <c r="AB6">
-        <v>6100</v>
+        <v>7800</v>
       </c>
       <c r="AC6">
-        <v>6100</v>
+        <v>5600</v>
       </c>
       <c r="AD6">
-        <v>7300</v>
+        <v>6600</v>
       </c>
       <c r="AE6">
-        <v>-800</v>
+        <v>1000</v>
       </c>
       <c r="AF6">
-        <v>-800</v>
+        <v>400</v>
       </c>
       <c r="AG6">
-        <v>-800</v>
+        <v>1300</v>
       </c>
       <c r="AH6">
-        <v>-800</v>
+        <v>2600</v>
       </c>
       <c r="AI6">
-        <v>-2000</v>
+        <v>1600</v>
       </c>
       <c r="AL6">
         <f>RANK(AW6,$AW$4:$AW$33,0)</f>
@@ -5742,163 +5902,163 @@
       </c>
       <c r="AM6" s="15">
         <f>$AW6/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>63.718820861678005</v>
+        <v>60.724124360487998</v>
       </c>
       <c r="AN6">
         <f>RANK(F6,F$4:F$33,0)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO6">
         <f>RANK(K6,K$4:K$33,0)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AP6">
         <f>RANK(L6,L$4:L$33,0)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AQ6">
         <f>RANK(O6,O$4:O$33,1)</f>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AR6">
         <f>RANK(T6,T$4:T$33,1)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AS6">
         <f>RANK(Q6,Q$4:Q$33,0)</f>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AT6">
         <f>RANK(V6,V$4:V$33,0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU6">
         <f>RANK(W6,W$4:W$33,0)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AW6" s="14">
         <f>SUMPRODUCT(AN6:AU6,$AN$1:$AU$1)</f>
-        <v>154.55000000000001</v>
+        <v>154.30000000000001</v>
       </c>
       <c r="AX6" s="14"/>
       <c r="AY6" s="14">
         <f>IF(V6&lt;0,(-100+V6)/V6,V6/100+1)</f>
-        <v>1.9345794392523366</v>
+        <v>1.78125</v>
       </c>
       <c r="AZ6" s="25">
         <f>(1-((AY6-1)/2))</f>
-        <v>0.53271028037383172</v>
+        <v>0.609375</v>
       </c>
       <c r="BA6" s="14">
         <f>AZ6*4</f>
-        <v>2.1308411214953269</v>
+        <v>2.4375</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7">
-        <v>434622</v>
+        <v>592836</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="4">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="H7" s="26">
-        <v>42480.295138888891</v>
+        <v>42485.423611111109</v>
       </c>
       <c r="I7" s="3">
-        <v>321.10000000000002</v>
+        <v>225.2</v>
       </c>
       <c r="J7" s="23">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K7" s="23">
-        <v>4.17</v>
+        <v>3.71</v>
       </c>
       <c r="L7" s="23">
-        <v>2.87</v>
+        <v>3.17</v>
       </c>
       <c r="M7" s="23">
-        <v>4.22</v>
+        <v>3.9</v>
       </c>
       <c r="N7" s="23">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="O7" s="23">
-        <v>8.35</v>
+        <v>8.18</v>
       </c>
       <c r="P7" s="23">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="24">
-        <v>0.311</v>
+        <v>0.317</v>
       </c>
       <c r="R7" s="24">
-        <v>0.13600000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="S7" s="21">
-        <v>26.3</v>
+        <v>27.1</v>
       </c>
       <c r="T7" s="14">
-        <v>10.764951</v>
+        <v>10.866569</v>
       </c>
       <c r="U7" s="14">
-        <v>13.536765000000001</v>
+        <v>9.2990200000000005</v>
       </c>
       <c r="V7" s="7">
-        <v>-110</v>
+        <v>-138</v>
       </c>
       <c r="W7">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X7" s="14">
-        <v>4.4909999999999997</v>
+        <v>3.22</v>
       </c>
       <c r="Y7" s="22">
-        <v>-9.5000000000000001E-2</v>
+        <v>0.245</v>
       </c>
       <c r="Z7">
-        <v>8100</v>
+        <v>7200</v>
       </c>
       <c r="AA7">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="AB7">
-        <v>7600</v>
+        <v>9300</v>
       </c>
       <c r="AC7">
-        <v>8900</v>
+        <v>7200</v>
       </c>
       <c r="AD7">
         <v>6700</v>
       </c>
       <c r="AE7">
-        <v>-900</v>
+        <v>-2800</v>
       </c>
       <c r="AF7">
+        <v>-2100</v>
+      </c>
+      <c r="AG7">
+        <v>-1000</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
         <v>500</v>
-      </c>
-      <c r="AG7">
-        <v>-100</v>
-      </c>
-      <c r="AH7">
-        <v>-800</v>
-      </c>
-      <c r="AI7">
-        <v>1400</v>
       </c>
       <c r="AL7">
         <f>RANK(AW7,$AW$4:$AW$33,0)</f>
@@ -5906,163 +6066,163 @@
       </c>
       <c r="AM7" s="15">
         <f>$AW7/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>63.388991960420526</v>
+        <v>58.618654073199529</v>
       </c>
       <c r="AN7">
         <f>RANK(F7,F$4:F$33,0)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AO7">
         <f>RANK(K7,K$4:K$33,0)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AP7">
         <f>RANK(L7,L$4:L$33,0)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ7">
         <f>RANK(O7,O$4:O$33,1)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR7">
         <f>RANK(T7,T$4:T$33,1)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS7">
         <f>RANK(Q7,Q$4:Q$33,0)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT7">
         <f>RANK(V7,V$4:V$33,0)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AU7">
         <f>RANK(W7,W$4:W$33,0)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW7" s="14">
         <f>SUMPRODUCT(AN7:AU7,$AN$1:$AU$1)</f>
-        <v>153.75</v>
+        <v>148.95000000000002</v>
       </c>
       <c r="AX7" s="14"/>
       <c r="AY7" s="14">
         <f>IF(V7&lt;0,(-100+V7)/V7,V7/100+1)</f>
-        <v>1.9090909090909092</v>
+        <v>1.7246376811594204</v>
       </c>
       <c r="AZ7" s="25">
         <f>(1-((AY7-1)/2))</f>
-        <v>0.54545454545454541</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="BA7" s="14">
         <f>AZ7*4</f>
-        <v>2.1818181818181817</v>
+        <v>2.5507246376811592</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8">
-        <v>518516</v>
+        <v>453178</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="4">
-        <v>11400</v>
+        <v>8800</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="H8" s="26">
-        <v>42480.427083333336</v>
+        <v>42485.420138888891</v>
       </c>
       <c r="I8" s="3">
-        <v>451.2</v>
+        <v>389.1</v>
       </c>
       <c r="J8" s="23">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K8" s="23">
-        <v>3.01</v>
+        <v>3.52</v>
       </c>
       <c r="L8" s="23">
-        <v>3.46</v>
+        <v>3.35</v>
       </c>
       <c r="M8" s="23">
-        <v>3.04</v>
+        <v>3.74</v>
       </c>
       <c r="N8" s="23">
-        <v>5.19</v>
+        <v>2.54</v>
       </c>
       <c r="O8" s="23">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="P8" s="23">
         <v>9.4499999999999993</v>
       </c>
-      <c r="P8" s="23">
-        <v>11.81</v>
-      </c>
       <c r="Q8" s="24">
-        <v>0.32600000000000001</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="R8" s="24">
-        <v>0.216</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="S8" s="21">
-        <v>27.6</v>
+        <v>17</v>
       </c>
       <c r="T8" s="14">
-        <v>12.785294</v>
+        <v>7.7416669999999996</v>
       </c>
       <c r="U8" s="14">
-        <v>15.978235</v>
+        <v>7.875</v>
       </c>
       <c r="V8" s="7">
-        <v>-132</v>
+        <v>110</v>
       </c>
       <c r="W8">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X8" s="14">
-        <v>2.58</v>
+        <v>3.3250000000000002</v>
       </c>
       <c r="Y8" s="22">
-        <v>0.27</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="Z8">
-        <v>7000</v>
+        <v>8300</v>
       </c>
       <c r="AA8">
-        <v>5600</v>
+        <v>8300</v>
       </c>
       <c r="AB8">
-        <v>6200</v>
+        <v>8700</v>
       </c>
       <c r="AC8">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="AD8">
-        <v>5800</v>
+        <v>8500</v>
       </c>
       <c r="AE8">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="AF8">
+        <v>-400</v>
+      </c>
+      <c r="AG8">
+        <v>-800</v>
+      </c>
+      <c r="AH8">
         <v>800</v>
       </c>
-      <c r="AG8">
-        <v>1700</v>
-      </c>
-      <c r="AH8">
-        <v>500</v>
-      </c>
       <c r="AI8">
-        <v>1200</v>
+        <v>-200</v>
       </c>
       <c r="AL8">
         <f>RANK(AW8,$AW$4:$AW$33,0)</f>
@@ -6070,163 +6230,163 @@
       </c>
       <c r="AM8" s="15">
         <f>$AW8/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>62.110904968047819</v>
+        <v>58.441558441558442</v>
       </c>
       <c r="AN8">
         <f>RANK(F8,F$4:F$33,0)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AO8">
         <f>RANK(K8,K$4:K$33,0)</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AP8">
         <f>RANK(L8,L$4:L$33,0)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AQ8">
         <f>RANK(O8,O$4:O$33,1)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AR8">
         <f>RANK(T8,T$4:T$33,1)</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AS8">
         <f>RANK(Q8,Q$4:Q$33,0)</f>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AT8">
         <f>RANK(V8,V$4:V$33,0)</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AU8">
         <f>RANK(W8,W$4:W$33,0)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AW8" s="14">
         <f>SUMPRODUCT(AN8:AU8,$AN$1:$AU$1)</f>
-        <v>150.65</v>
+        <v>148.5</v>
       </c>
       <c r="AX8" s="14"/>
       <c r="AY8" s="14">
         <f>IF(V8&lt;0,(-100+V8)/V8,V8/100+1)</f>
-        <v>1.7575757575757576</v>
+        <v>2.1</v>
       </c>
       <c r="AZ8" s="25">
         <f>(1-((AY8-1)/2))</f>
-        <v>0.62121212121212122</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="BA8" s="14">
         <f>AZ8*4</f>
-        <v>2.4848484848484849</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9">
-        <v>453178</v>
+        <v>519141</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4">
-        <v>8300</v>
+        <v>6600</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H9" s="26">
-        <v>42480.302083333336</v>
+        <v>42485.427083333336</v>
       </c>
       <c r="I9" s="3">
-        <v>383</v>
+        <v>172.2</v>
       </c>
       <c r="J9" s="23">
-        <v>13.2</v>
+        <v>17.2</v>
       </c>
       <c r="K9" s="23">
-        <v>3.52</v>
+        <v>3.62</v>
       </c>
       <c r="L9" s="23">
         <v>3.16</v>
       </c>
       <c r="M9" s="23">
-        <v>3.76</v>
+        <v>3.57</v>
       </c>
       <c r="N9" s="23">
-        <v>2.63</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="O9" s="23">
-        <v>9.2799999999999994</v>
+        <v>8.91</v>
       </c>
       <c r="P9" s="23">
-        <v>9.2200000000000006</v>
+        <v>12.74</v>
       </c>
       <c r="Q9" s="24">
-        <v>0.34399999999999997</v>
+        <v>0.313</v>
       </c>
       <c r="R9" s="24">
-        <v>0.17299999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="S9" s="21">
-        <v>26.4</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="T9" s="14">
-        <v>12.009411999999999</v>
+        <v>8.3422059999999991</v>
       </c>
       <c r="U9" s="14">
-        <v>11.931765</v>
+        <v>11.928137</v>
       </c>
       <c r="V9" s="7">
-        <v>-123</v>
+        <v>165</v>
       </c>
       <c r="W9">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X9" s="14">
-        <v>4.4640000000000004</v>
+        <v>3.847</v>
       </c>
       <c r="Y9" s="22">
-        <v>-0.38100000000000001</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="Z9">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="AA9">
-        <v>5400</v>
+        <v>6700</v>
       </c>
       <c r="AB9">
-        <v>6800</v>
+        <v>4900</v>
       </c>
       <c r="AC9">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="AD9">
-        <v>7200</v>
+        <v>6000</v>
       </c>
       <c r="AE9">
-        <v>700</v>
+        <v>-400</v>
       </c>
       <c r="AF9">
-        <v>-700</v>
+        <v>1400</v>
       </c>
       <c r="AG9">
-        <v>-800</v>
+        <v>300</v>
       </c>
       <c r="AH9">
-        <v>-1400</v>
+        <v>300</v>
       </c>
       <c r="AI9">
-        <v>-1100</v>
+        <v>300</v>
       </c>
       <c r="AL9">
         <f>RANK(AW9,$AW$4:$AW$33,0)</f>
@@ -6234,70 +6394,70 @@
       </c>
       <c r="AM9" s="15">
         <f>$AW9/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>60.564831993403423</v>
+        <v>56.237701692247143</v>
       </c>
       <c r="AN9">
         <f>RANK(F9,F$4:F$33,0)</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AO9">
         <f>RANK(K9,K$4:K$33,0)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AP9">
         <f>RANK(L9,L$4:L$33,0)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ9">
         <f>RANK(O9,O$4:O$33,1)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR9">
         <f>RANK(T9,T$4:T$33,1)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AS9">
         <f>RANK(Q9,Q$4:Q$33,0)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AT9">
         <f>RANK(V9,V$4:V$33,0)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AU9">
         <f>RANK(W9,W$4:W$33,0)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AW9" s="14">
         <f>SUMPRODUCT(AN9:AU9,$AN$1:$AU$1)</f>
-        <v>146.9</v>
+        <v>142.9</v>
       </c>
       <c r="AX9" s="14"/>
       <c r="AY9" s="14">
         <f>IF(V9&lt;0,(-100+V9)/V9,V9/100+1)</f>
-        <v>1.8130081300813008</v>
+        <v>2.65</v>
       </c>
       <c r="AZ9" s="25">
         <f>(1-((AY9-1)/2))</f>
-        <v>0.5934959349593496</v>
+        <v>0.17500000000000004</v>
       </c>
       <c r="BA9" s="14">
         <f>AZ9*4</f>
-        <v>2.3739837398373984</v>
+        <v>0.70000000000000018</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10">
-        <v>519144</v>
+        <v>519455</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>49</v>
@@ -6306,91 +6466,91 @@
         <v>8200</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="H10" s="26">
-        <v>42480.298611111109</v>
+        <v>42485.298611111109</v>
       </c>
       <c r="I10" s="3">
-        <v>389</v>
+        <v>420.2</v>
       </c>
       <c r="J10" s="23">
-        <v>12.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="K10" s="23">
-        <v>3.77</v>
+        <v>3.52</v>
       </c>
       <c r="L10" s="23">
-        <v>2.5099999999999998</v>
+        <v>4.13</v>
       </c>
       <c r="M10" s="23">
-        <v>3.94</v>
+        <v>3.19</v>
       </c>
       <c r="N10" s="23">
-        <v>5.82</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="O10" s="23">
-        <v>6.78</v>
+        <v>7.72</v>
       </c>
       <c r="P10" s="23">
-        <v>10.95</v>
+        <v>6.98</v>
       </c>
       <c r="Q10" s="24">
-        <v>0.28499999999999998</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="R10" s="24">
-        <v>0.14199999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="S10" s="21">
-        <v>27.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="T10" s="14">
-        <v>9.0399999999999991</v>
+        <v>7.4172549999999999</v>
       </c>
       <c r="U10" s="14">
-        <v>14.6</v>
+        <v>6.7062749999999998</v>
       </c>
       <c r="V10" s="7">
-        <v>-106</v>
+        <v>-134</v>
       </c>
       <c r="W10">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X10" s="14">
-        <v>3.44</v>
+        <v>4.2220000000000004</v>
       </c>
       <c r="Y10" s="22">
-        <v>0</v>
+        <v>-0.433</v>
       </c>
       <c r="Z10">
-        <v>10200</v>
+        <v>7400</v>
       </c>
       <c r="AA10">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="AB10">
-        <v>8500</v>
+        <v>9100</v>
       </c>
       <c r="AC10">
-        <v>9800</v>
+        <v>7500</v>
       </c>
       <c r="AD10">
-        <v>9500</v>
+        <v>8800</v>
       </c>
       <c r="AE10">
-        <v>1700</v>
+        <v>-900</v>
       </c>
       <c r="AF10">
-        <v>1700</v>
+        <v>-1700</v>
       </c>
       <c r="AG10">
-        <v>1500</v>
+        <v>-1700</v>
       </c>
       <c r="AH10">
-        <v>400</v>
+        <v>-100</v>
       </c>
       <c r="AI10">
-        <v>700</v>
+        <v>-1400</v>
       </c>
       <c r="AL10">
         <f>RANK(AW10,$AW$4:$AW$33,0)</f>
@@ -6398,11 +6558,11 @@
       </c>
       <c r="AM10" s="15">
         <f>$AW10/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>59.224902082044942</v>
+        <v>55.548996458087366</v>
       </c>
       <c r="AN10">
         <f>RANK(F10,F$4:F$33,0)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AO10">
         <f>RANK(K10,K$4:K$33,0)</f>
@@ -6410,15 +6570,15 @@
       </c>
       <c r="AP10">
         <f>RANK(L10,L$4:L$33,0)</f>
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AQ10">
         <f>RANK(O10,O$4:O$33,1)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AR10">
         <f>RANK(T10,T$4:T$33,1)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AS10">
         <f>RANK(Q10,Q$4:Q$33,0)</f>
@@ -6426,135 +6586,135 @@
       </c>
       <c r="AT10">
         <f>RANK(V10,V$4:V$33,0)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AU10">
         <f>RANK(W10,W$4:W$33,0)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW10" s="14">
         <f>SUMPRODUCT(AN10:AU10,$AN$1:$AU$1)</f>
-        <v>143.65</v>
+        <v>141.15</v>
       </c>
       <c r="AX10" s="14"/>
       <c r="AY10" s="14">
         <f>IF(V10&lt;0,(-100+V10)/V10,V10/100+1)</f>
-        <v>1.9433962264150944</v>
+        <v>1.7462686567164178</v>
       </c>
       <c r="AZ10" s="25">
         <f>(1-((AY10-1)/2))</f>
-        <v>0.52830188679245282</v>
+        <v>0.62686567164179108</v>
       </c>
       <c r="BA10" s="14">
         <f>AZ10*4</f>
-        <v>2.1132075471698113</v>
+        <v>2.5074626865671643</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11">
-        <v>502042</v>
+        <v>543135</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="4">
-        <v>8500</v>
+        <v>6400</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H11" s="26">
-        <v>42480.298611111109</v>
+        <v>42485.336805555555</v>
       </c>
       <c r="I11" s="3">
-        <v>422</v>
+        <v>371.2</v>
       </c>
       <c r="J11" s="23">
-        <v>15.1</v>
+        <v>17.2</v>
       </c>
       <c r="K11" s="23">
-        <v>3.4</v>
+        <v>3.89</v>
       </c>
       <c r="L11" s="23">
-        <v>3.16</v>
+        <v>2.73</v>
       </c>
       <c r="M11" s="23">
-        <v>3.23</v>
+        <v>3.42</v>
       </c>
       <c r="N11" s="23">
-        <v>5.87</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="O11" s="23">
-        <v>9.5500000000000007</v>
+        <v>6.9</v>
       </c>
       <c r="P11" s="23">
-        <v>13.5</v>
+        <v>11.21</v>
       </c>
       <c r="Q11" s="24">
-        <v>0.32400000000000001</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="R11" s="24">
-        <v>0.154</v>
+        <v>0.13</v>
       </c>
       <c r="S11" s="21">
-        <v>21.6</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="T11" s="14">
-        <v>10.111765</v>
+        <v>6.7308820000000003</v>
       </c>
       <c r="U11" s="14">
-        <v>14.294117999999999</v>
+        <v>10.935245</v>
       </c>
       <c r="V11" s="7">
-        <v>-102</v>
+        <v>-113</v>
       </c>
       <c r="W11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X11" s="14">
-        <v>3.7589999999999999</v>
+        <v>3.105</v>
       </c>
       <c r="Y11" s="22">
-        <v>-0.39900000000000002</v>
+        <v>0.495</v>
       </c>
       <c r="Z11">
-        <v>8400</v>
+        <v>7100</v>
       </c>
       <c r="AA11">
-        <v>8500</v>
+        <v>7300</v>
       </c>
       <c r="AB11">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="AC11">
-        <v>8100</v>
+        <v>6400</v>
       </c>
       <c r="AD11">
-        <v>7400</v>
+        <v>6600</v>
       </c>
       <c r="AE11">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AF11">
-        <v>300</v>
+        <v>-1100</v>
       </c>
       <c r="AG11">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="AH11">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="AI11">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL11">
         <f>RANK(AW11,$AW$4:$AW$33,0)</f>
@@ -6562,31 +6722,31 @@
       </c>
       <c r="AM11" s="15">
         <f>$AW11/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>55.163883735312311</v>
+        <v>55.273514364423448</v>
       </c>
       <c r="AN11">
         <f>RANK(F11,F$4:F$33,0)</f>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AO11">
         <f>RANK(K11,K$4:K$33,0)</f>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AP11">
         <f>RANK(L11,L$4:L$33,0)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AQ11">
         <f>RANK(O11,O$4:O$33,1)</f>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AR11">
         <f>RANK(T11,T$4:T$33,1)</f>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AS11">
         <f>RANK(Q11,Q$4:Q$33,0)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AT11">
         <f>RANK(V11,V$4:V$33,0)</f>
@@ -6594,101 +6754,131 @@
       </c>
       <c r="AU11">
         <f>RANK(W11,W$4:W$33,0)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW11" s="14">
         <f>SUMPRODUCT(AN11:AU11,$AN$1:$AU$1)</f>
-        <v>133.80000000000001</v>
+        <v>140.44999999999999</v>
       </c>
       <c r="AX11" s="14"/>
       <c r="AY11" s="14">
         <f>IF(V11&lt;0,(-100+V11)/V11,V11/100+1)</f>
-        <v>1.9803921568627452</v>
+        <v>1.8849557522123894</v>
       </c>
       <c r="AZ11" s="25">
         <f>(1-((AY11-1)/2))</f>
-        <v>0.50980392156862742</v>
+        <v>0.55752212389380529</v>
       </c>
       <c r="BA11" s="14">
         <f>AZ11*4</f>
-        <v>2.0392156862745097</v>
+        <v>2.2300884955752212</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12">
-        <v>476451</v>
+        <v>573186</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="4">
-        <v>6500</v>
+        <v>8700</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H12" s="26">
-        <v>42480.295138888891</v>
+        <v>42485.296527777777</v>
       </c>
       <c r="I12" s="3">
-        <v>224.1</v>
+        <v>186</v>
       </c>
       <c r="J12" s="23">
-        <v>14.2</v>
+        <v>28.1</v>
       </c>
       <c r="K12" s="23">
-        <v>4.0599999999999996</v>
+        <v>3.34</v>
       </c>
       <c r="L12" s="23">
-        <v>3.28</v>
+        <v>4.04</v>
       </c>
       <c r="M12" s="23">
-        <v>4.29</v>
+        <v>3.16</v>
       </c>
       <c r="N12" s="23">
-        <v>3.34</v>
+        <v>4.26</v>
       </c>
       <c r="O12" s="23">
-        <v>7.58</v>
+        <v>6.97</v>
       </c>
       <c r="P12" s="23">
-        <v>8.59</v>
+        <v>4.76</v>
       </c>
       <c r="Q12" s="24">
-        <v>0.30299999999999999</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="R12" s="24">
-        <v>0.17399999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="S12" s="21">
-        <v>24.3</v>
+        <v>18.8</v>
       </c>
       <c r="T12" s="14">
-        <v>9.0291180000000004</v>
+        <v>6.4233330000000004</v>
       </c>
       <c r="U12" s="14">
-        <v>10.232206</v>
+        <v>4.3866670000000001</v>
       </c>
       <c r="V12" s="7">
-        <v>146</v>
+        <v>-185</v>
       </c>
       <c r="W12">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X12" s="14">
-        <v>4.5</v>
+        <v>3.43</v>
       </c>
       <c r="Y12" s="22">
-        <v>0.255</v>
+        <v>-0.105</v>
+      </c>
+      <c r="Z12">
+        <v>7700</v>
+      </c>
+      <c r="AA12">
+        <v>9000</v>
+      </c>
+      <c r="AB12">
+        <v>9100</v>
+      </c>
+      <c r="AC12">
+        <v>7400</v>
+      </c>
+      <c r="AD12">
+        <v>7000</v>
+      </c>
+      <c r="AE12">
+        <v>-1300</v>
+      </c>
+      <c r="AF12">
+        <v>-1400</v>
+      </c>
+      <c r="AG12">
+        <v>-900</v>
+      </c>
+      <c r="AH12">
+        <v>300</v>
+      </c>
+      <c r="AI12">
+        <v>700</v>
       </c>
       <c r="AL12">
         <f>RANK(AW12,$AW$4:$AW$33,0)</f>
@@ -6696,163 +6886,163 @@
       </c>
       <c r="AM12" s="15">
         <f>$AW12/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>52.648938363224076</v>
+        <v>55.076741440377795</v>
       </c>
       <c r="AN12">
         <f>RANK(F12,F$4:F$33,0)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AO12">
         <f>RANK(K12,K$4:K$33,0)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AP12">
         <f>RANK(L12,L$4:L$33,0)</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AQ12">
         <f>RANK(O12,O$4:O$33,1)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AR12">
         <f>RANK(T12,T$4:T$33,1)</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AS12">
         <f>RANK(Q12,Q$4:Q$33,0)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AT12">
         <f>RANK(V12,V$4:V$33,0)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AU12">
         <f>RANK(W12,W$4:W$33,0)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW12" s="14">
         <f>SUMPRODUCT(AN12:AU12,$AN$1:$AU$1)</f>
-        <v>127.7</v>
+        <v>139.94999999999999</v>
       </c>
       <c r="AX12" s="14"/>
       <c r="AY12" s="14">
         <f>IF(V12&lt;0,(-100+V12)/V12,V12/100+1)</f>
-        <v>2.46</v>
+        <v>1.5405405405405406</v>
       </c>
       <c r="AZ12" s="25">
         <f>(1-((AY12-1)/2))</f>
-        <v>0.27</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="BA12" s="14">
         <f>AZ12*4</f>
-        <v>1.08</v>
+        <v>2.9189189189189189</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13">
-        <v>519076</v>
+        <v>518516</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="4">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="H13" s="26">
-        <v>42480.340277777781</v>
+        <v>42485.427083333336</v>
       </c>
       <c r="I13" s="3">
-        <v>266</v>
+        <v>458.2</v>
       </c>
       <c r="J13" s="23">
-        <v>19.100000000000001</v>
+        <v>23</v>
       </c>
       <c r="K13" s="23">
-        <v>4.04</v>
+        <v>3</v>
       </c>
       <c r="L13" s="23">
-        <v>4.71</v>
+        <v>3.23</v>
       </c>
       <c r="M13" s="23">
-        <v>4.1399999999999997</v>
+        <v>3.04</v>
       </c>
       <c r="N13" s="23">
-        <v>5.81</v>
+        <v>4.57</v>
       </c>
       <c r="O13" s="23">
-        <v>7.38</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="P13" s="23">
-        <v>6.05</v>
+        <v>11.35</v>
       </c>
       <c r="Q13" s="24">
-        <v>0.311</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="R13" s="24">
-        <v>0.156</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="S13" s="21">
-        <v>23.2</v>
+        <v>20.5</v>
       </c>
       <c r="T13" s="14">
-        <v>8.3929410000000004</v>
+        <v>9.506373</v>
       </c>
       <c r="U13" s="14">
-        <v>6.8803919999999996</v>
+        <v>11.405637</v>
       </c>
       <c r="V13" s="7">
-        <v>-129</v>
+        <v>-180</v>
       </c>
       <c r="W13">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="X13" s="14">
-        <v>4.1310000000000002</v>
+        <v>2.9169999999999998</v>
       </c>
       <c r="Y13" s="22">
-        <v>0.13500000000000001</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="Z13">
-        <v>10000</v>
+        <v>11400</v>
       </c>
       <c r="AA13">
-        <v>9800</v>
+        <v>11400</v>
       </c>
       <c r="AB13">
-        <v>9300</v>
+        <v>11600</v>
       </c>
       <c r="AC13">
-        <v>6800</v>
+        <v>12200</v>
       </c>
       <c r="AD13">
-        <v>7200</v>
+        <v>10300</v>
       </c>
       <c r="AE13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>700</v>
+        <v>-200</v>
       </c>
       <c r="AG13">
-        <v>-1200</v>
+        <v>-800</v>
       </c>
       <c r="AH13">
-        <v>3200</v>
+        <v>-800</v>
       </c>
       <c r="AI13">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="AL13">
         <f>RANK(AW13,$AW$4:$AW$33,0)</f>
@@ -6860,157 +7050,163 @@
       </c>
       <c r="AM13" s="15">
         <f>$AW13/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>51.185322613894044</v>
+        <v>54.879968516332141</v>
       </c>
       <c r="AN13">
         <f>RANK(F13,F$4:F$33,0)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <f>RANK(K13,K$4:K$33,0)</f>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AP13">
         <f>RANK(L13,L$4:L$33,0)</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AQ13">
         <f>RANK(O13,O$4:O$33,1)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AR13">
         <f>RANK(T13,T$4:T$33,1)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AS13">
         <f>RANK(Q13,Q$4:Q$33,0)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AT13">
         <f>RANK(V13,V$4:V$33,0)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU13">
         <f>RANK(W13,W$4:W$33,0)</f>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AW13" s="14">
         <f>SUMPRODUCT(AN13:AU13,$AN$1:$AU$1)</f>
-        <v>124.15</v>
+        <v>139.44999999999999</v>
       </c>
       <c r="AX13" s="14"/>
       <c r="AY13" s="14">
         <f>IF(V13&lt;0,(-100+V13)/V13,V13/100+1)</f>
-        <v>1.7751937984496124</v>
+        <v>1.5555555555555556</v>
       </c>
       <c r="AZ13" s="25">
         <f>(1-((AY13-1)/2))</f>
-        <v>0.61240310077519378</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="BA13" s="14">
         <f>AZ13*4</f>
-        <v>2.4496124031007751</v>
+        <v>2.8888888888888888</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14">
-        <v>605452</v>
+        <v>448802</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="4">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="H14" s="26">
-        <v>42480.298611111109</v>
+        <v>42485.402777777781</v>
       </c>
       <c r="I14" s="3">
-        <v>91.1</v>
+        <v>193.1</v>
       </c>
       <c r="J14" s="23">
-        <v>14.2</v>
+        <v>20</v>
       </c>
       <c r="K14" s="23">
-        <v>3.7</v>
+        <v>3.21</v>
       </c>
       <c r="L14" s="23">
-        <v>3.94</v>
+        <v>2.86</v>
       </c>
       <c r="M14" s="23">
-        <v>3.28</v>
+        <v>3.05</v>
       </c>
       <c r="N14" s="23">
-        <v>2.52</v>
+        <v>1.69</v>
       </c>
       <c r="O14" s="23">
-        <v>7.78</v>
+        <v>7.54</v>
       </c>
       <c r="P14" s="23">
-        <v>6.14</v>
+        <v>11.7</v>
       </c>
       <c r="Q14" s="24">
-        <v>0.30299999999999999</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="R14" s="24">
-        <v>0.115</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="S14" s="21">
-        <v>21.4</v>
+        <v>23.8</v>
       </c>
       <c r="T14" s="14">
-        <v>8.1613729999999993</v>
+        <v>8.7966669999999993</v>
       </c>
       <c r="U14" s="14">
-        <v>6.4409799999999997</v>
+        <v>13.65</v>
       </c>
       <c r="V14" s="7">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="W14">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X14" s="14">
-        <v>3.8180000000000001</v>
+        <v>4.0590000000000002</v>
       </c>
       <c r="Y14" s="22">
-        <v>-5.8999999999999997E-2</v>
+        <v>-0.156</v>
       </c>
       <c r="Z14">
-        <v>5400</v>
+        <v>9200</v>
       </c>
       <c r="AA14">
-        <v>6700</v>
+        <v>9700</v>
       </c>
       <c r="AB14">
-        <v>6100</v>
+        <v>9400</v>
       </c>
       <c r="AC14">
-        <v>5700</v>
+        <v>9800</v>
+      </c>
+      <c r="AD14">
+        <v>9200</v>
       </c>
       <c r="AE14">
-        <v>-1300</v>
+        <v>-500</v>
       </c>
       <c r="AF14">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="AG14">
-        <v>400</v>
+        <v>-1100</v>
       </c>
       <c r="AH14">
-        <v>-300</v>
+        <v>-600</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
       <c r="AL14">
         <f>RANK(AW14,$AW$4:$AW$33,0)</f>
@@ -7018,31 +7214,31 @@
       </c>
       <c r="AM14" s="15">
         <f>$AW14/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>50.175221603793041</v>
+        <v>54.348681621408886</v>
       </c>
       <c r="AN14">
         <f>RANK(F14,F$4:F$33,0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO14">
         <f>RANK(K14,K$4:K$33,0)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AP14">
         <f>RANK(L14,L$4:L$33,0)</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AQ14">
         <f>RANK(O14,O$4:O$33,1)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AR14">
         <f>RANK(T14,T$4:T$33,1)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AS14">
         <f>RANK(Q14,Q$4:Q$33,0)</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AT14">
         <f>RANK(V14,V$4:V$33,0)</f>
@@ -7050,35 +7246,35 @@
       </c>
       <c r="AU14">
         <f>RANK(W14,W$4:W$33,0)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AW14" s="14">
         <f>SUMPRODUCT(AN14:AU14,$AN$1:$AU$1)</f>
-        <v>121.70000000000002</v>
+        <v>138.1</v>
       </c>
       <c r="AX14" s="14"/>
       <c r="AY14" s="14">
         <f>IF(V14&lt;0,(-100+V14)/V14,V14/100+1)</f>
-        <v>2.0300000000000002</v>
+        <v>2.1100000000000003</v>
       </c>
       <c r="AZ14" s="25">
         <f>(1-((AY14-1)/2))</f>
-        <v>0.48499999999999988</v>
+        <v>0.44499999999999984</v>
       </c>
       <c r="BA14" s="14">
         <f>AZ14*4</f>
-        <v>1.9399999999999995</v>
+        <v>1.7799999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15">
-        <v>519455</v>
+        <v>572070</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>24</v>
@@ -7087,94 +7283,94 @@
         <v>49</v>
       </c>
       <c r="F15" s="4">
-        <v>7400</v>
+        <v>8500</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="H15" s="26">
-        <v>42480.302083333336</v>
+        <v>42485.420138888891</v>
       </c>
       <c r="I15" s="3">
-        <v>414.1</v>
+        <v>400</v>
       </c>
       <c r="J15" s="23">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K15" s="23">
-        <v>3.54</v>
+        <v>3.61</v>
       </c>
       <c r="L15" s="23">
-        <v>5.17</v>
+        <v>3.59</v>
       </c>
       <c r="M15" s="23">
-        <v>3.22</v>
+        <v>3.3</v>
       </c>
       <c r="N15" s="23">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="O15" s="23">
-        <v>7.67</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="P15" s="23">
-        <v>4.8499999999999996</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="Q15" s="24">
-        <v>0.28499999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="R15" s="24">
-        <v>0.114</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="S15" s="21">
-        <v>19.600000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="T15" s="14">
-        <v>7.3692159999999998</v>
+        <v>7.4855879999999999</v>
       </c>
       <c r="U15" s="14">
-        <v>4.6598040000000003</v>
+        <v>8.5523530000000001</v>
       </c>
       <c r="V15" s="7">
-        <v>114</v>
+        <v>-119</v>
       </c>
       <c r="W15">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X15" s="14">
-        <v>3.8</v>
+        <v>3.1150000000000002</v>
       </c>
       <c r="Y15" s="22">
-        <v>-0.10199999999999999</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="Z15">
-        <v>7800</v>
+        <v>9100</v>
       </c>
       <c r="AA15">
-        <v>7300</v>
+        <v>9300</v>
       </c>
       <c r="AB15">
-        <v>6600</v>
+        <v>10200</v>
       </c>
       <c r="AC15">
-        <v>5900</v>
+        <v>9400</v>
       </c>
       <c r="AD15">
-        <v>7000</v>
+        <v>9700</v>
       </c>
       <c r="AE15">
-        <v>500</v>
+        <v>-200</v>
       </c>
       <c r="AF15">
-        <v>1200</v>
+        <v>-1100</v>
       </c>
       <c r="AG15">
-        <v>1500</v>
+        <v>-400</v>
       </c>
       <c r="AH15">
-        <v>1900</v>
+        <v>-300</v>
       </c>
       <c r="AI15">
-        <v>800</v>
+        <v>-600</v>
       </c>
       <c r="AL15">
         <f>RANK(AW15,$AW$4:$AW$33,0)</f>
@@ -7182,163 +7378,157 @@
       </c>
       <c r="AM15" s="15">
         <f>$AW15/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>48.794063079777366</v>
+        <v>52.538370720188901</v>
       </c>
       <c r="AN15">
         <f>RANK(F15,F$4:F$33,0)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO15">
         <f>RANK(K15,K$4:K$33,0)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AP15">
         <f>RANK(L15,L$4:L$33,0)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AQ15">
         <f>RANK(O15,O$4:O$33,1)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR15">
         <f>RANK(T15,T$4:T$33,1)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AS15">
         <f>RANK(Q15,Q$4:Q$33,0)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AT15">
         <f>RANK(V15,V$4:V$33,0)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AU15">
         <f>RANK(W15,W$4:W$33,0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW15" s="14">
         <f>SUMPRODUCT(AN15:AU15,$AN$1:$AU$1)</f>
-        <v>118.35000000000001</v>
+        <v>133.5</v>
       </c>
       <c r="AX15" s="14"/>
       <c r="AY15" s="14">
         <f>IF(V15&lt;0,(-100+V15)/V15,V15/100+1)</f>
-        <v>2.1399999999999997</v>
+        <v>1.8403361344537814</v>
       </c>
       <c r="AZ15" s="25">
         <f>(1-((AY15-1)/2))</f>
-        <v>0.43000000000000016</v>
+        <v>0.57983193277310929</v>
       </c>
       <c r="BA15" s="14">
         <f>AZ15*4</f>
-        <v>1.7200000000000006</v>
+        <v>2.3193277310924372</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16">
-        <v>612672</v>
+        <v>608665</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" s="4">
-        <v>7900</v>
+        <v>5900</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="H16" s="26">
-        <v>42480.298611111109</v>
+        <v>42485.298611111109</v>
       </c>
       <c r="I16" s="3">
-        <v>388.1</v>
+        <v>138</v>
       </c>
       <c r="J16" s="23">
-        <v>11.1</v>
+        <v>17.2</v>
       </c>
       <c r="K16" s="23">
-        <v>3.9</v>
+        <v>4.22</v>
       </c>
       <c r="L16" s="23">
-        <v>3.28</v>
+        <v>3.51</v>
       </c>
       <c r="M16" s="23">
-        <v>3.99</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N16" s="23">
-        <v>2.89</v>
+        <v>3.89</v>
       </c>
       <c r="O16" s="23">
-        <v>6.91</v>
+        <v>6.26</v>
       </c>
       <c r="P16" s="23">
-        <v>7.15</v>
+        <v>7.64</v>
       </c>
       <c r="Q16" s="24">
-        <v>0.432</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="R16" s="24">
-        <v>0.33300000000000002</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="S16" s="21">
-        <v>22.7</v>
+        <v>26.6</v>
       </c>
       <c r="T16" s="14">
-        <v>7.6890689999999999</v>
+        <v>8.1625490000000003</v>
       </c>
       <c r="U16" s="14">
-        <v>7.9561270000000004</v>
+        <v>9.9619610000000005</v>
       </c>
       <c r="V16" s="7">
-        <v>-111</v>
+        <v>124</v>
       </c>
       <c r="W16">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X16" s="14">
-        <v>3.903</v>
+        <v>3.87</v>
       </c>
       <c r="Y16" s="22">
-        <v>2.7E-2</v>
+        <v>-0.63</v>
       </c>
       <c r="Z16">
-        <v>12100</v>
+        <v>5800</v>
       </c>
       <c r="AA16">
-        <v>10800</v>
+        <v>5200</v>
       </c>
       <c r="AB16">
-        <v>11700</v>
+        <v>5900</v>
       </c>
       <c r="AC16">
-        <v>13200</v>
-      </c>
-      <c r="AD16">
-        <v>11300</v>
+        <v>5600</v>
       </c>
       <c r="AE16">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="AF16">
-        <v>400</v>
+        <v>-100</v>
       </c>
       <c r="AG16">
         <v>-1000</v>
       </c>
       <c r="AH16">
-        <v>-1100</v>
-      </c>
-      <c r="AI16">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="AL16">
         <f>RANK(AW16,$AW$4:$AW$33,0)</f>
@@ -7346,163 +7536,163 @@
       </c>
       <c r="AM16" s="15">
         <f>$AW16/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>48.484848484848477</v>
+        <v>51.770956316410867</v>
       </c>
       <c r="AN16">
         <f>RANK(F16,F$4:F$33,0)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AO16">
         <f>RANK(K16,K$4:K$33,0)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AP16">
         <f>RANK(L16,L$4:L$33,0)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AQ16">
         <f>RANK(O16,O$4:O$33,1)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AR16">
         <f>RANK(T16,T$4:T$33,1)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AS16">
         <f>RANK(Q16,Q$4:Q$33,0)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AT16">
         <f>RANK(V16,V$4:V$33,0)</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AU16">
         <f>RANK(W16,W$4:W$33,0)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW16" s="14">
         <f>SUMPRODUCT(AN16:AU16,$AN$1:$AU$1)</f>
-        <v>117.6</v>
+        <v>131.55000000000001</v>
       </c>
       <c r="AX16" s="14"/>
       <c r="AY16" s="14">
         <f>IF(V16&lt;0,(-100+V16)/V16,V16/100+1)</f>
-        <v>1.9009009009009008</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="AZ16" s="25">
         <f>(1-((AY16-1)/2))</f>
-        <v>0.5495495495495496</v>
+        <v>0.37999999999999989</v>
       </c>
       <c r="BA16" s="14">
         <f>AZ16*4</f>
-        <v>2.1981981981981984</v>
+        <v>1.5199999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17">
-        <v>430935</v>
+        <v>502042</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" s="4">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="H17" s="26">
-        <v>42480.336805555555</v>
+        <v>42485.298611111109</v>
       </c>
       <c r="I17" s="3">
-        <v>435.1</v>
+        <v>426.1</v>
       </c>
       <c r="J17" s="23">
-        <v>18.100000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="K17" s="23">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="L17" s="23">
-        <v>3.97</v>
+        <v>3.4</v>
       </c>
       <c r="M17" s="23">
-        <v>3.34</v>
+        <v>3.26</v>
       </c>
       <c r="N17" s="23">
-        <v>4.92</v>
+        <v>5.79</v>
       </c>
       <c r="O17" s="23">
-        <v>8.8699999999999992</v>
+        <v>9.58</v>
       </c>
       <c r="P17" s="23">
-        <v>7.85</v>
+        <v>13.27</v>
       </c>
       <c r="Q17" s="24">
-        <v>0.35199999999999998</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="R17" s="24">
-        <v>0.16900000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="S17" s="21">
-        <v>24.2</v>
+        <v>22.6</v>
       </c>
       <c r="T17" s="14">
-        <v>10.522254999999999</v>
+        <v>10.613137</v>
       </c>
       <c r="U17" s="14">
-        <v>9.3122550000000004</v>
+        <v>14.701078000000001</v>
       </c>
       <c r="V17" s="7">
-        <v>-123</v>
+        <v>-128</v>
       </c>
       <c r="W17">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X17" s="14">
-        <v>3.76</v>
+        <v>3.0449999999999999</v>
       </c>
       <c r="Y17" s="22">
-        <v>0.08</v>
+        <v>0.105</v>
       </c>
       <c r="Z17">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="AA17">
-        <v>9000</v>
+        <v>11400</v>
       </c>
       <c r="AB17">
-        <v>12700</v>
+        <v>10700</v>
       </c>
       <c r="AC17">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="AD17">
-        <v>10200</v>
+        <v>8000</v>
       </c>
       <c r="AE17">
-        <v>1500</v>
+        <v>-2900</v>
       </c>
       <c r="AF17">
         <v>-2200</v>
       </c>
       <c r="AG17">
-        <v>-1800</v>
+        <v>-3200</v>
       </c>
       <c r="AH17">
-        <v>-1500</v>
+        <v>-2700</v>
       </c>
       <c r="AI17">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AL17">
         <f>RANK(AW17,$AW$4:$AW$33,0)</f>
@@ -7510,133 +7700,163 @@
       </c>
       <c r="AM17" s="15">
         <f>$AW17/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>48.423005565862709</v>
+        <v>50.964187327823687</v>
       </c>
       <c r="AN17">
         <f>RANK(F17,F$4:F$33,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO17">
         <f>RANK(K17,K$4:K$33,0)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP17">
         <f>RANK(L17,L$4:L$33,0)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AQ17">
         <f>RANK(O17,O$4:O$33,1)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR17">
         <f>RANK(T17,T$4:T$33,1)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS17">
         <f>RANK(Q17,Q$4:Q$33,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT17">
         <f>RANK(V17,V$4:V$33,0)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU17">
         <f>RANK(W17,W$4:W$33,0)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AW17" s="14">
         <f>SUMPRODUCT(AN17:AU17,$AN$1:$AU$1)</f>
-        <v>117.45</v>
+        <v>129.5</v>
       </c>
       <c r="AX17" s="14"/>
       <c r="AY17" s="14">
         <f>IF(V17&lt;0,(-100+V17)/V17,V17/100+1)</f>
-        <v>1.8130081300813008</v>
+        <v>1.78125</v>
       </c>
       <c r="AZ17" s="25">
         <f>(1-((AY17-1)/2))</f>
-        <v>0.5934959349593496</v>
+        <v>0.609375</v>
       </c>
       <c r="BA17" s="14">
         <f>AZ17*4</f>
-        <v>2.3739837398373984</v>
+        <v>2.4375</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18">
-        <v>543548</v>
+        <v>518452</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="4">
-        <v>6800</v>
+        <v>5900</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H18" s="26">
-        <v>42480.340277777781</v>
+        <v>42485.361111111109</v>
       </c>
       <c r="I18" s="3">
-        <v>257.10000000000002</v>
+        <v>164</v>
       </c>
       <c r="J18" s="23">
-        <v>10.199999999999999</v>
+        <v>24.1</v>
       </c>
       <c r="K18" s="23">
-        <v>4.47</v>
+        <v>4.17</v>
       </c>
       <c r="L18" s="23">
-        <v>3.8</v>
+        <v>4.03</v>
       </c>
       <c r="M18" s="23">
-        <v>4.6100000000000003</v>
+        <v>4.2</v>
       </c>
       <c r="N18" s="23">
-        <v>7.38</v>
+        <v>4.53</v>
       </c>
       <c r="O18" s="23">
-        <v>6.02</v>
+        <v>7.13</v>
       </c>
       <c r="P18" s="23">
-        <v>5.0599999999999996</v>
+        <v>7.03</v>
       </c>
       <c r="Q18" s="24">
-        <v>0.27400000000000002</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="R18" s="24">
-        <v>0.10199999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="S18" s="21">
-        <v>26.9</v>
+        <v>17.7</v>
       </c>
       <c r="T18" s="14">
-        <v>7.9381370000000002</v>
+        <v>6.1863239999999999</v>
       </c>
       <c r="U18" s="14">
-        <v>6.6722549999999998</v>
+        <v>6.0995590000000002</v>
       </c>
       <c r="V18" s="7">
-        <v>119</v>
+        <v>-137</v>
       </c>
       <c r="W18">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="X18" s="14">
-        <v>4.3639999999999999</v>
+        <v>3.42</v>
       </c>
       <c r="Y18" s="22">
-        <v>0</v>
+        <v>1.74</v>
+      </c>
+      <c r="Z18">
+        <v>6700</v>
+      </c>
+      <c r="AA18">
+        <v>7800</v>
+      </c>
+      <c r="AB18">
+        <v>5700</v>
+      </c>
+      <c r="AC18">
+        <v>5300</v>
+      </c>
+      <c r="AD18">
+        <v>5600</v>
+      </c>
+      <c r="AE18">
+        <v>-1100</v>
+      </c>
+      <c r="AF18">
+        <v>1000</v>
+      </c>
+      <c r="AG18">
+        <v>900</v>
+      </c>
+      <c r="AH18">
+        <v>1400</v>
+      </c>
+      <c r="AI18">
+        <v>1100</v>
       </c>
       <c r="AL18">
         <f>RANK(AW18,$AW$4:$AW$33,0)</f>
@@ -7644,35 +7864,35 @@
       </c>
       <c r="AM18" s="15">
         <f>$AW18/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>46.918161203875485</v>
+        <v>47.717434081070436</v>
       </c>
       <c r="AN18">
         <f>RANK(F18,F$4:F$33,0)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AO18">
         <f>RANK(K18,K$4:K$33,0)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AP18">
         <f>RANK(L18,L$4:L$33,0)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AQ18">
         <f>RANK(O18,O$4:O$33,1)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AR18">
         <f>RANK(T18,T$4:T$33,1)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AS18">
         <f>RANK(Q18,Q$4:Q$33,0)</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AT18">
         <f>RANK(V18,V$4:V$33,0)</f>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AU18">
         <f>RANK(W18,W$4:W$33,0)</f>
@@ -7680,115 +7900,121 @@
       </c>
       <c r="AW18" s="14">
         <f>SUMPRODUCT(AN18:AU18,$AN$1:$AU$1)</f>
-        <v>113.8</v>
+        <v>121.24999999999999</v>
       </c>
       <c r="AX18" s="14"/>
       <c r="AY18" s="14">
         <f>IF(V18&lt;0,(-100+V18)/V18,V18/100+1)</f>
-        <v>2.19</v>
+        <v>1.7299270072992701</v>
       </c>
       <c r="AZ18" s="25">
         <f>(1-((AY18-1)/2))</f>
-        <v>0.40500000000000003</v>
+        <v>0.63503649635036497</v>
       </c>
       <c r="BA18" s="14">
         <f>AZ18*4</f>
-        <v>1.62</v>
+        <v>2.5401459854014599</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19">
-        <v>450729</v>
+        <v>628452</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="4">
-        <v>5300</v>
+        <v>9200</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H19" s="26">
-        <v>42480.336805555555</v>
+        <v>42485.298611111109</v>
       </c>
       <c r="I19" s="3">
-        <v>277.2</v>
+        <v>118.2</v>
       </c>
       <c r="J19" s="23">
-        <v>10.199999999999999</v>
+        <v>23.1</v>
       </c>
       <c r="K19" s="23">
-        <v>4.1399999999999997</v>
+        <v>3.33</v>
       </c>
       <c r="L19" s="23">
-        <v>3.98</v>
+        <v>3.6</v>
       </c>
       <c r="M19" s="23">
-        <v>4.1900000000000004</v>
+        <v>3.44</v>
       </c>
       <c r="N19" s="23">
-        <v>4.57</v>
+        <v>2.97</v>
       </c>
       <c r="O19" s="23">
-        <v>5.48</v>
+        <v>9.56</v>
       </c>
       <c r="P19" s="23">
-        <v>6.75</v>
+        <v>8.49</v>
       </c>
       <c r="Q19" s="24">
-        <v>0.308</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="R19" s="24">
-        <v>0.123</v>
+        <v>0.185</v>
       </c>
       <c r="S19" s="21">
-        <v>20.2</v>
+        <v>23.8</v>
       </c>
       <c r="T19" s="14">
-        <v>5.4262750000000004</v>
+        <v>11.153333</v>
       </c>
       <c r="U19" s="14">
-        <v>6.6838240000000004</v>
+        <v>9.9049999999999994</v>
       </c>
       <c r="V19" s="7">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="W19">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="X19" s="14">
-        <v>4.8</v>
+        <v>3.43</v>
       </c>
       <c r="Y19" s="22">
-        <v>-0.34</v>
+        <v>-0.21</v>
       </c>
       <c r="Z19">
+        <v>7300</v>
+      </c>
+      <c r="AA19">
         <v>8700</v>
       </c>
-      <c r="AA19">
-        <v>10000</v>
-      </c>
       <c r="AB19">
-        <v>8100</v>
+        <v>8600</v>
+      </c>
+      <c r="AC19">
+        <v>5500</v>
       </c>
       <c r="AE19">
+        <v>-1400</v>
+      </c>
+      <c r="AF19">
         <v>-1300</v>
       </c>
-      <c r="AF19">
-        <v>600</v>
-      </c>
       <c r="AG19">
-        <v>-700</v>
+        <v>-1900</v>
+      </c>
+      <c r="AH19">
+        <v>1800</v>
       </c>
       <c r="AL19">
         <f>RANK(AW19,$AW$4:$AW$33,0)</f>
@@ -7796,163 +8022,163 @@
       </c>
       <c r="AM19" s="15">
         <f>$AW19/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>46.361574933003503</v>
+        <v>45.257772530499807</v>
       </c>
       <c r="AN19">
         <f>RANK(F19,F$4:F$33,0)</f>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AO19">
         <f>RANK(K19,K$4:K$33,0)</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AP19">
         <f>RANK(L19,L$4:L$33,0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ19">
         <f>RANK(O19,O$4:O$33,1)</f>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AR19">
         <f>RANK(T19,T$4:T$33,1)</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AS19">
         <f>RANK(Q19,Q$4:Q$33,0)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AT19">
         <f>RANK(V19,V$4:V$33,0)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <f>RANK(W19,W$4:W$33,0)</f>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AW19" s="14">
         <f>SUMPRODUCT(AN19:AU19,$AN$1:$AU$1)</f>
-        <v>112.45</v>
+        <v>115.00000000000001</v>
       </c>
       <c r="AX19" s="14"/>
       <c r="AY19" s="14">
         <f>IF(V19&lt;0,(-100+V19)/V19,V19/100+1)</f>
-        <v>2.1399999999999997</v>
+        <v>2.9</v>
       </c>
       <c r="AZ19" s="25">
         <f>(1-((AY19-1)/2))</f>
-        <v>0.43000000000000016</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="BA19" s="14">
         <f>AZ19*4</f>
-        <v>1.7200000000000006</v>
+        <v>0.20000000000000018</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20">
-        <v>502046</v>
+        <v>543548</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="4">
+        <v>6200</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="26">
+        <v>42485.340277777781</v>
+      </c>
+      <c r="I20" s="3">
+        <v>262</v>
+      </c>
+      <c r="J20" s="23">
+        <v>15.1</v>
+      </c>
+      <c r="K20" s="23">
+        <v>4.45</v>
+      </c>
+      <c r="L20" s="23">
+        <v>3.78</v>
+      </c>
+      <c r="M20" s="23">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="N20" s="23">
+        <v>5.7</v>
+      </c>
+      <c r="O20" s="23">
+        <v>6.11</v>
+      </c>
+      <c r="P20" s="23">
+        <v>7.04</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="R20" s="24">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="S20" s="21">
+        <v>24.2</v>
+      </c>
+      <c r="T20" s="14">
+        <v>7.2481369999999998</v>
+      </c>
+      <c r="U20" s="14">
+        <v>8.3513730000000006</v>
+      </c>
+      <c r="V20" s="7">
+        <v>136</v>
+      </c>
+      <c r="W20">
+        <v>8</v>
+      </c>
+      <c r="X20" s="14">
+        <v>4.774</v>
+      </c>
+      <c r="Y20" s="22">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="Z20">
+        <v>6800</v>
+      </c>
+      <c r="AA20">
+        <v>6500</v>
+      </c>
+      <c r="AB20">
         <v>6600</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="26">
-        <v>42480.423611111109</v>
-      </c>
-      <c r="I20" s="3">
-        <v>310.10000000000002</v>
-      </c>
-      <c r="J20" s="23">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="K20" s="23">
-        <v>4.21</v>
-      </c>
-      <c r="L20" s="23">
-        <v>6.55</v>
-      </c>
-      <c r="M20" s="23">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="N20" s="23">
-        <v>5.88</v>
-      </c>
-      <c r="O20" s="23">
-        <v>6.47</v>
-      </c>
-      <c r="P20" s="23">
-        <v>4.22</v>
-      </c>
-      <c r="Q20" s="24">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="R20" s="24">
-        <v>0.159</v>
-      </c>
-      <c r="S20" s="21">
-        <v>21.2</v>
-      </c>
-      <c r="T20" s="14">
-        <v>6.723725</v>
-      </c>
-      <c r="U20" s="14">
-        <v>4.3854899999999999</v>
-      </c>
-      <c r="V20" s="7">
-        <v>-101</v>
-      </c>
-      <c r="W20">
-        <v>7.5</v>
-      </c>
-      <c r="X20" s="14">
-        <v>3.22</v>
-      </c>
-      <c r="Y20" s="22">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="Z20">
-        <v>14200</v>
-      </c>
-      <c r="AA20">
-        <v>12900</v>
-      </c>
-      <c r="AB20">
-        <v>14400</v>
-      </c>
       <c r="AC20">
-        <v>14800</v>
+        <v>6400</v>
       </c>
       <c r="AD20">
-        <v>12400</v>
+        <v>6400</v>
       </c>
       <c r="AE20">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="AF20">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="AG20">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="AH20">
-        <v>-600</v>
+        <v>400</v>
       </c>
       <c r="AI20">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="AL20">
         <f>RANK(AW20,$AW$4:$AW$33,0)</f>
@@ -7960,157 +8186,163 @@
       </c>
       <c r="AM20" s="15">
         <f>$AW20/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>39.641311069882498</v>
+        <v>45.021645021645021</v>
       </c>
       <c r="AN20">
         <f>RANK(F20,F$4:F$33,0)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO20">
         <f>RANK(K20,K$4:K$33,0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP20">
         <f>RANK(L20,L$4:L$33,0)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ20">
         <f>RANK(O20,O$4:O$33,1)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <f>RANK(T20,T$4:T$33,1)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS20">
         <f>RANK(Q20,Q$4:Q$33,0)</f>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AT20">
         <f>RANK(V20,V$4:V$33,0)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AU20">
         <f>RANK(W20,W$4:W$33,0)</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AW20" s="14">
         <f>SUMPRODUCT(AN20:AU20,$AN$1:$AU$1)</f>
-        <v>96.15</v>
+        <v>114.4</v>
       </c>
       <c r="AX20" s="14"/>
       <c r="AY20" s="14">
         <f>IF(V20&lt;0,(-100+V20)/V20,V20/100+1)</f>
-        <v>1.9900990099009901</v>
+        <v>2.3600000000000003</v>
       </c>
       <c r="AZ20" s="25">
         <f>(1-((AY20-1)/2))</f>
-        <v>0.50495049504950495</v>
+        <v>0.31999999999999984</v>
       </c>
       <c r="BA20" s="14">
         <f>AZ20*4</f>
-        <v>2.0198019801980198</v>
+        <v>1.2799999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21">
-        <v>285079</v>
+        <v>425844</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="4">
-        <v>6200</v>
+        <v>9700</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="H21" s="26">
-        <v>42480.295138888891</v>
+        <v>42485.402777777781</v>
       </c>
       <c r="I21" s="3">
-        <v>444.2</v>
+        <v>449</v>
       </c>
       <c r="J21" s="23">
-        <v>14.2</v>
+        <v>24</v>
       </c>
       <c r="K21" s="23">
-        <v>4.41</v>
+        <v>3.11</v>
       </c>
       <c r="L21" s="23">
-        <v>4.32</v>
+        <v>3.76</v>
       </c>
       <c r="M21" s="23">
-        <v>4.37</v>
+        <v>2.9</v>
       </c>
       <c r="N21" s="23">
-        <v>3.54</v>
+        <v>3.64</v>
       </c>
       <c r="O21" s="23">
-        <v>6.36</v>
+        <v>8.6</v>
       </c>
       <c r="P21" s="23">
-        <v>9.1999999999999993</v>
+        <v>8.25</v>
       </c>
       <c r="Q21" s="24">
-        <v>0.38400000000000001</v>
+        <v>0.374</v>
       </c>
       <c r="R21" s="24">
-        <v>0.247</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="S21" s="21">
-        <v>22</v>
+        <v>18.8</v>
       </c>
       <c r="T21" s="14">
-        <v>6.8588240000000003</v>
+        <v>7.9254899999999999</v>
       </c>
       <c r="U21" s="14">
-        <v>9.9215689999999999</v>
+        <v>7.6029410000000004</v>
       </c>
       <c r="V21" s="7">
-        <v>102</v>
+        <v>-120</v>
       </c>
       <c r="W21">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X21" s="14">
-        <v>4.33</v>
+        <v>3.7589999999999999</v>
       </c>
       <c r="Y21" s="22">
-        <v>-6.8000000000000005E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="Z21">
-        <v>7800</v>
+        <v>10300</v>
       </c>
       <c r="AA21">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="AB21">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="AC21">
-        <v>5000</v>
+        <v>11700</v>
+      </c>
+      <c r="AD21">
+        <v>10400</v>
       </c>
       <c r="AE21">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="AF21">
-        <v>2800</v>
+        <v>-200</v>
       </c>
       <c r="AG21">
         <v>-2300</v>
       </c>
       <c r="AH21">
-        <v>2800</v>
+        <v>-1400</v>
+      </c>
+      <c r="AI21">
+        <v>-100</v>
       </c>
       <c r="AL21">
         <f>RANK(AW21,$AW$4:$AW$33,0)</f>
@@ -8118,133 +8350,163 @@
       </c>
       <c r="AM21" s="15">
         <f>$AW21/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>38.589981447124302</v>
+        <v>43.112947658402199</v>
       </c>
       <c r="AN21">
         <f>RANK(F21,F$4:F$33,0)</f>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AO21">
         <f>RANK(K21,K$4:K$33,0)</f>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AP21">
         <f>RANK(L21,L$4:L$33,0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AQ21">
         <f>RANK(O21,O$4:O$33,1)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AR21">
         <f>RANK(T21,T$4:T$33,1)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AS21">
         <f>RANK(Q21,Q$4:Q$33,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT21">
         <f>RANK(V21,V$4:V$33,0)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AU21">
         <f>RANK(W21,W$4:W$33,0)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AW21" s="14">
         <f>SUMPRODUCT(AN21:AU21,$AN$1:$AU$1)</f>
-        <v>93.600000000000009</v>
+        <v>109.54999999999998</v>
       </c>
       <c r="AX21" s="14"/>
       <c r="AY21" s="14">
         <f>IF(V21&lt;0,(-100+V21)/V21,V21/100+1)</f>
-        <v>2.02</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="AZ21" s="25">
         <f>(1-((AY21-1)/2))</f>
-        <v>0.49</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="BA21" s="14">
         <f>AZ21*4</f>
-        <v>1.96</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22">
-        <v>608665</v>
+        <v>612672</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="4">
-        <v>5800</v>
+        <v>8400</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="H22" s="26">
-        <v>42480.295138888891</v>
+        <v>42485.423611111109</v>
       </c>
       <c r="I22" s="3">
-        <v>131.19999999999999</v>
+        <v>395.1</v>
       </c>
       <c r="J22" s="23">
-        <v>11.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K22" s="23">
-        <v>4.28</v>
+        <v>3.89</v>
       </c>
       <c r="L22" s="23">
-        <v>3.69</v>
+        <v>3.43</v>
       </c>
       <c r="M22" s="23">
-        <v>4.42</v>
+        <v>3.99</v>
       </c>
       <c r="N22" s="23">
-        <v>3.77</v>
+        <v>3.26</v>
       </c>
       <c r="O22" s="23">
-        <v>6.02</v>
+        <v>6.94</v>
       </c>
       <c r="P22" s="23">
-        <v>5.56</v>
+        <v>7.85</v>
       </c>
       <c r="Q22" s="24">
-        <v>0.33</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="R22" s="24">
-        <v>0.17199999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="S22" s="21">
-        <v>17.399999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="T22" s="14">
-        <v>5.1347060000000004</v>
+        <v>6.7358820000000001</v>
       </c>
       <c r="U22" s="14">
-        <v>4.7423529999999996</v>
+        <v>7.6191180000000003</v>
       </c>
       <c r="V22" s="7">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="W22">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X22" s="14">
-        <v>4.3639999999999999</v>
+        <v>3.43</v>
       </c>
       <c r="Y22" s="22">
-        <v>-0.48399999999999999</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z22">
+        <v>7900</v>
+      </c>
+      <c r="AA22">
+        <v>8200</v>
+      </c>
+      <c r="AB22">
+        <v>8100</v>
+      </c>
+      <c r="AC22">
+        <v>9600</v>
+      </c>
+      <c r="AD22">
+        <v>7100</v>
+      </c>
+      <c r="AE22">
+        <v>-300</v>
+      </c>
+      <c r="AF22">
+        <v>-200</v>
+      </c>
+      <c r="AG22">
+        <v>400</v>
+      </c>
+      <c r="AH22">
+        <v>-1700</v>
+      </c>
+      <c r="AI22">
+        <v>800</v>
       </c>
       <c r="AL22">
         <f>RANK(AW22,$AW$4:$AW$33,0)</f>
@@ -8252,27 +8514,27 @@
       </c>
       <c r="AM22" s="15">
         <f>$AW22/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>38.445681302824156</v>
+        <v>42.325855962219592</v>
       </c>
       <c r="AN22">
         <f>RANK(F22,F$4:F$33,0)</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AO22">
         <f>RANK(K22,K$4:K$33,0)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AP22">
         <f>RANK(L22,L$4:L$33,0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ22">
         <f>RANK(O22,O$4:O$33,1)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AR22">
         <f>RANK(T22,T$4:T$33,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AS22">
         <f>RANK(Q22,Q$4:Q$33,0)</f>
@@ -8280,28 +8542,28 @@
       </c>
       <c r="AT22">
         <f>RANK(V22,V$4:V$33,0)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AU22">
         <f>RANK(W22,W$4:W$33,0)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AW22" s="14">
         <f>SUMPRODUCT(AN22:AU22,$AN$1:$AU$1)</f>
-        <v>93.249999999999986</v>
+        <v>107.55</v>
       </c>
       <c r="AX22" s="14"/>
       <c r="AY22" s="14">
         <f>IF(V22&lt;0,(-100+V22)/V22,V22/100+1)</f>
-        <v>2.35</v>
+        <v>2.04</v>
       </c>
       <c r="AZ22" s="25">
         <f>(1-((AY22-1)/2))</f>
-        <v>0.32499999999999996</v>
+        <v>0.48</v>
       </c>
       <c r="BA22" s="14">
         <f>AZ22*4</f>
-        <v>1.2999999999999998</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="23" spans="1:53">
@@ -8309,76 +8571,106 @@
         <v>527054</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="4">
-        <v>8400</v>
+        <v>7200</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H23" s="26">
-        <v>42480.298611111109</v>
+        <v>42485.298611111109</v>
       </c>
       <c r="I23" s="3">
-        <v>438.2</v>
+        <v>444</v>
       </c>
       <c r="J23" s="23">
-        <v>17</v>
+        <v>22.1</v>
       </c>
       <c r="K23" s="23">
         <v>3.97</v>
       </c>
       <c r="L23" s="23">
-        <v>4.67</v>
+        <v>4.55</v>
       </c>
       <c r="M23" s="23">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="N23" s="23">
-        <v>5.89</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="O23" s="23">
-        <v>7.61</v>
+        <v>7.58</v>
       </c>
       <c r="P23" s="23">
-        <v>7.41</v>
+        <v>6.85</v>
       </c>
       <c r="Q23" s="24">
-        <v>0.312</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="R23" s="24">
-        <v>0.13</v>
+        <v>0.159</v>
       </c>
       <c r="S23" s="21">
-        <v>19.8</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="T23" s="14">
-        <v>7.3861759999999999</v>
+        <v>7.4685290000000002</v>
       </c>
       <c r="U23" s="14">
-        <v>7.1920590000000004</v>
+        <v>6.7492650000000003</v>
       </c>
       <c r="V23" s="7">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="W23">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X23" s="14">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" s="22">
-        <v>-0.54</v>
+        <v>0.317</v>
+      </c>
+      <c r="Z23">
+        <v>8400</v>
+      </c>
+      <c r="AA23">
+        <v>8800</v>
+      </c>
+      <c r="AB23">
+        <v>9300</v>
+      </c>
+      <c r="AC23">
+        <v>7000</v>
+      </c>
+      <c r="AD23">
+        <v>8200</v>
+      </c>
+      <c r="AE23">
+        <v>-400</v>
+      </c>
+      <c r="AF23">
+        <v>-900</v>
+      </c>
+      <c r="AG23">
+        <v>700</v>
+      </c>
+      <c r="AH23">
+        <v>1400</v>
+      </c>
+      <c r="AI23">
+        <v>200</v>
       </c>
       <c r="AL23">
         <f>RANK(AW23,$AW$4:$AW$33,0)</f>
@@ -8386,133 +8678,163 @@
       </c>
       <c r="AM23" s="15">
         <f>$AW23/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>31.972789115646261</v>
+        <v>41.814246359700896</v>
       </c>
       <c r="AN23">
         <f>RANK(F23,F$4:F$33,0)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AO23">
         <f>RANK(K23,K$4:K$33,0)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AP23">
         <f>RANK(L23,L$4:L$33,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ23">
         <f>RANK(O23,O$4:O$33,1)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR23">
         <f>RANK(T23,T$4:T$33,1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS23">
         <f>RANK(Q23,Q$4:Q$33,0)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AT23">
         <f>RANK(V23,V$4:V$33,0)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AU23">
         <f>RANK(W23,W$4:W$33,0)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AW23" s="14">
         <f>SUMPRODUCT(AN23:AU23,$AN$1:$AU$1)</f>
-        <v>77.550000000000011</v>
+        <v>106.24999999999999</v>
       </c>
       <c r="AX23" s="14"/>
       <c r="AY23" s="14">
         <f>IF(V23&lt;0,(-100+V23)/V23,V23/100+1)</f>
-        <v>2.34</v>
+        <v>2.1799999999999997</v>
       </c>
       <c r="AZ23" s="25">
         <f>(1-((AY23-1)/2))</f>
-        <v>0.33000000000000007</v>
+        <v>0.41000000000000014</v>
       </c>
       <c r="BA23" s="14">
         <f>AZ23*4</f>
-        <v>1.3200000000000003</v>
+        <v>1.6400000000000006</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24">
-        <v>425844</v>
+        <v>450729</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="4">
-        <v>10300</v>
+        <v>5800</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="H24" s="26">
-        <v>42480.427083333336</v>
+        <v>42485.423611111109</v>
       </c>
       <c r="I24" s="3">
-        <v>442.1</v>
+        <v>283.2</v>
       </c>
       <c r="J24" s="23">
-        <v>17.100000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="K24" s="23">
-        <v>3.12</v>
+        <v>4.18</v>
       </c>
       <c r="L24" s="23">
-        <v>4.0199999999999996</v>
+        <v>4.71</v>
       </c>
       <c r="M24" s="23">
-        <v>2.92</v>
+        <v>4.22</v>
       </c>
       <c r="N24" s="23">
-        <v>4.45</v>
+        <v>5.07</v>
       </c>
       <c r="O24" s="23">
-        <v>8.59</v>
+        <v>5.39</v>
       </c>
       <c r="P24" s="23">
-        <v>7.79</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="Q24" s="24">
-        <v>0.34100000000000003</v>
+        <v>0.308</v>
       </c>
       <c r="R24" s="24">
-        <v>0.19800000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="S24" s="21">
-        <v>14.3</v>
+        <v>21.7</v>
       </c>
       <c r="T24" s="14">
-        <v>6.0214220000000003</v>
+        <v>5.7334800000000001</v>
       </c>
       <c r="U24" s="14">
-        <v>5.4606370000000002</v>
+        <v>5.1697059999999997</v>
       </c>
       <c r="V24" s="7">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="W24">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X24" s="14">
-        <v>3.4359999999999999</v>
+        <v>3.48</v>
       </c>
       <c r="Y24" s="22">
-        <v>-0.81100000000000005</v>
+        <v>0.52</v>
+      </c>
+      <c r="Z24">
+        <v>5300</v>
+      </c>
+      <c r="AA24">
+        <v>5700</v>
+      </c>
+      <c r="AB24">
+        <v>5800</v>
+      </c>
+      <c r="AC24">
+        <v>7400</v>
+      </c>
+      <c r="AD24">
+        <v>7400</v>
+      </c>
+      <c r="AE24">
+        <v>-400</v>
+      </c>
+      <c r="AF24">
+        <v>-500</v>
+      </c>
+      <c r="AG24">
+        <v>-2100</v>
+      </c>
+      <c r="AH24">
+        <v>-2100</v>
+      </c>
+      <c r="AI24">
+        <v>-2100</v>
       </c>
       <c r="AL24">
         <f>RANK(AW24,$AW$4:$AW$33,0)</f>
@@ -8520,31 +8842,31 @@
       </c>
       <c r="AM24" s="15">
         <f>$AW24/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
-        <v>31.663574520717376</v>
+        <v>39.216843762298311</v>
       </c>
       <c r="AN24">
         <f>RANK(F24,F$4:F$33,0)</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AO24">
         <f>RANK(K24,K$4:K$33,0)</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AP24">
         <f>RANK(L24,L$4:L$33,0)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <f>RANK(O24,O$4:O$33,1)</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <f>RANK(T24,T$4:T$33,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS24">
         <f>RANK(Q24,Q$4:Q$33,0)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AT24">
         <f>RANK(V24,V$4:V$33,0)</f>
@@ -8552,56 +8874,189 @@
       </c>
       <c r="AU24">
         <f>RANK(W24,W$4:W$33,0)</f>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AW24" s="14">
         <f>SUMPRODUCT(AN24:AU24,$AN$1:$AU$1)</f>
-        <v>76.8</v>
+        <v>99.65</v>
       </c>
       <c r="AX24" s="14"/>
       <c r="AY24" s="14">
         <f>IF(V24&lt;0,(-100+V24)/V24,V24/100+1)</f>
-        <v>2.2199999999999998</v>
+        <v>2.27</v>
       </c>
       <c r="AZ24" s="25">
         <f>(1-((AY24-1)/2))</f>
-        <v>0.39000000000000012</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="BA24" s="14">
         <f>AZ24*4</f>
-        <v>1.5600000000000005</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="25" spans="1:53">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="7"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="22"/>
-      <c r="AM25" s="15"/>
-      <c r="AW25" s="14"/>
+      <c r="A25">
+        <v>502046</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="4">
+        <v>5200</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="26">
+        <v>42485.361111111109</v>
+      </c>
+      <c r="I25" s="3">
+        <v>313.10000000000002</v>
+      </c>
+      <c r="J25" s="23">
+        <v>13.2</v>
+      </c>
+      <c r="K25" s="23">
+        <v>4.24</v>
+      </c>
+      <c r="L25" s="23">
+        <v>6.45</v>
+      </c>
+      <c r="M25" s="23">
+        <v>4.25</v>
+      </c>
+      <c r="N25" s="23">
+        <v>6.83</v>
+      </c>
+      <c r="O25" s="23">
+        <v>6.46</v>
+      </c>
+      <c r="P25" s="23">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="Q25" s="24">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="R25" s="24">
+        <v>0.216</v>
+      </c>
+      <c r="S25" s="21">
+        <v>23.1</v>
+      </c>
+      <c r="T25" s="14">
+        <v>7.3150000000000004</v>
+      </c>
+      <c r="U25" s="14">
+        <v>5.2201469999999999</v>
+      </c>
+      <c r="V25" s="7">
+        <v>126</v>
+      </c>
+      <c r="W25">
+        <v>12</v>
+      </c>
+      <c r="X25" s="14">
+        <v>5.58</v>
+      </c>
+      <c r="Y25" s="22">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="Z25">
+        <v>6600</v>
+      </c>
+      <c r="AA25">
+        <v>7100</v>
+      </c>
+      <c r="AB25">
+        <v>7000</v>
+      </c>
+      <c r="AC25">
+        <v>6000</v>
+      </c>
+      <c r="AD25">
+        <v>6000</v>
+      </c>
+      <c r="AE25">
+        <v>-500</v>
+      </c>
+      <c r="AF25">
+        <v>-400</v>
+      </c>
+      <c r="AG25">
+        <v>1600</v>
+      </c>
+      <c r="AH25">
+        <v>600</v>
+      </c>
+      <c r="AI25">
+        <v>600</v>
+      </c>
+      <c r="AL25">
+        <f>RANK(AW25,$AW$4:$AW$33,0)</f>
+        <v>22</v>
+      </c>
+      <c r="AM25" s="15">
+        <f>$AW25/(MAX($AL:$AL)*SUM($AN$1:$AU$1))*100</f>
+        <v>37.15072805981896</v>
+      </c>
+      <c r="AN25">
+        <f>RANK(F25,F$4:F$33,0)</f>
+        <v>22</v>
+      </c>
+      <c r="AO25">
+        <f>RANK(K25,K$4:K$33,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AP25">
+        <f>RANK(L25,L$4:L$33,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <f>RANK(O25,O$4:O$33,1)</f>
+        <v>4</v>
+      </c>
+      <c r="AR25">
+        <f>RANK(T25,T$4:T$33,1)</f>
+        <v>8</v>
+      </c>
+      <c r="AS25">
+        <f>RANK(Q25,Q$4:Q$33,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AT25">
+        <f>RANK(V25,V$4:V$33,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AU25">
+        <f>RANK(W25,W$4:W$33,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW25" s="14">
+        <f>SUMPRODUCT(AN25:AU25,$AN$1:$AU$1)</f>
+        <v>94.399999999999991</v>
+      </c>
       <c r="AX25" s="14"/>
-      <c r="AY25" s="14"/>
-      <c r="AZ25" s="25"/>
-      <c r="BA25" s="14"/>
+      <c r="AY25" s="14">
+        <f>IF(V25&lt;0,(-100+V25)/V25,V25/100+1)</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AZ25" s="25">
+        <f>(1-((AY25-1)/2))</f>
+        <v>0.37000000000000011</v>
+      </c>
+      <c r="BA25" s="14">
+        <f>AZ25*4</f>
+        <v>1.4800000000000004</v>
+      </c>
     </row>
     <row r="26" spans="1:53">
       <c r="B26" s="2"/>
@@ -8895,8 +9350,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:BA3">
-    <sortState ref="A4:BA24">
-      <sortCondition ref="AL3:AL24"/>
+    <sortState ref="A4:BA25">
+      <sortCondition ref="AL3:AL25"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="AL4:AL33">
